--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,13 +8,63 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764F15A-A2C0-4668-98E0-6C58104B3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8A357-34B1-4695-A502-127B8737C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$S$34</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$B$29</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Foglio1!$C$27:$E$27</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Foglio1!$C$29:$E$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Foglio1!$D$27:$E$27</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Foglio1!$D$29:$E$29</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Foglio1!$D$30:$E$30</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Foglio1!$D$31:$E$31</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Foglio1!$D$32:$E$32</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Foglio1!$D$33:$E$33</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Foglio1!$D$34:$E$34</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Foglio1!$D$35:$E$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$30</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Foglio1!$D$36:$E$36</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Foglio1!$D$37:$E$37</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Foglio1!$S$34</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Foglio1!$B$29</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Foglio1!$B$30</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Foglio1!$B$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Foglio1!$B$32</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Foglio1!$B$33</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Foglio1!$B$34</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Foglio1!$B$35</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$B$31</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Foglio1!$B$36</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Foglio1!$B$37</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Foglio1!$C$27:$E$27</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Foglio1!$C$29:$E$29</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Foglio1!$D$27:$E$27</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Foglio1!$D$29:$E$29</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Foglio1!$D$30:$E$30</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Foglio1!$D$31:$E$31</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Foglio1!$D$32:$E$32</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Foglio1!$D$33:$E$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$B$32</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Foglio1!$D$34:$E$34</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Foglio1!$D$35:$E$35</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Foglio1!$D$36:$E$36</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Foglio1!$D$37:$E$37</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Foglio1!$S$34</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$B$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$B$34</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$B$35</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Foglio1!$B$36</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Foglio1!$B$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -47,13 +97,7 @@
     <t>Code Hoisting Solution</t>
   </si>
   <si>
-    <t>Power Analysis</t>
-  </si>
-  <si>
     <t>Utilization Analysis</t>
-  </si>
-  <si>
-    <t>Timing Analysis</t>
   </si>
   <si>
     <t>WNS [ns]</t>
@@ -104,20 +148,29 @@
     <t>Data [mW]</t>
   </si>
   <si>
-    <t>Frequency Analysis</t>
-  </si>
-  <si>
     <t>Maximum Clock Frequency [MHz]</t>
   </si>
   <si>
     <t>Total [mW]</t>
+  </si>
+  <si>
+    <t>Dynamic Power Analysis</t>
+  </si>
+  <si>
+    <t>Timing and Frequency Analysis</t>
+  </si>
+  <si>
+    <t>ABSOLUTE ERROR</t>
+  </si>
+  <si>
+    <t>VALUES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +193,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -270,23 +331,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -299,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,16 +353,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -343,19 +383,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -373,6 +434,5787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Power Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock Enable [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45422746916301499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37048768717795599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.292603217530996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2154849246144299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7567886970937299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.09893758781254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33501180587336399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41467678966000698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32119487877935199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hierarchical [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5007653795182696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.036928743123999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7030776515603101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I/O [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.56393656693399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2713813968002796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.45818751864135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92148053226992499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.838255044072866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59028825489804104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set/Reset [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.56509622179146E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3474038900749301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4.1604484977142402E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.00705958902836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3819906162098099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93770562671124902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.001531363623146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.073856378028722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.406155184431555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C642-429A-B9F7-CB06BAC637E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="870360288"/>
+        <c:axId val="870359808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="870360288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870359808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="870359808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870360288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utilization Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUT [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F32D-4256-900E-3D82AFAF8BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUTRAM [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F32D-4256-900E-3D82AFAF8BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F32D-4256-900E-3D82AFAF8BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F32D-4256-900E-3D82AFAF8BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IO [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F32D-4256-900E-3D82AFAF8BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUFG [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F32D-4256-900E-3D82AFAF8BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="939963423"/>
+        <c:axId val="939963903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="939963423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939963903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="939963903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939963423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Dynamic Power Analysis (Absolute Error)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock Enable [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-8.3739781985058992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16162425163201899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.54130377247929995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11654733680188989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.9664983786642996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3816927094011999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hierarchical [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.5361633636057297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7976877279579595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I/O [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.7074448298662896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.10574904829264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-8.3225488197058994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33119227737188395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set/Reset [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.1769233171652991E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9535227592278023E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.37493102718144988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.9353962317110995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.0723250144055774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5953761791915921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C551-4A9E-AC6F-534ADBE5033F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="935639695"/>
+        <c:axId val="935637775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="935639695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935637775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935637775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935639695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utilization Analysis (Absolute Error)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUT [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63BA-46CE-94A5-676B31E27CC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUTRAM [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$40:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63BA-46CE-94A5-676B31E27CC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$41:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63BA-46CE-94A5-676B31E27CC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$42:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-63BA-46CE-94A5-676B31E27CC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IO [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$43:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-63BA-46CE-94A5-676B31E27CC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUFG [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$44:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-63BA-46CE-94A5-676B31E27CC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1032077359"/>
+        <c:axId val="1032075919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1032077359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032075919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1032075919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032077359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265579</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493554</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2961</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA15B43-FEF9-6099-FAD9-431308EB676B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>574302</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100721</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BF650F-16DA-847F-8FCC-1A793CBAE015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>278944</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478517</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844EF450-BADA-6BD5-6B89-825C31FF49B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>578302</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4678BC62-5CCF-FD49-0721-5D4082981A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Foglio1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Non Optimized Design</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Registering Design</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Clock Gating Selectors Design</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Clock Gating Inputs Design</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Clock Gating All Design</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>Hybrid Clock Gating All and Registering Design</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Clocks Power [mW]</v>
+          </cell>
+          <cell r="C5">
+            <v>1.7108991742134101</v>
+          </cell>
+          <cell r="D5">
+            <v>2.5287989992648403</v>
+          </cell>
+          <cell r="E5">
+            <v>1.58879917580634</v>
+          </cell>
+          <cell r="F5">
+            <v>2.03909818083048</v>
+          </cell>
+          <cell r="G5">
+            <v>1.48880027700216</v>
+          </cell>
+          <cell r="H5">
+            <v>2.01009842567146</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Signals Data Power [mW]</v>
+          </cell>
+          <cell r="C6">
+            <v>8.2017192617058807</v>
+          </cell>
+          <cell r="D6">
+            <v>7.1427957154810402</v>
+          </cell>
+          <cell r="E6">
+            <v>8.1042144447565096</v>
+          </cell>
+          <cell r="F6">
+            <v>8.0843381583690608</v>
+          </cell>
+          <cell r="G6">
+            <v>8.0169141292572004</v>
+          </cell>
+          <cell r="H6">
+            <v>7.0602511987090102</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Logic Power [mW]</v>
+          </cell>
+          <cell r="C7">
+            <v>3.8697000127285701</v>
+          </cell>
+          <cell r="D7">
+            <v>2.55344109609723</v>
+          </cell>
+          <cell r="E7">
+            <v>3.68808512575924</v>
+          </cell>
+          <cell r="F7">
+            <v>3.8097926881164299</v>
+          </cell>
+          <cell r="G7">
+            <v>3.4701528493314999</v>
+          </cell>
+          <cell r="H7">
+            <v>2.4122339673340298</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Total Power [mW]</v>
+          </cell>
+          <cell r="C8">
+            <v>13.78231844864786</v>
+          </cell>
+          <cell r="D8">
+            <v>12.22503581084311</v>
+          </cell>
+          <cell r="E8">
+            <v>13.38109874632209</v>
+          </cell>
+          <cell r="F8">
+            <v>13.933229027315971</v>
+          </cell>
+          <cell r="G8">
+            <v>12.97586725559086</v>
+          </cell>
+          <cell r="H8">
+            <v>11.4825835917145</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,16 +6534,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -709,6 +6551,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,232 +6565,662 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
         <f>1000*0.000454227469163015</f>
         <v>0.45422746916301499</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="9">
+        <f>1000*0.000370487687177956</f>
+        <v>0.37048768717795599</v>
+      </c>
+      <c r="E4" s="4">
+        <f>1000*0.000292603217530996</f>
+        <v>0.292603217530996</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <f>1000*0.00121548492461443</f>
         <v>1.2154849246144299</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="10">
+        <f>1000*0.00175678869709373</f>
+        <v>1.7567886970937299</v>
+      </c>
+      <c r="E5" s="5">
+        <f>1000*0.00109893758781254</f>
+        <v>1.09893758781254</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
         <f>1000*0.000335011805873364</f>
         <v>0.33501180587336399</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="10">
+        <f>1000*0.000414676789660007</f>
+        <v>0.41467678966000698</v>
+      </c>
+      <c r="E6" s="5">
+        <f>1000*0.000321194878779352</f>
+        <v>0.32119487877935199</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
         <f>1000*0.00750076537951827</f>
         <v>7.5007653795182696</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="10">
+        <f>1000*0.011036928743124</f>
+        <v>11.036928743123999</v>
+      </c>
+      <c r="E7" s="5">
+        <f>1000*0.00570307765156031</f>
+        <v>5.7030776515603101</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
         <f>1000*0.00356393656693399</f>
         <v>3.56393656693399</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="10">
+        <f>1000*0.00627138139680028</f>
+        <v>6.2713813968002796</v>
+      </c>
+      <c r="E8" s="5">
+        <f>1000*0.00245818751864135</f>
+        <v>2.45818751864135</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
         <f>1000*0.000921480532269925</f>
         <v>0.92148053226992499</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="10">
+        <f>1000*0.000838255044072866</f>
+        <v>0.838255044072866</v>
+      </c>
+      <c r="E9" s="5">
+        <f>1000*0.000590288254898041</f>
+        <v>0.59028825489804104</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13">
         <f>1000*3.56509622179146E-06</f>
         <v>3.56509622179146E-3</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="14">
+        <f>1000*3.34740389007493E-06</f>
+        <v>3.3474038900749301E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <f>1000*4.16044849771424E-06</f>
+        <v>4.1604484977142402E-3</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
         <f>1000*0.00100705958902836</f>
         <v>1.00705958902836</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="10">
+        <f>1000*0.00138199061620981</f>
+        <v>1.3819906162098099</v>
+      </c>
+      <c r="E11" s="5">
+        <f>1000*0.000937705626711249</f>
+        <v>0.93770562671124902</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
         <f>SUM(C4:C11)</f>
         <v>15.001531363623146</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="11">
+        <f>SUM(D4:D11)</f>
+        <v>22.073856378028722</v>
+      </c>
+      <c r="E12" s="11">
+        <f>SUM(E4:E11)</f>
+        <v>11.406155184431555</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>275</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="9">
+        <v>270</v>
+      </c>
+      <c r="E14" s="4">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
         <v>32</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="10">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
         <v>160</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="10">
+        <v>134</v>
+      </c>
+      <c r="E16" s="5">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
         <v>71</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="10">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
         <v>10</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="16">
         <v>3.6539999999999999</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.464</v>
+      </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6">
         <f>1000*1/(C21-C22)</f>
         <v>157.5795776867318</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
+      <c r="D23" s="6">
+        <f>1000*1/(D21-D22)</f>
+        <v>144.38348252959861</v>
+      </c>
+      <c r="E23" s="11">
+        <f>1000*1/(E21-E22)</f>
+        <v>152.99877600979192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <f>1000*0.000454227469163015</f>
+        <v>0.45422746916301499</v>
+      </c>
+      <c r="D29" s="9">
+        <f>1000*0.000370487687177956-C29</f>
+        <v>-8.3739781985058992E-2</v>
+      </c>
+      <c r="E29" s="4">
+        <f>1000*0.000292603217530996-C29</f>
+        <v>-0.16162425163201899</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <f>1000*0.00121548492461443</f>
+        <v>1.2154849246144299</v>
+      </c>
+      <c r="D30" s="10">
+        <f>1000*0.00175678869709373-C30</f>
+        <v>0.54130377247929995</v>
+      </c>
+      <c r="E30" s="5">
+        <f>1000*0.00109893758781254-C30</f>
+        <v>-0.11654733680188989</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <f>1000*0.000335011805873364</f>
+        <v>0.33501180587336399</v>
+      </c>
+      <c r="D31" s="10">
+        <f>1000*0.000414676789660007-C31</f>
+        <v>7.9664983786642996E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f>1000*0.000321194878779352-C31</f>
+        <v>-1.3816927094011999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <f>1000*0.00750076537951827</f>
+        <v>7.5007653795182696</v>
+      </c>
+      <c r="D32" s="10">
+        <f>1000*0.011036928743124-C32</f>
+        <v>3.5361633636057297</v>
+      </c>
+      <c r="E32" s="5">
+        <f>1000*0.00570307765156031-C32</f>
+        <v>-1.7976877279579595</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <f>1000*0.00356393656693399</f>
+        <v>3.56393656693399</v>
+      </c>
+      <c r="D33" s="10">
+        <f>1000*0.00627138139680028-C33</f>
+        <v>2.7074448298662896</v>
+      </c>
+      <c r="E33" s="5">
+        <f>1000*0.00245818751864135-C33</f>
+        <v>-1.10574904829264</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <f>1000*0.000921480532269925</f>
+        <v>0.92148053226992499</v>
+      </c>
+      <c r="D34" s="10">
+        <f>1000*0.000838255044072866-C34</f>
+        <v>-8.3225488197058994E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <f>1000*0.000590288254898041-C34</f>
+        <v>-0.33119227737188395</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="13">
+        <f>1000*3.56509622179146E-06</f>
+        <v>3.56509622179146E-3</v>
+      </c>
+      <c r="D35" s="14">
+        <f>1000*3.34740389007493E-06-C35</f>
+        <v>-2.1769233171652991E-4</v>
+      </c>
+      <c r="E35" s="24">
+        <f>1000*4.16044849771424E-06-C35</f>
+        <v>5.9535227592278023E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <f>1000*0.00100705958902836</f>
+        <v>1.00705958902836</v>
+      </c>
+      <c r="D36" s="10">
+        <f>1000*0.00138199061620981-C36</f>
+        <v>0.37493102718144988</v>
+      </c>
+      <c r="E36" s="5">
+        <f>1000*0.000937705626711249-C36</f>
+        <v>-6.9353962317110995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="11">
+        <f>SUM(C29:C36)</f>
+        <v>15.001531363623146</v>
+      </c>
+      <c r="D37" s="11">
+        <f>SUM(D29:D36)</f>
+        <v>7.0723250144055774</v>
+      </c>
+      <c r="E37" s="11">
+        <f>SUM(E29:E36)</f>
+        <v>-3.5953761791915921</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3">
+        <v>275</v>
+      </c>
+      <c r="D39" s="9">
+        <f>270-C39</f>
+        <v>-5</v>
+      </c>
+      <c r="E39" s="4">
+        <f>158-C39</f>
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>32</v>
+      </c>
+      <c r="D40" s="10">
+        <f>32-C40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <f>32-C40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>160</v>
+      </c>
+      <c r="D41" s="10">
+        <f>134-C41</f>
+        <v>-26</v>
+      </c>
+      <c r="E41" s="5">
+        <f>106-C41</f>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10">
+        <f>2-C42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <f>2-C42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>71</v>
+      </c>
+      <c r="D43" s="10">
+        <f>71-C43</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <f>71-C43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <f>1-C44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <f>1-C44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>10</v>
+      </c>
+      <c r="D46" s="9">
+        <f>10-C46</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <f>10-C46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="16">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="D47" s="10">
+        <f>3.074-C47</f>
+        <v>-0.58000000000000007</v>
+      </c>
+      <c r="E47" s="5">
+        <f>3.464-C47</f>
+        <v>-0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="6">
+        <f>1000*1/(C46-C47)</f>
+        <v>157.5795776867318</v>
+      </c>
+      <c r="D48" s="6">
+        <f>D23-C48</f>
+        <v>-13.196095157133186</v>
+      </c>
+      <c r="E48" s="11">
+        <f>E23-C48</f>
+        <v>-4.5808016769398705</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="8">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D48" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,63 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8A357-34B1-4695-A502-127B8737C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC90EB-B4CC-4C85-B508-FD5193C743B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$S$34</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$B$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Foglio1!$C$27:$E$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Foglio1!$C$29:$E$29</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Foglio1!$D$27:$E$27</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Foglio1!$D$29:$E$29</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Foglio1!$D$30:$E$30</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Foglio1!$D$31:$E$31</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Foglio1!$D$32:$E$32</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Foglio1!$D$33:$E$33</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Foglio1!$D$34:$E$34</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Foglio1!$D$35:$E$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$30</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Foglio1!$D$36:$E$36</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Foglio1!$D$37:$E$37</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Foglio1!$S$34</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Foglio1!$B$29</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Foglio1!$B$30</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Foglio1!$B$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Foglio1!$B$32</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Foglio1!$B$33</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Foglio1!$B$34</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Foglio1!$B$35</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$B$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Foglio1!$B$36</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Foglio1!$B$37</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Foglio1!$C$27:$E$27</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Foglio1!$C$29:$E$29</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Foglio1!$D$27:$E$27</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Foglio1!$D$29:$E$29</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Foglio1!$D$30:$E$30</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Foglio1!$D$31:$E$31</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Foglio1!$D$32:$E$32</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Foglio1!$D$33:$E$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$B$32</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Foglio1!$D$34:$E$34</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Foglio1!$D$35:$E$35</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Foglio1!$D$36:$E$36</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Foglio1!$D$37:$E$37</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Foglio1!$S$34</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$B$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$B$34</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$B$35</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Foglio1!$B$36</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Foglio1!$B$37</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -165,6 +115,18 @@
   <si>
     <t>VALUES</t>
   </si>
+  <si>
+    <t>BRAM [#]</t>
+  </si>
+  <si>
+    <t>Loop Unrolling Solution Factor=2</t>
+  </si>
+  <si>
+    <t>Loop Unrolling Solution Factor=4</t>
+  </si>
+  <si>
+    <t>BRAM[#]</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -341,11 +303,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,17 +387,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,7 +408,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,9 +559,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -563,16 +570,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$E$4</c:f>
+              <c:f>Foglio1!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -581,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.292603217530996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13704053708352099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,9 +646,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -644,16 +657,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$E$5</c:f>
+              <c:f>Foglio1!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -662,6 +678,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.09893758781254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18466742767486699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,9 +733,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -725,16 +744,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$E$6</c:f>
+              <c:f>Foglio1!$C$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -743,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.32119487877935199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1144292075187001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,9 +818,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -804,16 +829,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$E$7</c:f>
+              <c:f>Foglio1!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -822,6 +850,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.7030776515603101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.542666703462601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,9 +903,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -883,16 +914,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$E$8</c:f>
+              <c:f>Foglio1!$C$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -901,6 +935,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.45818751864135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9033727049827602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,9 +990,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -964,16 +1001,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$9:$E$9</c:f>
+              <c:f>Foglio1!$C$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -982,6 +1022,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.59028825489804104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.444400648120791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,9 +1079,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1047,16 +1090,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$E$10</c:f>
+              <c:f>Foglio1!$C$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1065,6 +1111,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>4.1604484977142402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>8.3271625044289994E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,9 +1172,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1134,16 +1183,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$11:$E$11</c:f>
+              <c:f>Foglio1!$C$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1152,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93770562671124902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.643483945168555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,9 +1265,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1221,16 +1276,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$12:$E$12</c:f>
+              <c:f>Foglio1!$C$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1239,6 +1297,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.406155184431555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.978388336516225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1312,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1494,772 +1554,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Utilization Analysis</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LUT [#]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$14:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F32D-4256-900E-3D82AFAF8BB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LUTRAM [#]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$15:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F32D-4256-900E-3D82AFAF8BB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FF [#]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$16:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F32D-4256-900E-3D82AFAF8BB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP [#]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$17:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F32D-4256-900E-3D82AFAF8BB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IO [#]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$18:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F32D-4256-900E-3D82AFAF8BB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BUFG [#]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$19:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F32D-4256-900E-3D82AFAF8BB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="939963423"/>
-        <c:axId val="939963903"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="939963423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="939963903"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="939963903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="939963423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="it-IT"/>
               <a:t>Dynamic Power Analysis (Absolute Error)</a:t>
             </a:r>
@@ -2307,7 +1601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$29</c:f>
+              <c:f>Foglio1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2328,29 +1622,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$29:$E$29</c:f>
+              <c:f>Foglio1!$D$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.16162425163201899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.317186932079494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,7 +1666,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$30</c:f>
+              <c:f>Foglio1!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2387,29 +1687,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$30:$E$30</c:f>
+              <c:f>Foglio1!$D$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.11654733680188989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0308174969395629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,7 +1731,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$31</c:f>
+              <c:f>Foglio1!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2446,29 +1752,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$31:$E$31</c:f>
+              <c:f>Foglio1!$D$32:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.3816927094011999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77941740164533613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,7 +1796,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$32</c:f>
+              <c:f>Foglio1!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2505,29 +1817,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$32:$E$32</c:f>
+              <c:f>Foglio1!$D$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.7976877279579595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0419013239443311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,7 +1861,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$33</c:f>
+              <c:f>Foglio1!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2564,29 +1882,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$33:$E$33</c:f>
+              <c:f>Foglio1!$D$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.10574904829264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3394361380487703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,7 +1926,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$34</c:f>
+              <c:f>Foglio1!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2623,29 +1947,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$34:$E$34</c:f>
+              <c:f>Foglio1!$D$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.33119227737188395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.47707988414913399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +1991,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$35</c:f>
+              <c:f>Foglio1!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2684,29 +2014,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$35:$E$35</c:f>
+              <c:f>Foglio1!$D$36:$F$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.9535227592278023E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7620662826375389E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2058,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$36</c:f>
+              <c:f>Foglio1!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2745,29 +2081,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$36:$E$36</c:f>
+              <c:f>Foglio1!$D$37:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6.9353962317110995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.36357564385980501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +2125,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$37</c:f>
+              <c:f>Foglio1!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2806,29 +2148,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$37:$E$37</c:f>
+              <c:f>Foglio1!$D$38:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7.0723250144055774</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0723250144055765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.5953761791915921</c:v>
+                  <c:v>-3.5953761791915912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9768569728930796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2188,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3049,6 +2396,897 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utilization Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUT [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUTRAM [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRAM [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IO [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUFG [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E45A-469D-B527-84693B19B69F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1358486351"/>
+        <c:axId val="1358484431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1358486351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358484431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1358484431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358486351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3130,7 +3368,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$39</c:f>
+              <c:f>Foglio1!$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3151,36 +3389,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$39:$E$39</c:f>
+              <c:f>Foglio1!$D$40:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63BA-46CE-94A5-676B31E27CC8}"/>
+              <c16:uniqueId val="{00000000-FD73-4910-9F61-ABADC89AD800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3189,7 +3433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$40</c:f>
+              <c:f>Foglio1!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3210,36 +3454,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$40:$E$40</c:f>
+              <c:f>Foglio1!$D$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63BA-46CE-94A5-676B31E27CC8}"/>
+              <c16:uniqueId val="{00000001-FD73-4910-9F61-ABADC89AD800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3248,7 +3498,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$41</c:f>
+              <c:f>Foglio1!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3269,36 +3519,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$41:$E$41</c:f>
+              <c:f>Foglio1!$D$42:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63BA-46CE-94A5-676B31E27CC8}"/>
+              <c16:uniqueId val="{00000002-FD73-4910-9F61-ABADC89AD800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3307,11 +3563,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$42</c:f>
+              <c:f>Foglio1!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DSP [#]</c:v>
+                  <c:v>BRAM[#]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3328,36 +3584,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$42:$E$42</c:f>
+              <c:f>Foglio1!$D$43:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-63BA-46CE-94A5-676B31E27CC8}"/>
+              <c16:uniqueId val="{00000003-FD73-4910-9F61-ABADC89AD800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3366,11 +3628,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$43</c:f>
+              <c:f>Foglio1!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IO [#]</c:v>
+                  <c:v>DSP [#]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3387,36 +3649,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$43:$E$43</c:f>
+              <c:f>Foglio1!$D$44:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-63BA-46CE-94A5-676B31E27CC8}"/>
+              <c16:uniqueId val="{00000004-FD73-4910-9F61-ABADC89AD800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3425,11 +3693,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$44</c:f>
+              <c:f>Foglio1!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BUFG [#]</c:v>
+                  <c:v>IO [#]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3446,28 +3714,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$27:$E$27</c:f>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$44:$E$44</c:f>
+              <c:f>Foglio1!$D$45:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3475,7 +3749,74 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-63BA-46CE-94A5-676B31E27CC8}"/>
+              <c16:uniqueId val="{00000005-FD73-4910-9F61-ABADC89AD800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUFG [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FD73-4910-9F61-ABADC89AD800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3490,11 +3831,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1032077359"/>
-        <c:axId val="1032075919"/>
+        <c:axId val="1394628447"/>
+        <c:axId val="1394626527"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1032077359"/>
+        <c:axId val="1394628447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,7 +3892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1032075919"/>
+        <c:crossAx val="1394626527"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3559,7 +3900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1032075919"/>
+        <c:axId val="1394626527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3602,7 +3943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1032077359"/>
+        <c:crossAx val="1394628447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4371,7 +4712,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4440,7 +4781,10 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4892,7 +5236,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4961,10 +5305,7 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5979,42 +6320,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>574302</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>100721</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>24813</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BF650F-16DA-847F-8FCC-1A793CBAE015}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>278944</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -6043,6 +6348,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65483</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F58DC4-5BEC-94E9-A1A5-5AA7227A8B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -6051,23 +6392,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>578302</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53576</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:rowOff>146444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>130966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4678BC62-5CCF-FD49-0721-5D4082981A77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A381D31-A6C4-3EC4-BA30-73AB09A9AE53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6086,135 +6427,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Non Optimized Design</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Registering Design</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Clock Gating Selectors Design</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Clock Gating Inputs Design</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Clock Gating All Design</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>Hybrid Clock Gating All and Registering Design</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Clocks Power [mW]</v>
-          </cell>
-          <cell r="C5">
-            <v>1.7108991742134101</v>
-          </cell>
-          <cell r="D5">
-            <v>2.5287989992648403</v>
-          </cell>
-          <cell r="E5">
-            <v>1.58879917580634</v>
-          </cell>
-          <cell r="F5">
-            <v>2.03909818083048</v>
-          </cell>
-          <cell r="G5">
-            <v>1.48880027700216</v>
-          </cell>
-          <cell r="H5">
-            <v>2.01009842567146</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Signals Data Power [mW]</v>
-          </cell>
-          <cell r="C6">
-            <v>8.2017192617058807</v>
-          </cell>
-          <cell r="D6">
-            <v>7.1427957154810402</v>
-          </cell>
-          <cell r="E6">
-            <v>8.1042144447565096</v>
-          </cell>
-          <cell r="F6">
-            <v>8.0843381583690608</v>
-          </cell>
-          <cell r="G6">
-            <v>8.0169141292572004</v>
-          </cell>
-          <cell r="H6">
-            <v>7.0602511987090102</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Logic Power [mW]</v>
-          </cell>
-          <cell r="C7">
-            <v>3.8697000127285701</v>
-          </cell>
-          <cell r="D7">
-            <v>2.55344109609723</v>
-          </cell>
-          <cell r="E7">
-            <v>3.68808512575924</v>
-          </cell>
-          <cell r="F7">
-            <v>3.8097926881164299</v>
-          </cell>
-          <cell r="G7">
-            <v>3.4701528493314999</v>
-          </cell>
-          <cell r="H7">
-            <v>2.4122339673340298</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Total Power [mW]</v>
-          </cell>
-          <cell r="C8">
-            <v>13.78231844864786</v>
-          </cell>
-          <cell r="D8">
-            <v>12.22503581084311</v>
-          </cell>
-          <cell r="E8">
-            <v>13.38109874632209</v>
-          </cell>
-          <cell r="F8">
-            <v>13.933229027315971</v>
-          </cell>
-          <cell r="G8">
-            <v>12.97586725559086</v>
-          </cell>
-          <cell r="H8">
-            <v>11.4825835917145</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6534,24 +6746,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
-  <dimension ref="B2:E48"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6563,16 +6776,24 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -6588,8 +6809,13 @@
         <f>1000*0.000292603217530996</f>
         <v>0.292603217530996</v>
       </c>
+      <c r="F4" s="9">
+        <f>1000*0.000137040537083521</f>
+        <v>0.13704053708352099</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -6605,8 +6831,13 @@
         <f>1000*0.00109893758781254</f>
         <v>1.09893758781254</v>
       </c>
+      <c r="F5" s="10">
+        <f>1000*0.000184667427674867</f>
+        <v>0.18466742767486699</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -6622,8 +6853,13 @@
         <f>1000*0.000321194878779352</f>
         <v>0.32119487877935199</v>
       </c>
+      <c r="F6" s="10">
+        <f>1000*0.0011144292075187</f>
+        <v>1.1144292075187001</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -6639,8 +6875,13 @@
         <f>1000*0.00570307765156031</f>
         <v>5.7030776515603101</v>
       </c>
+      <c r="F7" s="10">
+        <f>1000*0.0115426667034626</f>
+        <v>11.542666703462601</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -6656,8 +6897,13 @@
         <f>1000*0.00245818751864135</f>
         <v>2.45818751864135</v>
       </c>
+      <c r="F8" s="10">
+        <f>1000*0.00690337270498276</f>
+        <v>6.9033727049827602</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -6673,8 +6919,13 @@
         <f>1000*0.000590288254898041</f>
         <v>0.59028825489804104</v>
       </c>
+      <c r="F9" s="10">
+        <f>1000*0.000444400648120791</f>
+        <v>0.444400648120791</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -6690,8 +6941,13 @@
         <f>1000*4.16044849771424E-06</f>
         <v>4.1604484977142402E-3</v>
       </c>
+      <c r="F10" s="10">
+        <f>1000*0.000008327162504429</f>
+        <v>8.3271625044289994E-3</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -6707,8 +6963,13 @@
         <f>1000*0.000937705626711249</f>
         <v>0.93770562671124902</v>
       </c>
+      <c r="F11" s="10">
+        <f>1000*0.000643483945168555</f>
+        <v>0.643483945168555</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -6724,16 +6985,23 @@
         <f>SUM(E4:E11)</f>
         <v>11.406155184431555</v>
       </c>
+      <c r="F12" s="11">
+        <f>SUM(F4:F11)</f>
+        <v>20.978388336516225</v>
+      </c>
+      <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -6746,8 +7014,12 @@
       <c r="E14" s="4">
         <v>158</v>
       </c>
+      <c r="F14" s="9">
+        <v>217</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -6760,8 +7032,12 @@
       <c r="E15" s="5">
         <v>32</v>
       </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -6774,453 +7050,573 @@
       <c r="E16" s="5">
         <v>106</v>
       </c>
+      <c r="F16" s="10">
+        <v>122</v>
+      </c>
+      <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>2</v>
       </c>
+      <c r="F18" s="10">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>71</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>71</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>71</v>
       </c>
+      <c r="F19" s="10">
+        <v>71</v>
+      </c>
+      <c r="G19" s="10"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11"/>
     </row>
-    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="15" t="s">
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>10</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>10</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>10</v>
       </c>
+      <c r="F22" s="25">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C23" s="1">
         <v>3.6539999999999999</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>3.0739999999999998</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>3.464</v>
       </c>
+      <c r="F23" s="24">
+        <v>4.2030000000000003</v>
+      </c>
+      <c r="G23" s="10"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
-        <f>1000*1/(C21-C22)</f>
+      <c r="C24" s="6">
+        <f>1000*1/(C22-C23)</f>
         <v>157.5795776867318</v>
       </c>
-      <c r="D23" s="6">
-        <f>1000*1/(D21-D22)</f>
+      <c r="D24" s="6">
+        <f>1000*1/(D22-D23)</f>
         <v>144.38348252959861</v>
       </c>
-      <c r="E23" s="11">
-        <f>1000*1/(E21-E22)</f>
+      <c r="E24" s="11">
+        <f>1000*1/(E22-E23)</f>
         <v>152.99877600979192</v>
       </c>
+      <c r="F24" s="11">
+        <f>1000*1/(F22-F23)</f>
+        <v>172.50301880282905</v>
+      </c>
+      <c r="G24" s="11"/>
     </row>
-    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3">
+        <f>D4-C4</f>
+        <v>-8.3739781985058992E-2</v>
+      </c>
+      <c r="E30" s="25">
+        <f>E4-C4</f>
+        <v>-0.16162425163201899</v>
+      </c>
+      <c r="F30" s="9">
+        <f>F4-C4</f>
+        <v>-0.317186932079494</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="23">
+        <f>D5-C5</f>
+        <v>0.54130377247929995</v>
+      </c>
+      <c r="E31" s="24">
+        <f>E5-C5</f>
+        <v>-0.11654733680188989</v>
+      </c>
+      <c r="F31" s="10">
+        <f>F5-C5</f>
+        <v>-1.0308174969395629</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="23">
+        <f>D6-C6</f>
+        <v>7.9664983786642996E-2</v>
+      </c>
+      <c r="E32" s="24">
+        <f>E6-C6</f>
+        <v>-1.3816927094011999E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <f>F6-C6</f>
+        <v>0.77941740164533613</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="23">
+        <f>D7-C7</f>
+        <v>3.5361633636057297</v>
+      </c>
+      <c r="E33" s="24">
+        <f>E7-C7</f>
+        <v>-1.7976877279579595</v>
+      </c>
+      <c r="F33" s="10">
+        <f>F7-C7</f>
+        <v>4.0419013239443311</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="23">
+        <f>D8-C8</f>
+        <v>2.7074448298662896</v>
+      </c>
+      <c r="E34" s="24">
+        <f>E8-C8</f>
+        <v>-1.10574904829264</v>
+      </c>
+      <c r="F34" s="10">
+        <f>F8-C8</f>
+        <v>3.3394361380487703</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="23">
+        <f>D9-C9</f>
+        <v>-8.3225488197058994E-2</v>
+      </c>
+      <c r="E35" s="24">
+        <f>E9-C9</f>
+        <v>-0.33119227737188395</v>
+      </c>
+      <c r="F35" s="10">
+        <f>F9-C9</f>
+        <v>-0.47707988414913399</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="23">
+        <f>D10-C10</f>
+        <v>-2.1769233171652991E-4</v>
+      </c>
+      <c r="E36" s="24">
+        <f>E10-C10</f>
+        <v>5.9535227592278023E-4</v>
+      </c>
+      <c r="F36" s="10">
+        <f>F10-C10</f>
+        <v>4.7620662826375389E-3</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="23">
+        <f>D11-C11</f>
+        <v>0.37493102718144988</v>
+      </c>
+      <c r="E37" s="24">
+        <f>E11-C11</f>
+        <v>-6.9353962317110995E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <f>F11-C11</f>
+        <v>-0.36357564385980501</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="7">
+        <f>D12-C12</f>
+        <v>7.0723250144055765</v>
+      </c>
+      <c r="E38" s="6">
+        <f>E12-C12</f>
+        <v>-3.5953761791915912</v>
+      </c>
+      <c r="F38" s="11">
+        <f>F12-C12</f>
+        <v>5.9768569728930796</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="3">
+        <f>D14-C14</f>
+        <v>-5</v>
+      </c>
+      <c r="E40" s="25">
+        <f>E14-C14</f>
+        <v>-117</v>
+      </c>
+      <c r="F40" s="9">
+        <f>F14-C14</f>
+        <v>-58</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="23">
+        <f>D15-C15</f>
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E41" s="24">
+        <f>E15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <f>F15-C15</f>
+        <v>-32</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="23">
+        <f>D16-C16</f>
+        <v>-26</v>
+      </c>
+      <c r="E42" s="24">
+        <f>E16-C16</f>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="10">
+        <f>F16-C16</f>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="23">
+        <f>D17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="24">
+        <f>E17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <f>F17-C17</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="23">
+        <f>D18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="24">
+        <f>E18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <f>F18-C18</f>
         <v>2</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G44" s="5"/>
     </row>
-    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="23">
+        <f>D19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="24">
+        <f>E19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <f>F19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3">
-        <f>1000*0.000454227469163015</f>
-        <v>0.45422746916301499</v>
-      </c>
-      <c r="D29" s="9">
-        <f>1000*0.000370487687177956-C29</f>
-        <v>-8.3739781985058992E-2</v>
-      </c>
-      <c r="E29" s="4">
-        <f>1000*0.000292603217530996-C29</f>
-        <v>-0.16162425163201899</v>
-      </c>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="7">
+        <f>D20-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <f>E20-C20</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f>F20-C20</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="8"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <f>1000*0.00121548492461443</f>
-        <v>1.2154849246144299</v>
-      </c>
-      <c r="D30" s="10">
-        <f>1000*0.00175678869709373-C30</f>
-        <v>0.54130377247929995</v>
-      </c>
-      <c r="E30" s="5">
-        <f>1000*0.00109893758781254-C30</f>
-        <v>-0.11654733680188989</v>
-      </c>
+    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1">
-        <f>1000*0.000335011805873364</f>
-        <v>0.33501180587336399</v>
-      </c>
-      <c r="D31" s="10">
-        <f>1000*0.000414676789660007-C31</f>
-        <v>7.9664983786642996E-2</v>
-      </c>
-      <c r="E31" s="5">
-        <f>1000*0.000321194878779352-C31</f>
-        <v>-1.3816927094011999E-2</v>
-      </c>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="3">
+        <f>D22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
+        <f>E22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <f>F22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1">
-        <f>1000*0.00750076537951827</f>
-        <v>7.5007653795182696</v>
-      </c>
-      <c r="D32" s="10">
-        <f>1000*0.011036928743124-C32</f>
-        <v>3.5361633636057297</v>
-      </c>
-      <c r="E32" s="5">
-        <f>1000*0.00570307765156031-C32</f>
-        <v>-1.7976877279579595</v>
-      </c>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="23">
+        <f>D23-C23</f>
+        <v>-0.58000000000000007</v>
+      </c>
+      <c r="E49" s="24">
+        <f>E23-C23</f>
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="F49" s="10">
+        <f>F23-C23</f>
+        <v>0.54900000000000038</v>
+      </c>
+      <c r="G49" s="5"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1">
-        <f>1000*0.00356393656693399</f>
-        <v>3.56393656693399</v>
-      </c>
-      <c r="D33" s="10">
-        <f>1000*0.00627138139680028-C33</f>
-        <v>2.7074448298662896</v>
-      </c>
-      <c r="E33" s="5">
-        <f>1000*0.00245818751864135-C33</f>
-        <v>-1.10574904829264</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1">
-        <f>1000*0.000921480532269925</f>
-        <v>0.92148053226992499</v>
-      </c>
-      <c r="D34" s="10">
-        <f>1000*0.000838255044072866-C34</f>
-        <v>-8.3225488197058994E-2</v>
-      </c>
-      <c r="E34" s="5">
-        <f>1000*0.000590288254898041-C34</f>
-        <v>-0.33119227737188395</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="13">
-        <f>1000*3.56509622179146E-06</f>
-        <v>3.56509622179146E-3</v>
-      </c>
-      <c r="D35" s="14">
-        <f>1000*3.34740389007493E-06-C35</f>
-        <v>-2.1769233171652991E-4</v>
-      </c>
-      <c r="E35" s="24">
-        <f>1000*4.16044849771424E-06-C35</f>
-        <v>5.9535227592278023E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1">
-        <f>1000*0.00100705958902836</f>
-        <v>1.00705958902836</v>
-      </c>
-      <c r="D36" s="10">
-        <f>1000*0.00138199061620981-C36</f>
-        <v>0.37493102718144988</v>
-      </c>
-      <c r="E36" s="5">
-        <f>1000*0.000937705626711249-C36</f>
-        <v>-6.9353962317110995E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="11">
-        <f>SUM(C29:C36)</f>
-        <v>15.001531363623146</v>
-      </c>
-      <c r="D37" s="11">
-        <f>SUM(D29:D36)</f>
-        <v>7.0723250144055774</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUM(E29:E36)</f>
-        <v>-3.5953761791915921</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3">
-        <v>275</v>
-      </c>
-      <c r="D39" s="9">
-        <f>270-C39</f>
-        <v>-5</v>
-      </c>
-      <c r="E39" s="4">
-        <f>158-C39</f>
-        <v>-117</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1">
-        <v>32</v>
-      </c>
-      <c r="D40" s="10">
-        <f>32-C40</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <f>32-C40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
-        <v>160</v>
-      </c>
-      <c r="D41" s="10">
-        <f>134-C41</f>
-        <v>-26</v>
-      </c>
-      <c r="E41" s="5">
-        <f>106-C41</f>
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="10">
-        <f>2-C42</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <f>2-C42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <v>71</v>
-      </c>
-      <c r="D43" s="10">
-        <f>71-C43</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <f>71-C43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="11">
-        <f>1-C44</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <f>1-C44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>10</v>
-      </c>
-      <c r="D46" s="9">
-        <f>10-C46</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
-        <f>10-C46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="16">
-        <v>3.6539999999999999</v>
-      </c>
-      <c r="D47" s="10">
-        <f>3.074-C47</f>
-        <v>-0.58000000000000007</v>
-      </c>
-      <c r="E47" s="5">
-        <f>3.464-C47</f>
-        <v>-0.18999999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="6">
-        <f>1000*1/(C46-C47)</f>
-        <v>157.5795776867318</v>
-      </c>
-      <c r="D48" s="6">
-        <f>D23-C48</f>
+      <c r="C50" s="10"/>
+      <c r="D50" s="7">
+        <f>D24-C24</f>
         <v>-13.196095157133186</v>
       </c>
-      <c r="E48" s="11">
-        <f>E23-C48</f>
+      <c r="E50" s="6">
+        <f>E24-C24</f>
         <v>-4.5808016769398705</v>
       </c>
+      <c r="F50" s="11">
+        <f>F24-C24</f>
+        <v>14.923441116097251</v>
+      </c>
+      <c r="G50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D47:G47"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D48" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC90EB-B4CC-4C85-B508-FD5193C743B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C307493E-700E-450B-BA64-03359B08F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -172,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -323,24 +323,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,22 +395,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,9 +540,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -573,16 +554,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$F$4</c:f>
+              <c:f>Foglio1!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -594,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13704053708352099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29394408920779802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,9 +633,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -660,16 +647,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$F$5</c:f>
+              <c:f>Foglio1!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -681,6 +671,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.18466742767486699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38908739225007599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,9 +726,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -747,16 +740,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$F$6</c:f>
+              <c:f>Foglio1!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -768,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.1144292075187001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71984034730121504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,9 +817,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -832,16 +831,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$F$7</c:f>
+              <c:f>Foglio1!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -853,6 +855,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.542666703462601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.101872712373698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,9 +908,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -917,16 +922,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$F$8</c:f>
+              <c:f>Foglio1!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -938,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.9033727049827602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6569966301322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,9 +1001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1004,16 +1015,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$9:$F$9</c:f>
+              <c:f>Foglio1!$C$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1025,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.444400648120791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.17661547847092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,9 +1096,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1093,16 +1110,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$F$10</c:f>
+              <c:f>Foglio1!$C$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1114,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>8.3271625044289994E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1189625183760699E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,9 +1195,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1186,16 +1209,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$11:$F$11</c:f>
+              <c:f>Foglio1!$C$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1207,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.643483945168555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23055081348866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,9 +1294,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1279,16 +1308,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$12:$F$12</c:f>
+              <c:f>Foglio1!$C$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1300,6 +1332,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.978388336516225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.580097088408326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,7 +1636,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$30</c:f>
+              <c:f>Foglio1!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1622,9 +1657,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1633,16 +1668,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$30:$F$30</c:f>
+              <c:f>Foglio1!$D$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -1651,6 +1689,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.317186932079494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16028337995521696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,7 +1707,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$31</c:f>
+              <c:f>Foglio1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,9 +1728,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1698,16 +1739,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$31:$F$31</c:f>
+              <c:f>Foglio1!$D$31:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -1716,6 +1760,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.0308174969395629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.82639753236435398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,7 +1778,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$32</c:f>
+              <c:f>Foglio1!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1752,9 +1799,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1763,16 +1810,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$32:$F$32</c:f>
+              <c:f>Foglio1!$D$32:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -1781,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.77941740164533613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38482854142785106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,7 +1849,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$33</c:f>
+              <c:f>Foglio1!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1817,9 +1870,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1828,16 +1881,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$33:$F$33</c:f>
+              <c:f>Foglio1!$D$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -1846,6 +1902,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0419013239443311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6011073328554275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,7 +1920,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$34</c:f>
+              <c:f>Foglio1!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1882,9 +1941,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1893,16 +1952,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$34:$F$34</c:f>
+              <c:f>Foglio1!$D$34:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -1911,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.3394361380487703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0930600631982106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,7 +1991,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$35</c:f>
+              <c:f>Foglio1!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1947,9 +2012,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1958,16 +2023,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$35:$F$35</c:f>
+              <c:f>Foglio1!$D$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -1976,6 +2044,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.47707988414913399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25513494620099497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2062,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$36</c:f>
+              <c:f>Foglio1!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,9 +2085,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2025,16 +2096,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$36:$F$36</c:f>
+              <c:f>Foglio1!$D$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -2043,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.7620662826375389E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6245289619692388E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2135,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$37</c:f>
+              <c:f>Foglio1!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2081,9 +2158,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2092,16 +2169,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$37:$F$37</c:f>
+              <c:f>Foglio1!$D$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -2110,6 +2190,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.36357564385980501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22349122446030001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,7 +2208,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$38</c:f>
+              <c:f>Foglio1!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2148,9 +2231,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2159,16 +2242,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$38:$F$38</c:f>
+              <c:f>Foglio1!$D$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -2177,6 +2263,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.9768569728930796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.578565724785179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,9 +2601,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2526,16 +2615,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$14:$F$14</c:f>
+              <c:f>Foglio1!$C$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -2547,6 +2639,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,9 +2694,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2613,16 +2708,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$15:$F$15</c:f>
+              <c:f>Foglio1!$C$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2633,6 +2731,9 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2686,9 +2787,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2700,16 +2801,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$16:$F$16</c:f>
+              <c:f>Foglio1!$C$16:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -2721,6 +2825,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,9 +2878,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2785,16 +2892,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$17:$F$17</c:f>
+              <c:f>Foglio1!$C$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2805,6 +2915,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2856,9 +2969,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2870,16 +2983,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$18:$F$18</c:f>
+              <c:f>Foglio1!$C$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2890,6 +3006,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2943,9 +3062,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2957,16 +3076,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$19:$F$19</c:f>
+              <c:f>Foglio1!$C$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -2977,6 +3099,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3032,9 +3157,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$F$2</c:f>
+              <c:f>Foglio1!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3046,16 +3171,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$20:$F$20</c:f>
+              <c:f>Foglio1!$C$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3066,6 +3194,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3368,7 +3499,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$40</c:f>
+              <c:f>Foglio1!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3389,9 +3520,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3400,16 +3531,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$40:$F$40</c:f>
+              <c:f>Foglio1!$D$40:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -3418,6 +3552,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,7 +3570,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$41</c:f>
+              <c:f>Foglio1!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3454,9 +3591,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3465,16 +3602,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$41:$F$41</c:f>
+              <c:f>Foglio1!$D$41:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3482,6 +3622,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
@@ -3498,7 +3641,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$42</c:f>
+              <c:f>Foglio1!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3519,9 +3662,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3530,16 +3673,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$42:$F$42</c:f>
+              <c:f>Foglio1!$D$42:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -3548,6 +3694,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,7 +3712,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$43</c:f>
+              <c:f>Foglio1!$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3584,9 +3733,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3595,16 +3744,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$43:$F$43</c:f>
+              <c:f>Foglio1!$D$43:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3612,6 +3764,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3628,7 +3783,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$44</c:f>
+              <c:f>Foglio1!$C$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3649,9 +3804,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3660,16 +3815,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$44:$F$44</c:f>
+              <c:f>Foglio1!$D$44:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3677,6 +3835,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3693,7 +3854,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$45</c:f>
+              <c:f>Foglio1!$C$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3714,9 +3875,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3725,16 +3886,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$45:$F$45</c:f>
+              <c:f>Foglio1!$D$45:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3742,6 +3906,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3758,7 +3925,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$46</c:f>
+              <c:f>Foglio1!$C$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3781,9 +3948,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$F$28</c:f>
+              <c:f>Foglio1!$D$28:$G$28</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3792,16 +3959,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$46:$F$46</c:f>
+              <c:f>Foglio1!$D$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3809,6 +3979,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6359,13 +6532,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>65483</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>75008</xdr:rowOff>
+      <xdr:rowOff>43258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>198438</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>185475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6399,9 +6572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>226217</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>130966</xdr:rowOff>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6748,18 +6921,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
   <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6813,7 +6985,10 @@
         <f>1000*0.000137040537083521</f>
         <v>0.13704053708352099</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <f>1000*0.000293944089207798</f>
+        <v>0.29394408920779802</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -6835,7 +7010,10 @@
         <f>1000*0.000184667427674867</f>
         <v>0.18466742767486699</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10">
+        <f>1000*0.000389087392250076</f>
+        <v>0.38908739225007599</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -6857,7 +7035,10 @@
         <f>1000*0.0011144292075187</f>
         <v>1.1144292075187001</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10">
+        <f>1000*0.000719840347301215</f>
+        <v>0.71984034730121504</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -6879,7 +7060,10 @@
         <f>1000*0.0115426667034626</f>
         <v>11.542666703462601</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10">
+        <f>1000*0.0171018727123737</f>
+        <v>17.101872712373698</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -6901,7 +7085,10 @@
         <f>1000*0.00690337270498276</f>
         <v>6.9033727049827602</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10">
+        <f>1000*0.0106569966301322</f>
+        <v>10.6569966301322</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -6923,7 +7110,10 @@
         <f>1000*0.000444400648120791</f>
         <v>0.444400648120791</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10">
+        <f>1000*0.00117661547847092</f>
+        <v>1.17661547847092</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -6945,7 +7135,10 @@
         <f>1000*0.000008327162504429</f>
         <v>8.3271625044289994E-3</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10">
+        <f>1000*0.0000111896251837607</f>
+        <v>1.1189625183760699E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -6967,7 +7160,10 @@
         <f>1000*0.000643483945168555</f>
         <v>0.643483945168555</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10">
+        <f>1000*0.00123055081348866</f>
+        <v>1.23055081348866</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -6989,7 +7185,10 @@
         <f>SUM(F4:F11)</f>
         <v>20.978388336516225</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <f>SUM(G4:G11)</f>
+        <v>31.580097088408326</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
@@ -7017,7 +7216,9 @@
       <c r="F14" s="9">
         <v>217</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9">
+        <v>452</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -7035,7 +7236,9 @@
       <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -7053,7 +7256,9 @@
       <c r="F16" s="10">
         <v>122</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10">
+        <v>354</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -7071,7 +7276,9 @@
       <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -7089,7 +7296,9 @@
       <c r="F18" s="10">
         <v>4</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -7107,7 +7316,9 @@
       <c r="F19" s="10">
         <v>71</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
@@ -7125,7 +7336,9 @@
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
@@ -7150,10 +7363,12 @@
       <c r="E22" s="4">
         <v>10</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>10</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -7168,10 +7383,12 @@
       <c r="E23" s="5">
         <v>3.464</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>4.2030000000000003</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10">
+        <v>2.472</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -7193,15 +7410,17 @@
         <f>1000*1/(F22-F23)</f>
         <v>172.50301880282905</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <f>1000*1/(G22-G23)</f>
+        <v>132.8374070138151</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7215,173 +7434,187 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="3">
+      <c r="D30" s="9">
         <f>D4-C4</f>
         <v>-8.3739781985058992E-2</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <f>E4-C4</f>
         <v>-0.16162425163201899</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="24">
         <f>F4-C4</f>
         <v>-0.317186932079494</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="9">
+        <f>G4-C4</f>
+        <v>-0.16028337995521696</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="23">
+      <c r="D31" s="10">
         <f>D5-C5</f>
         <v>0.54130377247929995</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <f>E5-C5</f>
         <v>-0.11654733680188989</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="23">
         <f>F5-C5</f>
         <v>-1.0308174969395629</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="10">
+        <f t="shared" ref="G31:G38" si="0">G5-C5</f>
+        <v>-0.82639753236435398</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="23">
+      <c r="D32" s="10">
         <f>D6-C6</f>
         <v>7.9664983786642996E-2</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <f>E6-C6</f>
         <v>-1.3816927094011999E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="23">
         <f>F6-C6</f>
         <v>0.77941740164533613</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38482854142785106</v>
+      </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="23">
+      <c r="D33" s="10">
         <f>D7-C7</f>
         <v>3.5361633636057297</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <f>E7-C7</f>
         <v>-1.7976877279579595</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="23">
         <f>F7-C7</f>
         <v>4.0419013239443311</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="10">
+        <f t="shared" si="0"/>
+        <v>9.6011073328554275</v>
+      </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="23">
+      <c r="D34" s="10">
         <f>D8-C8</f>
         <v>2.7074448298662896</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <f>E8-C8</f>
         <v>-1.10574904829264</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="23">
         <f>F8-C8</f>
         <v>3.3394361380487703</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="10">
+        <f t="shared" si="0"/>
+        <v>7.0930600631982106</v>
+      </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="23">
+      <c r="D35" s="10">
         <f>D9-C9</f>
         <v>-8.3225488197058994E-2</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <f>E9-C9</f>
         <v>-0.33119227737188395</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="23">
         <f>F9-C9</f>
         <v>-0.47707988414913399</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25513494620099497</v>
+      </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="23">
+      <c r="D36" s="10">
         <f>D10-C10</f>
         <v>-2.1769233171652991E-4</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <f>E10-C10</f>
         <v>5.9535227592278023E-4</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="23">
         <f>F10-C10</f>
         <v>4.7620662826375389E-3</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="10">
+        <f t="shared" si="0"/>
+        <v>7.6245289619692388E-3</v>
+      </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="23">
+      <c r="D37" s="10">
         <f>D11-C11</f>
         <v>0.37493102718144988</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <f>E11-C11</f>
         <v>-6.9353962317110995E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="23">
         <f>F11-C11</f>
         <v>-0.36357564385980501</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22349122446030001</v>
+      </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="7">
+      <c r="D38" s="11">
         <f>D12-C12</f>
         <v>7.0723250144055765</v>
       </c>
@@ -7389,142 +7622,155 @@
         <f>E12-C12</f>
         <v>-3.5953761791915912</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="6">
         <f>F12-C12</f>
         <v>5.9768569728930796</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="11">
+        <f t="shared" si="0"/>
+        <v>16.578565724785179</v>
+      </c>
     </row>
-    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="26"/>
+    <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
       <c r="D39" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="3">
+      <c r="D40" s="9">
         <f>D14-C14</f>
         <v>-5</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <f>E14-C14</f>
         <v>-117</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="24">
         <f>F14-C14</f>
         <v>-58</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="9">
+        <f>G14-C14</f>
+        <v>177</v>
+      </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="23">
+      <c r="D41" s="10">
         <f>D15-C15</f>
         <v>0</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <f>E15-C15</f>
         <v>0</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="23">
         <f>F15-C15</f>
         <v>-32</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="10">
+        <f t="shared" ref="G41:G46" si="1">G15-C15</f>
+        <v>-32</v>
+      </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="23">
+      <c r="D42" s="10">
         <f>D16-C16</f>
         <v>-26</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <f>E16-C16</f>
         <v>-54</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="23">
         <f>F16-C16</f>
         <v>-38</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="10">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="23">
+      <c r="D43" s="10">
         <f>D17-C17</f>
         <v>0</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <f>E17-C17</f>
         <v>0</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="23">
         <f>F17-C17</f>
         <v>1</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="23">
+      <c r="D44" s="10">
         <f>D18-C18</f>
         <v>0</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <f>E18-C18</f>
         <v>0</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="23">
         <f>F18-C18</f>
         <v>2</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="23">
+      <c r="D45" s="10">
         <f>D19-C19</f>
         <v>0</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <f>E19-C19</f>
         <v>0</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="23">
         <f>F19-C19</f>
         <v>0</v>
       </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="7">
+      <c r="D46" s="11">
         <f>D20-C20</f>
         <v>0</v>
       </c>
@@ -7532,66 +7778,71 @@
         <f>E20-C20</f>
         <v>0</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="6">
         <f>F20-C20</f>
         <v>0</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="26"/>
+    <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="15"/>
       <c r="D47" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="3">
+      <c r="D48" s="9">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="24">
         <f>E22-C22</f>
         <v>0</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="24">
         <f>F22-C22</f>
         <v>0</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="9">
+        <f>G22-C22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="23">
+      <c r="D49" s="10">
         <f>D23-C23</f>
         <v>-0.58000000000000007</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <f>E23-C23</f>
         <v>-0.18999999999999995</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="23">
         <f>F23-C23</f>
         <v>0.54900000000000038</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="10">
+        <f t="shared" ref="G49:G50" si="2">G23-C23</f>
+        <v>-1.1819999999999999</v>
+      </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="7">
+      <c r="D50" s="11">
         <f>D24-C24</f>
         <v>-13.196095157133186</v>
       </c>
@@ -7599,15 +7850,18 @@
         <f>E24-C24</f>
         <v>-4.5808016769398705</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="6">
         <f>F24-C24</f>
         <v>14.923441116097251</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="11">
+        <f t="shared" si="2"/>
+        <v>-24.7421706729167</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D47:G47"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C307493E-700E-450B-BA64-03359B08F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF1D03-CF82-43FF-B65B-34149F11C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>BRAM[#]</t>
+  </si>
+  <si>
+    <t>Operation Chaining Solution CLK=10ns</t>
   </si>
 </sst>
 </file>
@@ -380,13 +383,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,13 +395,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,9 +543,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -557,16 +560,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$G$4</c:f>
+              <c:f>Foglio1!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -581,6 +587,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.29394408920779802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45503594446927298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,9 +642,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -650,16 +659,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$G$5</c:f>
+              <c:f>Foglio1!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -674,6 +686,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.38908739225007599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2157068122178301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,9 +741,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -743,16 +758,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$G$6</c:f>
+              <c:f>Foglio1!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -767,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.71984034730121504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34357042750343703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,9 +838,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -834,16 +855,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$G$7</c:f>
+              <c:f>Foglio1!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -858,6 +882,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.101872712373698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5166169553995097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,9 +935,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -925,16 +952,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$G$8</c:f>
+              <c:f>Foglio1!$C$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -949,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10.6569966301322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5588422324508397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,9 +1034,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1018,16 +1051,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$9:$G$9</c:f>
+              <c:f>Foglio1!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1042,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.17661547847092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92546828091144606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,9 +1135,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1113,16 +1152,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$G$10</c:f>
+              <c:f>Foglio1!$C$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1137,6 +1179,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>1.1189625183760699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.4978299936483399E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,9 +1240,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1212,16 +1257,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$11:$G$11</c:f>
+              <c:f>Foglio1!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1236,6 +1284,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.23055081348866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0144955012947299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,9 +1345,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1311,16 +1362,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$12:$G$12</c:f>
+              <c:f>Foglio1!$C$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1335,6 +1389,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31.580097088408326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.033233984240713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,9 +1714,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1671,16 +1728,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$30:$G$30</c:f>
+              <c:f>Foglio1!$D$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -1692,6 +1752,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.16028337995521696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0847530625799413E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,9 +1791,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1742,16 +1805,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$31:$G$31</c:f>
+              <c:f>Foglio1!$D$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -1763,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.82639753236435398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2188760340013935E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,9 +1868,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1813,16 +1882,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$32:$G$32</c:f>
+              <c:f>Foglio1!$D$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -1834,6 +1906,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.38482854142785106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5586216300730378E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,9 +1945,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1884,16 +1959,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$33:$G$33</c:f>
+              <c:f>Foglio1!$D$33:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -1905,6 +1983,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.6011073328554275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5851575881240088E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,9 +2022,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1955,16 +2036,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$34:$G$34</c:f>
+              <c:f>Foglio1!$D$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -1976,6 +2060,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.0930600631982106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0943344831502202E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,9 +2099,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2026,16 +2113,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$35:$G$35</c:f>
+              <c:f>Foglio1!$D$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -2047,6 +2137,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.25513494620099497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9877486415210717E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,9 +2178,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2099,16 +2192,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$36:$G$36</c:f>
+              <c:f>Foglio1!$D$36:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -2120,6 +2216,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.6245289619692388E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.7266228143120135E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,9 +2257,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2172,16 +2271,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$37:$G$37</c:f>
+              <c:f>Foglio1!$D$37:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -2193,6 +2295,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.22349122446030001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4359122663698596E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,9 +2336,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2245,16 +2350,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$38:$G$38</c:f>
+              <c:f>Foglio1!$D$38:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -2266,6 +2374,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16.578565724785179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1702620617567234E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,9 +2712,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2618,16 +2729,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$14:$G$14</c:f>
+              <c:f>Foglio1!$C$14:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -2642,6 +2756,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,9 +2811,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2711,16 +2828,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$15:$G$15</c:f>
+              <c:f>Foglio1!$C$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2735,6 +2855,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,9 +2910,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2804,16 +2927,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$16:$G$16</c:f>
+              <c:f>Foglio1!$C$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -2828,6 +2954,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,9 +3007,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2895,16 +3024,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$17:$G$17</c:f>
+              <c:f>Foglio1!$C$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2919,6 +3051,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,9 +3104,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2986,16 +3121,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$18:$G$18</c:f>
+              <c:f>Foglio1!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3010,6 +3148,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,9 +3203,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3079,16 +3220,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$19:$G$19</c:f>
+              <c:f>Foglio1!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -3102,6 +3246,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3157,9 +3304,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$G$2</c:f>
+              <c:f>Foglio1!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3174,16 +3321,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$20:$G$20</c:f>
+              <c:f>Foglio1!$C$20:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3197,6 +3347,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3520,9 +3673,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3534,16 +3687,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$40:$G$40</c:f>
+              <c:f>Foglio1!$D$40:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -3555,6 +3711,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,9 +3750,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3605,16 +3764,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$41:$G$41</c:f>
+              <c:f>Foglio1!$D$41:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3626,6 +3788,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,9 +3827,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3676,16 +3841,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$42:$G$42</c:f>
+              <c:f>Foglio1!$D$42:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -3697,6 +3865,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,9 +3904,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3747,16 +3918,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$43:$G$43</c:f>
+              <c:f>Foglio1!$D$43:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3768,6 +3942,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,9 +3981,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3818,16 +3995,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$44:$G$44</c:f>
+              <c:f>Foglio1!$D$44:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3839,6 +4019,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,9 +4058,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3889,16 +4072,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$45:$G$45</c:f>
+              <c:f>Foglio1!$D$45:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3909,6 +4095,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3948,9 +4137,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$G$28</c:f>
+              <c:f>Foglio1!$D$28:$H$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3962,16 +4151,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$46:$G$46</c:f>
+              <c:f>Foglio1!$D$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3982,6 +4174,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3994,7 +4189,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6919,24 +7113,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
-  <dimension ref="B2:G50"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6954,18 +7150,22 @@
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -6989,8 +7189,12 @@
         <f>1000*0.000293944089207798</f>
         <v>0.29394408920779802</v>
       </c>
+      <c r="H4" s="9">
+        <f>1000*0.000455035944469273</f>
+        <v>0.45503594446927298</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -7014,8 +7218,12 @@
         <f>1000*0.000389087392250076</f>
         <v>0.38908739225007599</v>
       </c>
+      <c r="H5" s="10">
+        <f>1000*0.00121570681221783</f>
+        <v>1.2157068122178301</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -7039,8 +7247,12 @@
         <f>1000*0.000719840347301215</f>
         <v>0.71984034730121504</v>
       </c>
+      <c r="H6" s="10">
+        <f>1000*0.000343570427503437</f>
+        <v>0.34357042750343703</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -7064,8 +7276,12 @@
         <f>1000*0.0171018727123737</f>
         <v>17.101872712373698</v>
       </c>
+      <c r="H7" s="10">
+        <f>1000*0.00751661695539951</f>
+        <v>7.5166169553995097</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -7089,8 +7305,12 @@
         <f>1000*0.0106569966301322</f>
         <v>10.6569966301322</v>
       </c>
+      <c r="H8" s="10">
+        <f>1000*0.00355884223245084</f>
+        <v>3.5588422324508397</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -7114,8 +7334,12 @@
         <f>1000*0.00117661547847092</f>
         <v>1.17661547847092</v>
       </c>
+      <c r="H9" s="10">
+        <f>1000*0.000925468280911446</f>
+        <v>0.92546828091144606</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -7139,8 +7363,12 @@
         <f>1000*0.0000111896251837607</f>
         <v>1.1189625183760699E-2</v>
       </c>
+      <c r="H10" s="10">
+        <f>1000*3.49782999364834E-06</f>
+        <v>3.4978299936483399E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -7164,8 +7392,12 @@
         <f>1000*0.00123055081348866</f>
         <v>1.23055081348866</v>
       </c>
+      <c r="H11" s="10">
+        <f>1000*0.00101449550129473</f>
+        <v>1.0144955012947299</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -7189,18 +7421,23 @@
         <f>SUM(G4:G11)</f>
         <v>31.580097088408326</v>
       </c>
+      <c r="H12" s="11">
+        <f>SUM(H4:H11)</f>
+        <v>15.033233984240713</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -7219,8 +7456,11 @@
       <c r="G14" s="9">
         <v>452</v>
       </c>
+      <c r="H14" s="9">
+        <v>275</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -7239,8 +7479,11 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
+      <c r="H15" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -7259,8 +7502,11 @@
       <c r="G16" s="10">
         <v>354</v>
       </c>
+      <c r="H16" s="10">
+        <v>160</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -7279,8 +7525,11 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -7299,8 +7548,11 @@
       <c r="G18" s="10">
         <v>4</v>
       </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -7319,8 +7571,11 @@
       <c r="G19" s="10">
         <v>71</v>
       </c>
+      <c r="H19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -7339,18 +7594,22 @@
       <c r="G20" s="11">
         <v>1</v>
       </c>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
@@ -7363,14 +7622,17 @@
       <c r="E22" s="4">
         <v>10</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="19">
         <v>10</v>
       </c>
       <c r="G22" s="9">
         <v>10</v>
       </c>
+      <c r="H22" s="9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>4</v>
       </c>
@@ -7383,14 +7645,17 @@
       <c r="E23" s="5">
         <v>3.464</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="18">
         <v>4.2030000000000003</v>
       </c>
       <c r="G23" s="10">
         <v>2.472</v>
       </c>
+      <c r="H23" s="10">
+        <v>3.6539999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
@@ -7414,10 +7679,14 @@
         <f>1000*1/(G22-G23)</f>
         <v>132.8374070138151</v>
       </c>
+      <c r="H24" s="11">
+        <f>1000*1/(H22-H23)</f>
+        <v>157.5795776867318</v>
+      </c>
     </row>
-    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
+    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -7432,413 +7701,491 @@
       <c r="G28" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="22"/>
-      <c r="D29" s="18" t="s">
+    <row r="29" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="25"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="24" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="9">
-        <f>D4-C4</f>
+        <f t="shared" ref="D30:D38" si="0">D4-C4</f>
         <v>-8.3739781985058992E-2</v>
       </c>
-      <c r="E30" s="24">
-        <f>E4-C4</f>
+      <c r="E30" s="19">
+        <f t="shared" ref="E30:E38" si="1">E4-C4</f>
         <v>-0.16162425163201899</v>
       </c>
-      <c r="F30" s="24">
-        <f>F4-C4</f>
+      <c r="F30" s="19">
+        <f t="shared" ref="F30:F38" si="2">F4-C4</f>
         <v>-0.317186932079494</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="19">
         <f>G4-C4</f>
         <v>-0.16028337995521696</v>
       </c>
+      <c r="H30" s="9">
+        <f>H4-C4</f>
+        <v>8.0847530625799413E-4</v>
+      </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="23" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>0.54130377247929995</v>
       </c>
-      <c r="E31" s="23">
-        <f>E5-C5</f>
+      <c r="E31" s="18">
+        <f t="shared" si="1"/>
         <v>-0.11654733680188989</v>
       </c>
-      <c r="F31" s="23">
-        <f>F5-C5</f>
+      <c r="F31" s="18">
+        <f t="shared" si="2"/>
         <v>-1.0308174969395629</v>
       </c>
-      <c r="G31" s="10">
-        <f t="shared" ref="G31:G38" si="0">G5-C5</f>
+      <c r="G31" s="18">
+        <f t="shared" ref="G31:H38" si="3">G5-C5</f>
         <v>-0.82639753236435398</v>
       </c>
+      <c r="H31" s="10">
+        <f t="shared" ref="H31:H38" si="4">H5-C5</f>
+        <v>2.2188760340013935E-4</v>
+      </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="23" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="10">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>7.9664983786642996E-2</v>
       </c>
-      <c r="E32" s="23">
-        <f>E6-C6</f>
+      <c r="E32" s="18">
+        <f t="shared" si="1"/>
         <v>-1.3816927094011999E-2</v>
       </c>
-      <c r="F32" s="23">
-        <f>F6-C6</f>
+      <c r="F32" s="18">
+        <f t="shared" si="2"/>
         <v>0.77941740164533613</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="18">
+        <f t="shared" si="3"/>
+        <v>0.38482854142785106</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="4"/>
+        <v>8.5586216300730378E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
-        <v>0.38482854142785106</v>
+        <v>3.5361633636057297</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="1"/>
+        <v>-1.7976877279579595</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="2"/>
+        <v>4.0419013239443311</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="3"/>
+        <v>9.6011073328554275</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="4"/>
+        <v>1.5851575881240088E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="10">
-        <f>D7-C7</f>
-        <v>3.5361633636057297</v>
-      </c>
-      <c r="E33" s="23">
-        <f>E7-C7</f>
-        <v>-1.7976877279579595</v>
-      </c>
-      <c r="F33" s="23">
-        <f>F7-C7</f>
-        <v>4.0419013239443311</v>
-      </c>
-      <c r="G33" s="10">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>9.6011073328554275</v>
+        <v>2.7074448298662896</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="1"/>
+        <v>-1.10574904829264</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="2"/>
+        <v>3.3394361380487703</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="3"/>
+        <v>7.0930600631982106</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="4"/>
+        <v>-5.0943344831502202E-3</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="10">
-        <f>D8-C8</f>
-        <v>2.7074448298662896</v>
-      </c>
-      <c r="E34" s="23">
-        <f>E8-C8</f>
-        <v>-1.10574904829264</v>
-      </c>
-      <c r="F34" s="23">
-        <f>F8-C8</f>
-        <v>3.3394361380487703</v>
-      </c>
-      <c r="G34" s="10">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
-        <v>7.0930600631982106</v>
+        <v>-8.3225488197058994E-2</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.33119227737188395</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.47707988414913399</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25513494620099497</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="4"/>
+        <v>3.9877486415210717E-3</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="10">
-        <f>D9-C9</f>
-        <v>-8.3225488197058994E-2</v>
-      </c>
-      <c r="E35" s="23">
-        <f>E9-C9</f>
-        <v>-0.33119227737188395</v>
-      </c>
-      <c r="F35" s="23">
-        <f>F9-C9</f>
-        <v>-0.47707988414913399</v>
-      </c>
-      <c r="G35" s="10">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10">
         <f t="shared" si="0"/>
-        <v>0.25513494620099497</v>
+        <v>-2.1769233171652991E-4</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="1"/>
+        <v>5.9535227592278023E-4</v>
+      </c>
+      <c r="F36" s="18">
+        <f t="shared" si="2"/>
+        <v>4.7620662826375389E-3</v>
+      </c>
+      <c r="G36" s="18">
+        <f t="shared" si="3"/>
+        <v>7.6245289619692388E-3</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="4"/>
+        <v>-6.7266228143120135E-5</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10">
-        <f>D10-C10</f>
-        <v>-2.1769233171652991E-4</v>
-      </c>
-      <c r="E36" s="23">
-        <f>E10-C10</f>
-        <v>5.9535227592278023E-4</v>
-      </c>
-      <c r="F36" s="23">
-        <f>F10-C10</f>
-        <v>4.7620662826375389E-3</v>
-      </c>
-      <c r="G36" s="10">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>7.6245289619692388E-3</v>
+        <v>0.37493102718144988</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="1"/>
+        <v>-6.9353962317110995E-2</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.36357564385980501</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.22349122446030001</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="4"/>
+        <v>7.4359122663698596E-3</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="10">
-        <f>D11-C11</f>
-        <v>0.37493102718144988</v>
-      </c>
-      <c r="E37" s="23">
-        <f>E11-C11</f>
-        <v>-6.9353962317110995E-2</v>
-      </c>
-      <c r="F37" s="23">
-        <f>F11-C11</f>
-        <v>-0.36357564385980501</v>
-      </c>
-      <c r="G37" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22349122446030001</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="11">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>7.0723250144055765</v>
       </c>
       <c r="E38" s="6">
-        <f>E12-C12</f>
+        <f t="shared" si="1"/>
         <v>-3.5953761791915912</v>
       </c>
       <c r="F38" s="6">
-        <f>F12-C12</f>
+        <f t="shared" si="2"/>
         <v>5.9768569728930796</v>
       </c>
-      <c r="G38" s="11">
-        <f t="shared" si="0"/>
+      <c r="G38" s="6">
+        <f t="shared" si="3"/>
         <v>16.578565724785179</v>
       </c>
+      <c r="H38" s="11">
+        <f t="shared" si="4"/>
+        <v>3.1702620617567234E-2</v>
+      </c>
     </row>
-    <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="26"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f>D14-C14</f>
+        <f t="shared" ref="D40:D46" si="5">D14-C14</f>
         <v>-5</v>
       </c>
-      <c r="E40" s="24">
-        <f>E14-C14</f>
+      <c r="E40" s="19">
+        <f t="shared" ref="E40:E46" si="6">E14-C14</f>
         <v>-117</v>
       </c>
-      <c r="F40" s="24">
-        <f>F14-C14</f>
+      <c r="F40" s="19">
+        <f t="shared" ref="F40:F46" si="7">F14-C14</f>
         <v>-58</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="19">
         <f>G14-C14</f>
         <v>177</v>
       </c>
+      <c r="H40" s="9">
+        <f>H14-C14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="23" t="s">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f>D15-C15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E41" s="23">
-        <f>E15-C15</f>
+      <c r="E41" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F41" s="23">
-        <f>F15-C15</f>
+      <c r="F41" s="18">
+        <f t="shared" si="7"/>
         <v>-32</v>
       </c>
-      <c r="G41" s="10">
-        <f t="shared" ref="G41:G46" si="1">G15-C15</f>
+      <c r="G41" s="18">
+        <f t="shared" ref="G41:H46" si="8">G15-C15</f>
         <v>-32</v>
       </c>
+      <c r="H41" s="10">
+        <f t="shared" ref="H41:H46" si="9">H15-C15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="23" t="s">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f>D16-C16</f>
+        <f t="shared" si="5"/>
         <v>-26</v>
       </c>
-      <c r="E42" s="23">
-        <f>E16-C16</f>
+      <c r="E42" s="18">
+        <f t="shared" si="6"/>
         <v>-54</v>
       </c>
-      <c r="F42" s="23">
-        <f>F16-C16</f>
+      <c r="F42" s="18">
+        <f t="shared" si="7"/>
         <v>-38</v>
       </c>
-      <c r="G42" s="10">
-        <f t="shared" si="1"/>
+      <c r="G42" s="18">
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
+      <c r="H42" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="23" t="s">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10">
-        <f>D17-C17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E43" s="23">
-        <f>E17-C17</f>
+      <c r="E43" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F43" s="23">
-        <f>F17-C17</f>
+      <c r="F43" s="18">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G43" s="10">
-        <f t="shared" si="1"/>
+      <c r="G43" s="18">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="H43" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="23" t="s">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="10">
-        <f>D18-C18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E44" s="23">
-        <f>E18-C18</f>
+      <c r="E44" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F44" s="23">
-        <f>F18-C18</f>
+      <c r="F44" s="18">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G44" s="10">
-        <f t="shared" si="1"/>
+      <c r="G44" s="18">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="H44" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="23" t="s">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="10">
-        <f>D19-C19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E45" s="23">
-        <f>E19-C19</f>
+      <c r="E45" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F45" s="23">
-        <f>F19-C19</f>
+      <c r="F45" s="18">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G45" s="10">
-        <f t="shared" si="1"/>
+      <c r="G45" s="18">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="H45" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="11">
-        <f>D20-C20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E46" s="6">
-        <f>E20-C20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F46" s="6">
-        <f>F20-C20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G46" s="11">
-        <f t="shared" si="1"/>
+      <c r="G46" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="H46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="26"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="24" t="s">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="9">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="19">
         <f>E22-C22</f>
         <v>0</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="19">
         <f>F22-C22</f>
         <v>0</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="19">
         <f>G22-C22</f>
         <v>0</v>
       </c>
+      <c r="H48" s="9">
+        <f>H22-C22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="23" t="s">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="10">
         <f>D23-C23</f>
         <v>-0.58000000000000007</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="18">
         <f>E23-C23</f>
         <v>-0.18999999999999995</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="18">
         <f>F23-C23</f>
         <v>0.54900000000000038</v>
       </c>
-      <c r="G49" s="10">
-        <f t="shared" ref="G49:G50" si="2">G23-C23</f>
+      <c r="G49" s="18">
+        <f t="shared" ref="G49:H50" si="10">G23-C23</f>
         <v>-1.1819999999999999</v>
       </c>
+      <c r="H49" s="10">
+        <f t="shared" ref="H49:H50" si="11">H23-C23</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
         <v>20</v>
       </c>
@@ -7854,21 +8201,25 @@
         <f>F24-C24</f>
         <v>14.923441116097251</v>
       </c>
-      <c r="G50" s="11">
-        <f t="shared" si="2"/>
+      <c r="G50" s="6">
+        <f t="shared" si="10"/>
         <v>-24.7421706729167</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D47:G47"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D47:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF1D03-CF82-43FF-B65B-34149F11C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96529416-7754-4131-9264-E165D5A02F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Operation Chaining Solution CLK=10ns</t>
+  </si>
+  <si>
+    <t>Operation Chaining Solution CLK=9ns</t>
+  </si>
+  <si>
+    <t>Operation Chaining Solution CLK=8ns</t>
   </si>
 </sst>
 </file>
@@ -395,16 +401,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,9 +549,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -563,16 +569,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$H$4</c:f>
+              <c:f>Foglio1!$C$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -590,6 +602,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45503594446927298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.370885303709656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43246525456197599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,9 +660,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -662,16 +680,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$H$5</c:f>
+              <c:f>Foglio1!$C$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -689,6 +713,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.2157068122178301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.60096236504614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7903209663927602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,9 +771,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -761,16 +791,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$H$6</c:f>
+              <c:f>Foglio1!$C$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -788,6 +824,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.34357042750343703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30379532836377598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36362622631713698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,9 +880,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -858,16 +900,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$H$7</c:f>
+              <c:f>Foglio1!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -885,6 +933,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.5166169553995097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2078881785273605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4898751229047793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,9 +989,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -955,16 +1009,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$H$8</c:f>
+              <c:f>Foglio1!$C$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -982,6 +1042,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.5588422324508397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2089862506836702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7935171276330899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,9 +1100,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1054,16 +1120,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$9:$H$9</c:f>
+              <c:f>Foglio1!$C$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1081,6 +1153,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.92546828091144606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.868793693371117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02812109980732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,9 +1213,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1155,16 +1233,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$H$10</c:f>
+              <c:f>Foglio1!$C$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1182,6 +1266,12 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.4978299936483399E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.5650859899760698E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.3865094337670598E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,9 +1330,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1260,16 +1350,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$11:$H$11</c:f>
+              <c:f>Foglio1!$C$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1287,6 +1383,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0144955012947299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85090019274503004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07843766454607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,9 +1447,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1365,16 +1467,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$12:$H$12</c:f>
+              <c:f>Foglio1!$C$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1392,6 +1500,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15.033233984240713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.415776398436726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.979749971596899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,9 +1828,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1731,16 +1845,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$30:$H$30</c:f>
+              <c:f>Foglio1!$D$30:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -1755,6 +1875,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.0847530625799413E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.3342165453358985E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1762214601038998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,9 +1917,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1808,16 +1934,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$31:$H$31</c:f>
+              <c:f>Foglio1!$D$31:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -1832,6 +1964,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2188760340013935E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38547744043171006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57483604177833025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,9 +2006,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1885,16 +2023,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$32:$H$32</c:f>
+              <c:f>Foglio1!$D$32:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -1909,6 +2053,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.5586216300730378E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1216477509588003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8614420443772992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,9 +2095,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1962,16 +2112,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$33:$H$33</c:f>
+              <c:f>Foglio1!$D$33:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -1986,6 +2142,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5851575881240088E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29287720099090908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9891097433865097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,9 +2184,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2039,16 +2201,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$34:$H$34</c:f>
+              <c:f>Foglio1!$D$34:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -2063,6 +2231,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-5.0943344831502202E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.35495031625031981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22958056069909993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,9 +2273,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2116,16 +2290,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$35:$H$35</c:f>
+              <c:f>Foglio1!$D$35:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -2140,6 +2320,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.9877486415210717E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.2686838898807986E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10664056753739504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,9 +2364,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2195,16 +2381,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$36:$H$36</c:f>
+              <c:f>Foglio1!$D$36:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -2219,6 +2411,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-6.7266228143120135E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0231815390174953E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7858678802440018E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,9 +2455,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2274,16 +2472,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$37:$H$37</c:f>
+              <c:f>Foglio1!$D$37:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -2298,6 +2502,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.4359122663698596E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15615939628332998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1378075517710027E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,9 +2546,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2353,16 +2563,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$38:$H$38</c:f>
+              <c:f>Foglio1!$D$38:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -2377,6 +2593,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.1702620617567234E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.58575496518641934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9782186079737532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,9 +2934,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2732,16 +2954,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$14:$H$14</c:f>
+              <c:f>Foglio1!$C$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -2759,6 +2987,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,9 +3045,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2831,16 +3065,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$15:$H$15</c:f>
+              <c:f>Foglio1!$C$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2857,6 +3097,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -2910,9 +3156,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2930,16 +3176,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$16:$H$16</c:f>
+              <c:f>Foglio1!$C$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -2957,6 +3209,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,9 +3265,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3027,16 +3285,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$17:$H$17</c:f>
+              <c:f>Foglio1!$C$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3053,6 +3317,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3104,9 +3374,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3124,16 +3394,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$18:$H$18</c:f>
+              <c:f>Foglio1!$C$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3150,6 +3426,12 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3203,9 +3485,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3223,16 +3505,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$19:$H$19</c:f>
+              <c:f>Foglio1!$C$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -3249,6 +3537,12 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3304,9 +3598,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$H$2</c:f>
+              <c:f>Foglio1!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3324,16 +3618,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$20:$H$20</c:f>
+              <c:f>Foglio1!$C$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3350,6 +3650,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3673,9 +3979,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3690,16 +3996,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$40:$H$40</c:f>
+              <c:f>Foglio1!$D$40:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -3714,6 +4026,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3750,9 +4068,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3767,16 +4085,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$41:$H$41</c:f>
+              <c:f>Foglio1!$D$41:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3790,6 +4114,12 @@
                   <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3827,9 +4157,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3844,16 +4174,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$42:$H$42</c:f>
+              <c:f>Foglio1!$D$42:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -3868,6 +4204,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,9 +4246,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3921,16 +4263,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$43:$H$43</c:f>
+              <c:f>Foglio1!$D$43:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3944,6 +4292,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3981,9 +4335,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3998,16 +4352,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$44:$H$44</c:f>
+              <c:f>Foglio1!$D$44:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4021,6 +4381,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4058,9 +4424,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4075,16 +4441,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$45:$H$45</c:f>
+              <c:f>Foglio1!$D$45:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4098,6 +4470,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4137,9 +4515,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$H$28</c:f>
+              <c:f>Foglio1!$D$28:$J$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4154,16 +4532,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$46:$H$46</c:f>
+              <c:f>Foglio1!$D$46:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4177,6 +4561,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6651,16 +7041,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>265579</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>58150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27454</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>153400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>493554</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2961</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>334804</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>129961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6687,16 +7077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>278944</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>111579</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3596819</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>478517</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>335642</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>188233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6723,16 +7113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65483</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43258</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494108</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>138508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>185475</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3222625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>121975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6759,16 +7149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53576</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146444</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>545701</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>43952</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>186827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7113,26 +7503,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
-  <dimension ref="B2:H50"/>
+  <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -7153,19 +7543,26 @@
       <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="22" t="s">
+    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -7193,8 +7590,16 @@
         <f>1000*0.000455035944469273</f>
         <v>0.45503594446927298</v>
       </c>
+      <c r="I4" s="9">
+        <f>1000*0.000370885303709656</f>
+        <v>0.370885303709656</v>
+      </c>
+      <c r="J4" s="9">
+        <f>1000*0.000432465254561976</f>
+        <v>0.43246525456197599</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -7222,8 +7627,16 @@
         <f>1000*0.00121570681221783</f>
         <v>1.2157068122178301</v>
       </c>
+      <c r="I5" s="10">
+        <f>1000*0.00160096236504614</f>
+        <v>1.60096236504614</v>
+      </c>
+      <c r="J5" s="10">
+        <f>1000*0.00179032096639276</f>
+        <v>1.7903209663927602</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -7251,8 +7664,16 @@
         <f>1000*0.000343570427503437</f>
         <v>0.34357042750343703</v>
       </c>
+      <c r="I6" s="10">
+        <f>1000*0.000303795328363776</f>
+        <v>0.30379532836377598</v>
+      </c>
+      <c r="J6" s="10">
+        <f>1000*0.000363626226317137</f>
+        <v>0.36362622631713698</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -7280,8 +7701,16 @@
         <f>1000*0.00751661695539951</f>
         <v>7.5166169553995097</v>
       </c>
+      <c r="I7" s="10">
+        <f>1000*0.00720788817852736</f>
+        <v>7.2078881785273605</v>
+      </c>
+      <c r="J7" s="10">
+        <f>1000*0.00848987512290478</f>
+        <v>8.4898751229047793</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -7309,8 +7738,16 @@
         <f>1000*0.00355884223245084</f>
         <v>3.5588422324508397</v>
       </c>
+      <c r="I8" s="10">
+        <f>1000*0.00320898625068367</f>
+        <v>3.2089862506836702</v>
+      </c>
+      <c r="J8" s="10">
+        <f>1000*0.00379351712763309</f>
+        <v>3.7935171276330899</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -7338,8 +7775,16 @@
         <f>1000*0.000925468280911446</f>
         <v>0.92546828091144606</v>
       </c>
+      <c r="I9" s="10">
+        <f>1000*0.000868793693371117</f>
+        <v>0.868793693371117</v>
+      </c>
+      <c r="J9" s="10">
+        <f>1000*0.00102812109980732</f>
+        <v>1.02812109980732</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -7367,8 +7812,16 @@
         <f>1000*3.49782999364834E-06</f>
         <v>3.4978299936483399E-3</v>
       </c>
+      <c r="I10" s="10">
+        <f>1000*3.56508598997607E-06</f>
+        <v>3.5650859899760698E-3</v>
+      </c>
+      <c r="J10" s="10">
+        <f>1000*3.38650943376706E-06</f>
+        <v>3.3865094337670598E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -7396,48 +7849,65 @@
         <f>1000*0.00101449550129473</f>
         <v>1.0144955012947299</v>
       </c>
+      <c r="I11" s="10">
+        <f>1000*0.00085090019274503</f>
+        <v>0.85090019274503004</v>
+      </c>
+      <c r="J11" s="10">
+        <f>1000*0.00107843766454607</f>
+        <v>1.07843766454607</v>
+      </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="11">
-        <f>SUM(C4:C11)</f>
+        <f t="shared" ref="C12:H12" si="0">SUM(C4:C11)</f>
         <v>15.001531363623146</v>
       </c>
       <c r="D12" s="11">
-        <f>SUM(D4:D11)</f>
+        <f t="shared" si="0"/>
         <v>22.073856378028722</v>
       </c>
       <c r="E12" s="11">
-        <f>SUM(E4:E11)</f>
+        <f t="shared" si="0"/>
         <v>11.406155184431555</v>
       </c>
       <c r="F12" s="11">
-        <f>SUM(F4:F11)</f>
+        <f t="shared" si="0"/>
         <v>20.978388336516225</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G4:G11)</f>
+        <f t="shared" si="0"/>
         <v>31.580097088408326</v>
       </c>
       <c r="H12" s="11">
-        <f>SUM(H4:H11)</f>
+        <f t="shared" si="0"/>
         <v>15.033233984240713</v>
       </c>
+      <c r="I12" s="11">
+        <f>SUM(I4:I11)</f>
+        <v>14.415776398436726</v>
+      </c>
+      <c r="J12" s="11">
+        <f>SUM(J4:J11)</f>
+        <v>16.979749971596899</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -7459,8 +7929,14 @@
       <c r="H14" s="9">
         <v>275</v>
       </c>
+      <c r="I14" s="9">
+        <v>276</v>
+      </c>
+      <c r="J14" s="9">
+        <v>276</v>
+      </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -7482,8 +7958,14 @@
       <c r="H15" s="10">
         <v>32</v>
       </c>
+      <c r="I15" s="10">
+        <v>32</v>
+      </c>
+      <c r="J15" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -7505,8 +7987,14 @@
       <c r="H16" s="10">
         <v>160</v>
       </c>
+      <c r="I16" s="10">
+        <v>226</v>
+      </c>
+      <c r="J16" s="10">
+        <v>226</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -7528,8 +8016,14 @@
       <c r="H17" s="10">
         <v>0</v>
       </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -7551,8 +8045,14 @@
       <c r="H18" s="10">
         <v>2</v>
       </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -7574,8 +8074,14 @@
       <c r="H19" s="10">
         <v>71</v>
       </c>
+      <c r="I19" s="10">
+        <v>71</v>
+      </c>
+      <c r="J19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -7597,19 +8103,26 @@
       <c r="H20" s="11">
         <v>1</v>
       </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
@@ -7631,8 +8144,14 @@
       <c r="H22" s="9">
         <v>10</v>
       </c>
+      <c r="I22" s="9">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>4</v>
       </c>
@@ -7654,38 +8173,52 @@
       <c r="H23" s="10">
         <v>3.6539999999999999</v>
       </c>
+      <c r="I23" s="10">
+        <v>3.06</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2.2770000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="6">
-        <f>1000*1/(C22-C23)</f>
+        <f t="shared" ref="C24:J24" si="1">1000*1/(C22-C23)</f>
         <v>157.5795776867318</v>
       </c>
       <c r="D24" s="6">
-        <f>1000*1/(D22-D23)</f>
+        <f t="shared" si="1"/>
         <v>144.38348252959861</v>
       </c>
       <c r="E24" s="11">
-        <f>1000*1/(E22-E23)</f>
+        <f t="shared" si="1"/>
         <v>152.99877600979192</v>
       </c>
       <c r="F24" s="11">
-        <f>1000*1/(F22-F23)</f>
+        <f t="shared" si="1"/>
         <v>172.50301880282905</v>
       </c>
       <c r="G24" s="11">
-        <f>1000*1/(G22-G23)</f>
+        <f t="shared" si="1"/>
         <v>132.8374070138151</v>
       </c>
       <c r="H24" s="11">
-        <f>1000*1/(H22-H23)</f>
+        <f t="shared" si="1"/>
         <v>157.5795776867318</v>
       </c>
+      <c r="I24" s="11">
+        <f t="shared" si="1"/>
+        <v>168.35016835016836</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="1"/>
+        <v>174.73353136466889</v>
+      </c>
     </row>
-    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
@@ -7704,438 +8237,575 @@
       <c r="H28" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="21"/>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30:D38" si="0">D4-C4</f>
+        <f t="shared" ref="D30:D38" si="2">D4-C4</f>
         <v>-8.3739781985058992E-2</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" ref="E30:E38" si="1">E4-C4</f>
+        <f t="shared" ref="E30:E38" si="3">E4-C4</f>
         <v>-0.16162425163201899</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" ref="F30:F38" si="2">F4-C4</f>
+        <f t="shared" ref="F30:F38" si="4">F4-C4</f>
         <v>-0.317186932079494</v>
       </c>
       <c r="G30" s="19">
         <f>G4-C4</f>
         <v>-0.16028337995521696</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="19">
         <f>H4-C4</f>
         <v>8.0847530625799413E-4</v>
       </c>
+      <c r="I30" s="19">
+        <f>I4-C4</f>
+        <v>-8.3342165453358985E-2</v>
+      </c>
+      <c r="J30" s="9">
+        <f>J4-C4</f>
+        <v>-2.1762214601038998E-2</v>
+      </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54130377247929995</v>
       </c>
       <c r="E31" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.11654733680188989</v>
       </c>
       <c r="F31" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0308174969395629</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" ref="G31:H38" si="3">G5-C5</f>
+        <f t="shared" ref="G31:G38" si="5">G5-C5</f>
         <v>-0.82639753236435398</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" ref="H31:H38" si="4">H5-C5</f>
+      <c r="H31" s="18">
+        <f t="shared" ref="H31:I38" si="6">H5-C5</f>
         <v>2.2188760340013935E-4</v>
       </c>
+      <c r="I31" s="18">
+        <f t="shared" ref="I31:J38" si="7">I5-C5</f>
+        <v>0.38547744043171006</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" ref="J31:J38" si="8">J5-C5</f>
+        <v>0.57483604177833025</v>
+      </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9664983786642996E-2</v>
       </c>
       <c r="E32" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.3816927094011999E-2</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77941740164533613</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38482854142785106</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="4"/>
+      <c r="H32" s="18">
+        <f t="shared" si="6"/>
         <v>8.5586216300730378E-3</v>
       </c>
+      <c r="I32" s="18">
+        <f t="shared" si="7"/>
+        <v>-3.1216477509588003E-2</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8614420443772992E-2</v>
+      </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5361633636057297</v>
       </c>
       <c r="E33" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.7976877279579595</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0419013239443311</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.6011073328554275</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="4"/>
+      <c r="H33" s="18">
+        <f t="shared" si="6"/>
         <v>1.5851575881240088E-2</v>
       </c>
+      <c r="I33" s="18">
+        <f t="shared" si="7"/>
+        <v>-0.29287720099090908</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="8"/>
+        <v>0.9891097433865097</v>
+      </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7074448298662896</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.10574904829264</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3394361380487703</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0930600631982106</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="4"/>
+      <c r="H34" s="18">
+        <f t="shared" si="6"/>
         <v>-5.0943344831502202E-3</v>
       </c>
+      <c r="I34" s="18">
+        <f t="shared" si="7"/>
+        <v>-0.35495031625031981</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="8"/>
+        <v>0.22958056069909993</v>
+      </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.3225488197058994E-2</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.33119227737188395</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.47707988414913399</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25513494620099497</v>
       </c>
-      <c r="H35" s="10">
-        <f t="shared" si="4"/>
+      <c r="H35" s="18">
+        <f t="shared" si="6"/>
         <v>3.9877486415210717E-3</v>
       </c>
+      <c r="I35" s="18">
+        <f t="shared" si="7"/>
+        <v>-5.2686838898807986E-2</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="8"/>
+        <v>0.10664056753739504</v>
+      </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1769233171652991E-4</v>
       </c>
       <c r="E36" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9535227592278023E-4</v>
       </c>
       <c r="F36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.7620662826375389E-3</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.6245289619692388E-3</v>
       </c>
-      <c r="H36" s="10">
-        <f t="shared" si="4"/>
+      <c r="H36" s="18">
+        <f t="shared" si="6"/>
         <v>-6.7266228143120135E-5</v>
       </c>
+      <c r="I36" s="18">
+        <f t="shared" si="7"/>
+        <v>-1.0231815390174953E-8</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.7858678802440018E-4</v>
+      </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37493102718144988</v>
       </c>
       <c r="E37" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.9353962317110995E-2</v>
       </c>
       <c r="F37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.36357564385980501</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.22349122446030001</v>
       </c>
-      <c r="H37" s="10">
-        <f t="shared" si="4"/>
+      <c r="H37" s="18">
+        <f t="shared" si="6"/>
         <v>7.4359122663698596E-3</v>
       </c>
+      <c r="I37" s="18">
+        <f t="shared" si="7"/>
+        <v>-0.15615939628332998</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="8"/>
+        <v>7.1378075517710027E-2</v>
+      </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0723250144055765</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.5953761791915912</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9768569728930796</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.578565724785179</v>
       </c>
-      <c r="H38" s="11">
-        <f t="shared" si="4"/>
+      <c r="H38" s="6">
+        <f t="shared" si="6"/>
         <v>3.1702620617567234E-2</v>
       </c>
+      <c r="I38" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.58575496518641934</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="8"/>
+        <v>1.9782186079737532</v>
+      </c>
     </row>
-    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="5">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="9">D14-C14</f>
         <v>-5</v>
       </c>
       <c r="E40" s="19">
-        <f t="shared" ref="E40:E46" si="6">E14-C14</f>
+        <f t="shared" ref="E40:E46" si="10">E14-C14</f>
         <v>-117</v>
       </c>
       <c r="F40" s="19">
-        <f t="shared" ref="F40:F46" si="7">F14-C14</f>
+        <f t="shared" ref="F40:F46" si="11">F14-C14</f>
         <v>-58</v>
       </c>
       <c r="G40" s="19">
         <f>G14-C14</f>
         <v>177</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="19">
         <f>H14-C14</f>
         <v>0</v>
       </c>
+      <c r="I40" s="19">
+        <f>I14-C14</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <f>J14-C14</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E41" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F41" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-32</v>
       </c>
       <c r="G41" s="18">
-        <f t="shared" ref="G41:H46" si="8">G15-C15</f>
+        <f t="shared" ref="G41:G46" si="12">G15-C15</f>
         <v>-32</v>
       </c>
-      <c r="H41" s="10">
-        <f t="shared" ref="H41:H46" si="9">H15-C15</f>
+      <c r="H41" s="18">
+        <f t="shared" ref="H41:I46" si="13">H15-C15</f>
         <v>0</v>
       </c>
+      <c r="I41" s="18">
+        <f t="shared" ref="I41:J46" si="14">I15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" ref="J41:J46" si="15">J15-C15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-26</v>
       </c>
       <c r="E42" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-54</v>
       </c>
       <c r="F42" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-38</v>
       </c>
       <c r="G42" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>194</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="14"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="E43" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="10">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="E44" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="10">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="E45" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="E46" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+    <row r="47" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="15"/>
+      <c r="D47" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="26"/>
     </row>
-    <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="15"/>
-      <c r="D47" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
         <v>5</v>
       </c>
@@ -8155,12 +8825,20 @@
         <f>G22-C22</f>
         <v>0</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="19">
         <f>H22-C22</f>
         <v>0</v>
       </c>
+      <c r="I48" s="19">
+        <f>I22-C22</f>
+        <v>-1</v>
+      </c>
+      <c r="J48" s="9">
+        <f>J22-C22</f>
+        <v>-2</v>
+      </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" s="18" t="s">
         <v>4</v>
       </c>
@@ -8177,15 +8855,23 @@
         <v>0.54900000000000038</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" ref="G49:H50" si="10">G23-C23</f>
+        <f t="shared" ref="G49:G50" si="16">G23-C23</f>
         <v>-1.1819999999999999</v>
       </c>
-      <c r="H49" s="10">
-        <f t="shared" ref="H49:H50" si="11">H23-C23</f>
+      <c r="H49" s="18">
+        <f t="shared" ref="H49:I50" si="17">H23-C23</f>
         <v>0</v>
       </c>
+      <c r="I49" s="18">
+        <f t="shared" ref="I49:J50" si="18">I23-C23</f>
+        <v>-0.59399999999999986</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" ref="J49:J50" si="19">J23-C23</f>
+        <v>-1.3769999999999998</v>
+      </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
         <v>20</v>
       </c>
@@ -8202,24 +8888,32 @@
         <v>14.923441116097251</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-24.7421706729167</v>
       </c>
-      <c r="H50" s="11">
-        <f t="shared" si="11"/>
+      <c r="H50" s="6">
+        <f t="shared" si="17"/>
         <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="18"/>
+        <v>10.770590663436565</v>
+      </c>
+      <c r="J50" s="11">
+        <f t="shared" si="19"/>
+        <v>17.153953677937096</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D47:I47"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D47:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96529416-7754-4131-9264-E165D5A02F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9233C-D037-4997-8B3D-47978B8B139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Operation Chaining Solution CLK=8ns</t>
+  </si>
+  <si>
+    <t>Operation Chaining Solution CLK=7ns</t>
+  </si>
+  <si>
+    <t>Cycles [#]</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,19 +386,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,14 +413,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,9 +552,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -575,16 +578,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$J$4</c:f>
+              <c:f>Foglio1!$C$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -608,6 +614,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.43246525456197599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74117712210863795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,9 +669,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -686,16 +695,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$J$5</c:f>
+              <c:f>Foglio1!$C$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -719,6 +731,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.7903209663927602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79376308713108301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,9 +786,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -797,16 +812,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$J$6</c:f>
+              <c:f>Foglio1!$C$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -830,6 +848,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.36362622631713698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.62343855481595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,9 +901,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -906,16 +927,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$J$7</c:f>
+              <c:f>Foglio1!$C$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -939,6 +963,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.4898751229047793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7511138990521395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,9 +1016,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1015,16 +1042,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$J$8</c:f>
+              <c:f>Foglio1!$C$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -1048,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.7935171276330899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7526413798332201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,9 +1133,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1126,16 +1159,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$9:$J$9</c:f>
+              <c:f>Foglio1!$C$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1159,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.02812109980732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0441305348649599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,9 +1252,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1239,16 +1278,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$J$10</c:f>
+              <c:f>Foglio1!$C$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1272,6 +1314,9 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>3.3865094337670598E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.8435433604463504E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,9 +1375,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1356,16 +1401,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$11:$J$11</c:f>
+              <c:f>Foglio1!$C$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1389,6 +1437,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.07843766454607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78912044409662496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,9 +1498,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1473,16 +1524,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$12:$J$12</c:f>
+              <c:f>Foglio1!$C$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1506,6 +1560,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.979749971596899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.50222856526306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,9 +1885,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1851,16 +1908,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$30:$J$30</c:f>
+              <c:f>Foglio1!$D$30:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -1881,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-2.1762214601038998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28694965294562297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,9 +1980,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1940,16 +2003,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$31:$J$31</c:f>
+              <c:f>Foglio1!$D$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -1970,6 +2036,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.57483604177833025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42172183748334691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,9 +2075,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2029,16 +2098,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$32:$J$32</c:f>
+              <c:f>Foglio1!$D$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -2059,6 +2131,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.8614420443772992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.288426748942586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,9 +2170,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2118,16 +2193,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$33:$J$33</c:f>
+              <c:f>Foglio1!$D$33:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -2148,6 +2226,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.9891097433865097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2503485195338699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,9 +2265,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2207,16 +2288,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$34:$J$34</c:f>
+              <c:f>Foglio1!$D$34:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -2237,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.22958056069909993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18870481289923013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,9 +2360,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2296,16 +2383,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$35:$J$35</c:f>
+              <c:f>Foglio1!$D$35:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -2326,6 +2416,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.10664056753739504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12265000259503489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,9 +2457,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2387,16 +2480,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$36:$J$36</c:f>
+              <c:f>Foglio1!$D$36:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -2417,6 +2513,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1.7858678802440018E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2784471386548904E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,9 +2554,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2478,16 +2577,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$37:$J$37</c:f>
+              <c:f>Foglio1!$D$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -2508,6 +2610,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.1378075517710027E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.21793914493173505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2546,9 +2651,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2569,16 +2674,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$38:$J$38</c:f>
+              <c:f>Foglio1!$D$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -2599,6 +2707,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.9782186079737532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5006972016399143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2934,9 +3045,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2960,16 +3071,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$14:$J$14</c:f>
+              <c:f>Foglio1!$C$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -2993,6 +3107,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,9 +3162,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3071,16 +3188,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$15:$J$15</c:f>
+              <c:f>Foglio1!$C$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3103,6 +3223,9 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -3156,9 +3279,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3182,16 +3305,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$16:$J$16</c:f>
+              <c:f>Foglio1!$C$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3215,6 +3341,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3265,9 +3394,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3291,16 +3420,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$17:$J$17</c:f>
+              <c:f>Foglio1!$C$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3323,6 +3455,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3374,9 +3509,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3400,16 +3535,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$18:$J$18</c:f>
+              <c:f>Foglio1!$C$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3433,6 +3571,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,9 +3626,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3511,16 +3652,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$19:$J$19</c:f>
+              <c:f>Foglio1!$C$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -3543,6 +3687,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3598,9 +3745,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$J$2</c:f>
+              <c:f>Foglio1!$C$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3624,16 +3771,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$20:$J$20</c:f>
+              <c:f>Foglio1!$C$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3656,6 +3806,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3979,9 +4132,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4002,16 +4155,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$40:$J$40</c:f>
+              <c:f>Foglio1!$D$40:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -4032,6 +4188,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,9 +4227,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4091,16 +4250,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$41:$J$41</c:f>
+              <c:f>Foglio1!$D$41:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4120,6 +4282,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4157,9 +4322,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4180,16 +4345,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$42:$J$42</c:f>
+              <c:f>Foglio1!$D$42:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -4210,6 +4378,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4246,9 +4417,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4269,16 +4440,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$43:$J$43</c:f>
+              <c:f>Foglio1!$D$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4298,6 +4472,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4335,9 +4512,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4358,16 +4535,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$44:$J$44</c:f>
+              <c:f>Foglio1!$D$44:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4388,6 +4568,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,9 +4607,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4447,16 +4630,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$45:$J$45</c:f>
+              <c:f>Foglio1!$D$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4476,6 +4662,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4515,9 +4704,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$J$28</c:f>
+              <c:f>Foglio1!$D$28:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4538,16 +4727,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$46:$J$46</c:f>
+              <c:f>Foglio1!$D$46:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4567,6 +4759,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7043,13 +7238,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>27454</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>153400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>334804</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>129961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7077,16 +7272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3596819</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>127454</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>335642</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>188233</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>172358</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7115,14 +7310,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>494108</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>138508</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3222625</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>121975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>26725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7151,14 +7346,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>545701</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>130569</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>186827</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>170952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7503,25 +7698,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
-  <dimension ref="B2:J50"/>
+  <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -7549,20 +7744,25 @@
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -7598,8 +7798,12 @@
         <f>1000*0.000432465254561976</f>
         <v>0.43246525456197599</v>
       </c>
+      <c r="K4" s="9">
+        <f>1000*0.000741177122108638</f>
+        <v>0.74117712210863795</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -7635,8 +7839,12 @@
         <f>1000*0.00179032096639276</f>
         <v>1.7903209663927602</v>
       </c>
+      <c r="K5" s="10">
+        <f>1000*0.000793763087131083</f>
+        <v>0.79376308713108301</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -7672,8 +7880,12 @@
         <f>1000*0.000363626226317137</f>
         <v>0.36362622631713698</v>
       </c>
+      <c r="K6" s="10">
+        <f>1000*0.00162343855481595</f>
+        <v>1.62343855481595</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -7709,8 +7921,12 @@
         <f>1000*0.00848987512290478</f>
         <v>8.4898751229047793</v>
       </c>
+      <c r="K7" s="10">
+        <f>1000*0.00875111389905214</f>
+        <v>8.7511138990521395</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -7746,8 +7962,12 @@
         <f>1000*0.00379351712763309</f>
         <v>3.7935171276330899</v>
       </c>
+      <c r="K8" s="10">
+        <f>1000*0.00375264137983322</f>
+        <v>3.7526413798332201</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -7783,8 +8003,12 @@
         <f>1000*0.00102812109980732</f>
         <v>1.02812109980732</v>
       </c>
+      <c r="K9" s="10">
+        <f>1000*0.00104413053486496</f>
+        <v>1.0441305348649599</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -7820,8 +8044,12 @@
         <f>1000*3.38650943376706E-06</f>
         <v>3.3865094337670598E-3</v>
       </c>
+      <c r="K10" s="10">
+        <f>1000*6.84354336044635E-06</f>
+        <v>6.8435433604463504E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -7857,8 +8085,12 @@
         <f>1000*0.00107843766454607</f>
         <v>1.07843766454607</v>
       </c>
+      <c r="K11" s="10">
+        <f>1000*0.000789120444096625</f>
+        <v>0.78912044409662496</v>
+      </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -7894,20 +8126,26 @@
         <f>SUM(J4:J11)</f>
         <v>16.979749971596899</v>
       </c>
+      <c r="K12" s="11">
+        <f>SUM(K4:K11)</f>
+        <v>17.50222856526306</v>
+      </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="24" t="s">
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -7935,8 +8173,11 @@
       <c r="J14" s="9">
         <v>276</v>
       </c>
+      <c r="K14" s="9">
+        <v>186</v>
+      </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -7964,8 +8205,11 @@
       <c r="J15" s="10">
         <v>32</v>
       </c>
+      <c r="K15" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -7993,8 +8237,11 @@
       <c r="J16" s="10">
         <v>226</v>
       </c>
+      <c r="K16" s="10">
+        <v>222</v>
+      </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -8022,8 +8269,11 @@
       <c r="J17" s="10">
         <v>0</v>
       </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -8051,8 +8301,11 @@
       <c r="J18" s="10">
         <v>2</v>
       </c>
+      <c r="K18" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -8080,8 +8333,11 @@
       <c r="J19" s="10">
         <v>71</v>
       </c>
+      <c r="K19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -8109,116 +8365,163 @@
       <c r="J20" s="11">
         <v>1</v>
       </c>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9">
+        <v>44</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43</v>
+      </c>
+      <c r="E22" s="9">
+        <v>67</v>
+      </c>
+      <c r="F22" s="9">
+        <v>35</v>
+      </c>
+      <c r="G22" s="9">
+        <v>25</v>
+      </c>
+      <c r="H22" s="9">
+        <v>44</v>
+      </c>
+      <c r="I22" s="9">
+        <v>50</v>
+      </c>
+      <c r="J22" s="9">
+        <v>44</v>
+      </c>
+      <c r="K22" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="10">
         <v>10</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="10">
         <v>10</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="10">
         <v>10</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="10">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="10">
         <v>10</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="10">
         <v>10</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="10">
         <v>9</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="10">
         <v>8</v>
       </c>
+      <c r="K23" s="10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="10">
         <v>3.6539999999999999</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>3.0739999999999998</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="10">
         <v>3.464</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F24" s="10">
         <v>4.2030000000000003</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>2.472</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="10">
         <v>3.6539999999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>3.06</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="10">
         <v>2.2770000000000001</v>
       </c>
+      <c r="K24" s="10">
+        <v>1.33</v>
+      </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" ref="C24:J24" si="1">1000*1/(C22-C23)</f>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:K25" si="1">1000*1/(C23-C24)</f>
         <v>157.5795776867318</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>144.38348252959861</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <f t="shared" si="1"/>
         <v>152.99877600979192</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
         <v>172.50301880282905</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <f t="shared" si="1"/>
         <v>132.8374070138151</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <f t="shared" si="1"/>
         <v>157.5795776867318</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <f t="shared" si="1"/>
         <v>168.35016835016836</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <f t="shared" si="1"/>
         <v>174.73353136466889</v>
       </c>
+      <c r="K25" s="11">
+        <f>1000*1/(K23-K24)</f>
+        <v>176.3668430335097</v>
+      </c>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
@@ -8243,283 +8546,320 @@
       <c r="J28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="K28" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="21"/>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ref="D30:D38" si="2">D4-C4</f>
         <v>-8.3739781985058992E-2</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <f t="shared" ref="E30:E38" si="3">E4-C4</f>
         <v>-0.16162425163201899</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <f t="shared" ref="F30:F38" si="4">F4-C4</f>
         <v>-0.317186932079494</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <f>G4-C4</f>
         <v>-0.16028337995521696</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="17">
         <f>H4-C4</f>
         <v>8.0847530625799413E-4</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="17">
         <f>I4-C4</f>
         <v>-8.3342165453358985E-2</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="17">
         <f>J4-C4</f>
         <v>-2.1762214601038998E-2</v>
       </c>
+      <c r="K30" s="9">
+        <f>K4-C4</f>
+        <v>0.28694965294562297</v>
+      </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="2"/>
         <v>0.54130377247929995</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <f t="shared" si="3"/>
         <v>-0.11654733680188989</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <f t="shared" si="4"/>
         <v>-1.0308174969395629</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <f t="shared" ref="G31:G38" si="5">G5-C5</f>
         <v>-0.82639753236435398</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" ref="H31:I38" si="6">H5-C5</f>
+      <c r="H31" s="16">
+        <f t="shared" ref="H31:H38" si="6">H5-C5</f>
         <v>2.2188760340013935E-4</v>
       </c>
-      <c r="I31" s="18">
-        <f t="shared" ref="I31:J38" si="7">I5-C5</f>
+      <c r="I31" s="16">
+        <f t="shared" ref="I31:I38" si="7">I5-C5</f>
         <v>0.38547744043171006</v>
       </c>
-      <c r="J31" s="10">
-        <f t="shared" ref="J31:J38" si="8">J5-C5</f>
+      <c r="J31" s="16">
+        <f t="shared" ref="J31:K38" si="8">J5-C5</f>
         <v>0.57483604177833025</v>
       </c>
+      <c r="K31" s="10">
+        <f t="shared" ref="K31:K38" si="9">K5-C5</f>
+        <v>-0.42172183748334691</v>
+      </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="2"/>
         <v>7.9664983786642996E-2</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <f t="shared" si="3"/>
         <v>-1.3816927094011999E-2</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <f t="shared" si="4"/>
         <v>0.77941740164533613</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <f t="shared" si="5"/>
         <v>0.38482854142785106</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <f t="shared" si="6"/>
         <v>8.5586216300730378E-3</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <f t="shared" si="7"/>
         <v>-3.1216477509588003E-2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="16">
         <f t="shared" si="8"/>
         <v>2.8614420443772992E-2</v>
       </c>
+      <c r="K32" s="10">
+        <f t="shared" si="9"/>
+        <v>1.288426748942586</v>
+      </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="2"/>
         <v>3.5361633636057297</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <f t="shared" si="3"/>
         <v>-1.7976877279579595</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <f t="shared" si="4"/>
         <v>4.0419013239443311</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <f t="shared" si="5"/>
         <v>9.6011073328554275</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <f t="shared" si="6"/>
         <v>1.5851575881240088E-2</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="16">
         <f t="shared" si="7"/>
         <v>-0.29287720099090908</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="16">
         <f t="shared" si="8"/>
         <v>0.9891097433865097</v>
       </c>
+      <c r="K33" s="10">
+        <f t="shared" si="9"/>
+        <v>1.2503485195338699</v>
+      </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="2"/>
         <v>2.7074448298662896</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <f t="shared" si="3"/>
         <v>-1.10574904829264</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <f t="shared" si="4"/>
         <v>3.3394361380487703</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="16">
         <f t="shared" si="5"/>
         <v>7.0930600631982106</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <f t="shared" si="6"/>
         <v>-5.0943344831502202E-3</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="16">
         <f t="shared" si="7"/>
         <v>-0.35495031625031981</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="16">
         <f t="shared" si="8"/>
         <v>0.22958056069909993</v>
       </c>
+      <c r="K34" s="10">
+        <f t="shared" si="9"/>
+        <v>0.18870481289923013</v>
+      </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="10">
         <f t="shared" si="2"/>
         <v>-8.3225488197058994E-2</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <f t="shared" si="3"/>
         <v>-0.33119227737188395</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <f t="shared" si="4"/>
         <v>-0.47707988414913399</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <f t="shared" si="5"/>
         <v>0.25513494620099497</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <f t="shared" si="6"/>
         <v>3.9877486415210717E-3</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <f t="shared" si="7"/>
         <v>-5.2686838898807986E-2</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="16">
         <f t="shared" si="8"/>
         <v>0.10664056753739504</v>
       </c>
+      <c r="K35" s="10">
+        <f t="shared" si="9"/>
+        <v>0.12265000259503489</v>
+      </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10">
         <f t="shared" si="2"/>
         <v>-2.1769233171652991E-4</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <f t="shared" si="3"/>
         <v>5.9535227592278023E-4</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <f t="shared" si="4"/>
         <v>4.7620662826375389E-3</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="16">
         <f t="shared" si="5"/>
         <v>7.6245289619692388E-3</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="16">
         <f t="shared" si="6"/>
         <v>-6.7266228143120135E-5</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="16">
         <f t="shared" si="7"/>
         <v>-1.0231815390174953E-8</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="16">
         <f t="shared" si="8"/>
         <v>-1.7858678802440018E-4</v>
       </c>
+      <c r="K36" s="10">
+        <f t="shared" si="9"/>
+        <v>3.2784471386548904E-3</v>
+      </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="18" t="s">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="2"/>
         <v>0.37493102718144988</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <f t="shared" si="3"/>
         <v>-6.9353962317110995E-2</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <f t="shared" si="4"/>
         <v>-0.36357564385980501</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <f t="shared" si="5"/>
         <v>0.22349122446030001</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <f t="shared" si="6"/>
         <v>7.4359122663698596E-3</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <f t="shared" si="7"/>
         <v>-0.15615939628332998</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="16">
         <f t="shared" si="8"/>
         <v>7.1378075517710027E-2</v>
       </c>
+      <c r="K37" s="10">
+        <f t="shared" si="9"/>
+        <v>-0.21793914493173505</v>
+      </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -8547,373 +8887,458 @@
         <f t="shared" si="7"/>
         <v>-0.58575496518641934</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="6">
         <f t="shared" si="8"/>
         <v>1.9782186079737532</v>
       </c>
+      <c r="K38" s="11">
+        <f t="shared" si="9"/>
+        <v>2.5006972016399143</v>
+      </c>
     </row>
-    <row r="39" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="26"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="19" t="s">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="9">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="10">D14-C14</f>
         <v>-5</v>
       </c>
-      <c r="E40" s="19">
-        <f t="shared" ref="E40:E46" si="10">E14-C14</f>
+      <c r="E40" s="17">
+        <f t="shared" ref="E40:E46" si="11">E14-C14</f>
         <v>-117</v>
       </c>
-      <c r="F40" s="19">
-        <f t="shared" ref="F40:F46" si="11">F14-C14</f>
+      <c r="F40" s="17">
+        <f t="shared" ref="F40:F46" si="12">F14-C14</f>
         <v>-58</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="17">
         <f>G14-C14</f>
         <v>177</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="17">
         <f>H14-C14</f>
         <v>0</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="17">
         <f>I14-C14</f>
         <v>1</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="17">
         <f>J14-C14</f>
         <v>1</v>
       </c>
+      <c r="K40" s="9">
+        <f>K14-C14</f>
+        <v>-89</v>
+      </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F41" s="18">
+      <c r="E41" s="16">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="12"/>
         <v>-32</v>
       </c>
-      <c r="G41" s="18">
-        <f t="shared" ref="G41:G46" si="12">G15-C15</f>
+      <c r="G41" s="16">
+        <f t="shared" ref="G41:G46" si="13">G15-C15</f>
         <v>-32</v>
       </c>
-      <c r="H41" s="18">
-        <f t="shared" ref="H41:I46" si="13">H15-C15</f>
+      <c r="H41" s="16">
+        <f t="shared" ref="H41:H46" si="14">H15-C15</f>
         <v>0</v>
       </c>
-      <c r="I41" s="18">
-        <f t="shared" ref="I41:J46" si="14">I15-C15</f>
+      <c r="I41" s="16">
+        <f t="shared" ref="I41:I46" si="15">I15-C15</f>
         <v>0</v>
       </c>
-      <c r="J41" s="10">
-        <f t="shared" ref="J41:J46" si="15">J15-C15</f>
+      <c r="J41" s="16">
+        <f t="shared" ref="J41:K46" si="16">J15-C15</f>
         <v>0</v>
       </c>
+      <c r="K41" s="10">
+        <f t="shared" ref="K41:K46" si="17">K15-C15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-26</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
+        <f t="shared" si="11"/>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="12"/>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="10"/>
-        <v>-54</v>
-      </c>
-      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="11"/>
-        <v>-38</v>
-      </c>
-      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="12"/>
-        <v>194</v>
-      </c>
-      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I42" s="18">
+      <c r="H45" s="16">
         <f t="shared" si="14"/>
-        <v>66</v>
-      </c>
-      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="15"/>
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F43" s="18">
+      <c r="E46" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I43" s="18">
+      <c r="H46" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J43" s="10">
+      <c r="I46" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="J46" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+    <row r="47" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="18"/>
+      <c r="D47" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="15"/>
-      <c r="D47" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="19" t="s">
-        <v>5</v>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="D48" s="9">
         <f>D22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="3">
         <f>E22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="19">
+        <v>23</v>
+      </c>
+      <c r="F48" s="9">
         <f>F22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
+        <v>-9</v>
+      </c>
+      <c r="G48" s="3">
         <f>G22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
+        <v>-19</v>
+      </c>
+      <c r="H48" s="9">
         <f>H22-C22</f>
         <v>0</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="9">
         <f>I22-C22</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J48" s="9">
         <f>J22-C22</f>
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f>K22-C22</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
-        <v>4</v>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="10">
         <f>D23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="24">
+        <f>E23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <f>F23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="24">
+        <f>G23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <f>H23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <f>I23-C23</f>
+        <v>-1</v>
+      </c>
+      <c r="J49" s="10">
+        <f>J23-C23</f>
+        <v>-2</v>
+      </c>
+      <c r="K49" s="5">
+        <f>K23-C23</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="10">
+        <f>D24-C24</f>
         <v>-0.58000000000000007</v>
       </c>
-      <c r="E49" s="18">
-        <f>E23-C23</f>
+      <c r="E50" s="24">
+        <f>E24-C24</f>
         <v>-0.18999999999999995</v>
       </c>
-      <c r="F49" s="18">
-        <f>F23-C23</f>
+      <c r="F50" s="10">
+        <f>F24-C24</f>
         <v>0.54900000000000038</v>
       </c>
-      <c r="G49" s="18">
-        <f t="shared" ref="G49:G50" si="16">G23-C23</f>
+      <c r="G50" s="24">
+        <f>G24-C24</f>
         <v>-1.1819999999999999</v>
       </c>
-      <c r="H49" s="18">
-        <f t="shared" ref="H49:I50" si="17">H23-C23</f>
+      <c r="H50" s="10">
+        <f>H24-C24</f>
         <v>0</v>
       </c>
-      <c r="I49" s="18">
-        <f t="shared" ref="I49:J50" si="18">I23-C23</f>
+      <c r="I50" s="10">
+        <f>I24-C24</f>
         <v>-0.59399999999999986</v>
       </c>
-      <c r="J49" s="10">
-        <f t="shared" ref="J49:J50" si="19">J23-C23</f>
+      <c r="J50" s="10">
+        <f>J24-C24</f>
         <v>-1.3769999999999998</v>
       </c>
+      <c r="K50" s="5">
+        <f>K24-C24</f>
+        <v>-2.3239999999999998</v>
+      </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="11">
-        <f>D24-C24</f>
+      <c r="D51" s="11">
+        <f>D25-C25</f>
         <v>-13.196095157133186</v>
       </c>
-      <c r="E50" s="6">
-        <f>E24-C24</f>
+      <c r="E51" s="7">
+        <f>E25-C25</f>
         <v>-4.5808016769398705</v>
       </c>
-      <c r="F50" s="6">
-        <f>F24-C24</f>
+      <c r="F51" s="11">
+        <f>F25-C25</f>
         <v>14.923441116097251</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="16"/>
+      <c r="G51" s="7">
+        <f>G25-C25</f>
         <v>-24.7421706729167</v>
       </c>
-      <c r="H50" s="6">
-        <f t="shared" si="17"/>
+      <c r="H51" s="11">
+        <f>H25-C25</f>
         <v>0</v>
       </c>
-      <c r="I50" s="6">
-        <f t="shared" si="18"/>
+      <c r="I51" s="11">
+        <f>I25-C25</f>
         <v>10.770590663436565</v>
       </c>
-      <c r="J50" s="11">
-        <f t="shared" si="19"/>
+      <c r="J51" s="11">
+        <f>J25-C25</f>
         <v>17.153953677937096</v>
+      </c>
+      <c r="K51" s="8">
+        <f>K25-C25</f>
+        <v>18.7872653467779</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D47:I47"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D47:K47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9233C-D037-4997-8B3D-47978B8B139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC25382-13D7-47F8-9ED3-D5A64A9B245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Plots" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -141,6 +142,39 @@
   </si>
   <si>
     <t>Cycles [#]</t>
+  </si>
+  <si>
+    <t>Operation Chaining Solution CLK=6ns</t>
+  </si>
+  <si>
+    <t>Clock Enable [%]</t>
+  </si>
+  <si>
+    <t>Clocks [%]</t>
+  </si>
+  <si>
+    <t>DSP [%]</t>
+  </si>
+  <si>
+    <t>Hierarchical [%]</t>
+  </si>
+  <si>
+    <t>I/O [%]</t>
+  </si>
+  <si>
+    <t>Logic [%]</t>
+  </si>
+  <si>
+    <t>Set/Reset [%]</t>
+  </si>
+  <si>
+    <t>Data [%]</t>
+  </si>
+  <si>
+    <t>Total [%]</t>
+  </si>
+  <si>
+    <t>PERCENTAGE VARIATION</t>
   </si>
 </sst>
 </file>
@@ -342,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +432,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,7 +454,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$4</c:f>
+              <c:f>Data!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -552,9 +592,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -581,16 +621,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$K$4</c:f>
+              <c:f>Data!$C$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -617,6 +660,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.74117712210863795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65137079218402505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,7 +679,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$5</c:f>
+              <c:f>Data!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,9 +715,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -698,16 +744,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$K$5</c:f>
+              <c:f>Data!$C$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -734,6 +783,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.79376308713108301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88516663527116202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +802,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$6</c:f>
+              <c:f>Data!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -786,9 +838,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -815,16 +867,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$K$6</c:f>
+              <c:f>Data!$C$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -851,6 +906,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.62343855481595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5489605721086301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +925,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$7</c:f>
+              <c:f>Data!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -901,9 +959,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -930,16 +988,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$K$7</c:f>
+              <c:f>Data!$C$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -966,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.7511138990521395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6457625254988697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +1046,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$8</c:f>
+              <c:f>Data!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1016,9 +1080,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1045,16 +1109,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$K$8</c:f>
+              <c:f>Data!$C$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -1081,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.7526413798332201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.10287787579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,7 +1167,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$9</c:f>
+              <c:f>Data!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1133,9 +1203,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1162,16 +1232,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$9:$K$9</c:f>
+              <c:f>Data!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1198,6 +1271,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.0441305348649599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75803906656801701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,7 +1290,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$10</c:f>
+              <c:f>Data!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,9 +1328,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1281,16 +1357,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$K$10</c:f>
+              <c:f>Data!$C$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1317,6 +1396,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>6.8435433604463504E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>5.9745220823970201E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1415,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$11</c:f>
+              <c:f>Data!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1375,9 +1457,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1404,16 +1486,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$11:$K$11</c:f>
+              <c:f>Data!$C$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1440,6 +1525,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.78912044409662496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69337280001491297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +1544,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$12</c:f>
+              <c:f>Data!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1498,9 +1586,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1527,16 +1615,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$12:$K$12</c:f>
+              <c:f>Data!$C$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1563,6 +1654,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>17.50222856526306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.291524789518014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,6 +1753,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[mW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1864,7 +2013,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$30</c:f>
+              <c:f>Data!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,9 +2034,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -1911,16 +2060,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$30:$K$30</c:f>
+              <c:f>Data!$D$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -1944,6 +2096,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.28694965294562297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19714332302101006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +2114,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$31</c:f>
+              <c:f>Data!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1980,9 +2135,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2006,16 +2161,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$31:$K$31</c:f>
+              <c:f>Data!$D$31:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -2039,6 +2197,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.42172183748334691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3303182893432679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +2215,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$32</c:f>
+              <c:f>Data!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2075,9 +2236,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2101,16 +2262,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$32:$K$32</c:f>
+              <c:f>Data!$D$32:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -2134,6 +2298,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.288426748942586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2139487662352662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2316,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$33</c:f>
+              <c:f>Data!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2170,9 +2337,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2196,16 +2363,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$33:$K$33</c:f>
+              <c:f>Data!$D$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -2229,6 +2399,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2503485195338699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1449971459806001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,7 +2417,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$34</c:f>
+              <c:f>Data!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2265,9 +2438,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2291,16 +2464,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$34:$K$34</c:f>
+              <c:f>Data!$D$34:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -2324,6 +2500,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.18870481289923013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.46105869114399001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2339,7 +2518,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$35</c:f>
+              <c:f>Data!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2360,9 +2539,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2386,16 +2565,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$35:$K$35</c:f>
+              <c:f>Data!$D$35:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -2419,6 +2601,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.12265000259503489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.16344146570190798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,7 +2619,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$36</c:f>
+              <c:f>Data!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2457,9 +2642,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2483,16 +2668,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$36:$K$36</c:f>
+              <c:f>Data!$D$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -2516,6 +2704,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2784471386548904E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4094258606055601E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,7 +2722,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$37</c:f>
+              <c:f>Data!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2554,9 +2745,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2580,16 +2771,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$37:$K$37</c:f>
+              <c:f>Data!$D$37:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -2613,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.21793914493173505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.31368678901344704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,7 +2825,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$38</c:f>
+              <c:f>Data!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2651,9 +2848,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2677,16 +2874,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$38:$K$38</c:f>
+              <c:f>Data!$D$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -2710,6 +2910,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.5006972016399143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999342589486865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,7 +3212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$14</c:f>
+              <c:f>Data!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3045,9 +3248,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3074,16 +3277,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$14:$K$14</c:f>
+              <c:f>Data!$C$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -3109,6 +3315,9 @@
                   <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
@@ -3126,7 +3335,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$15</c:f>
+              <c:f>Data!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3162,9 +3371,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3191,16 +3400,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$15:$K$15</c:f>
+              <c:f>Data!$C$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3226,6 +3438,9 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -3243,7 +3458,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$16</c:f>
+              <c:f>Data!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3279,9 +3494,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3308,16 +3523,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$16:$K$16</c:f>
+              <c:f>Data!$C$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3344,6 +3562,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,7 +3581,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$17</c:f>
+              <c:f>Data!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3394,9 +3615,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3423,16 +3644,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$17:$K$17</c:f>
+              <c:f>Data!$C$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3458,6 +3682,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3475,7 +3702,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$18</c:f>
+              <c:f>Data!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3509,9 +3736,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3538,16 +3765,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$18:$K$18</c:f>
+              <c:f>Data!$C$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3573,6 +3803,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3590,7 +3823,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$19</c:f>
+              <c:f>Data!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3626,9 +3859,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3655,16 +3888,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$19:$K$19</c:f>
+              <c:f>Data!$C$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -3690,6 +3926,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3707,7 +3946,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$20</c:f>
+              <c:f>Data!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3745,9 +3984,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$2:$K$2</c:f>
+              <c:f>Data!$C$2:$L$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3774,16 +4013,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$20:$K$20</c:f>
+              <c:f>Data!$C$20:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3809,6 +4051,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3906,6 +4151,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[#]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4111,7 +4411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$40</c:f>
+              <c:f>Data!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4132,9 +4432,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4158,16 +4458,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$40:$K$40</c:f>
+              <c:f>Data!$D$40:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -4190,6 +4493,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-89</c:v>
                 </c:pt>
               </c:numCache>
@@ -4206,7 +4512,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$41</c:f>
+              <c:f>Data!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4227,9 +4533,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4253,16 +4559,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$41:$K$41</c:f>
+              <c:f>Data!$D$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4285,6 +4594,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4301,7 +4613,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$42</c:f>
+              <c:f>Data!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4322,9 +4634,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4348,16 +4660,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$42:$K$42</c:f>
+              <c:f>Data!$D$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -4381,6 +4696,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,7 +4714,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$43</c:f>
+              <c:f>Data!$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4417,9 +4735,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4443,16 +4761,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$43:$K$43</c:f>
+              <c:f>Data!$D$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4475,6 +4796,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4491,7 +4815,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$44</c:f>
+              <c:f>Data!$C$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4512,9 +4836,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4538,16 +4862,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$44:$K$44</c:f>
+              <c:f>Data!$D$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4570,6 +4897,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4586,7 +4916,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$45</c:f>
+              <c:f>Data!$C$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4607,9 +4937,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4633,16 +4963,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$45:$K$45</c:f>
+              <c:f>Data!$D$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4665,6 +4998,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4681,7 +5017,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$46</c:f>
+              <c:f>Data!$C$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4704,9 +5040,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$K$28</c:f>
+              <c:f>Data!$D$28:$L$28</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4730,16 +5066,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$46:$K$46</c:f>
+              <c:f>Data!$D$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4762,6 +5101,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4896,6 +5238,2509 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1394628447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Power Analysis (Percentage Variation)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock Enable [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$56:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-18.435649023904833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-35.582227541156172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-69.829975862965838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.287029261036132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17798908281521064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.348112148948175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7910388689480357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.173117529499592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.401893633662759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$57:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44.533976647304748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.5885464674817307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-84.807098472780623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-67.989122335392153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8255068319380879E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.713880824477464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.292733141933198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-34.695768655224043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-27.175844196344091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23.779754142979883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1243105024289388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.65371189335323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.87014328483636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5547223948603879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.318023115098212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5413170348358936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.59144613835406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362.35999596209587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hierarchical [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$59:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.144033771028802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.966723887494993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.886518500914882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.00170178729215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2113327784458463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9046308766122064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.186784192549087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.669612449792055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.933098005925262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I/O [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$60:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>75.96781758086874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.026058615961897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.700773718361802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.02318489636534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14294122208613866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.9595015114334409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.441768993004418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2948420757547465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.936781631347413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$61:$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-9.0317142123497565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-35.941321142839868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-51.773191884360415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.687502585921099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43275451861124714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.7176290820840343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.572742320958476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.31010241669518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.736833278430218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set/Reset [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$62:$L$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-6.1062119553996101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.699472858087848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.57469157577469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.86600774937611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8867997932835279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.8699969800628463E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0093118646503276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.95956952341308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.583754005798596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$63:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>37.230272296319036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8867784064323034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-36.10269420209714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.192452849382104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73837857733366508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.506470320589177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.087770802776193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21.641136960128545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-31.148781306585942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$64:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.144020453505753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.966727742941849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.841645682828201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.51248917817915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21132922932416195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9046344735631631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.186777803036081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.669612861682875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9330921548320512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-07CF-48F0-8505-1AC2411F0824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184478880"/>
+        <c:axId val="184472640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184478880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184472640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184472640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184478880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utilization Analysis (Percentage Variation)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUT [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$66:$L$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.8181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-42.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.363636363636374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.36363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUTRAM [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$67:$L$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$68:$L$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-16.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-33.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-23.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRAM[#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$69:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$70:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IO [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$71:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUFG [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$72:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EE73-428B-9358-81C8B6D4B534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1284562224"/>
+        <c:axId val="1284572304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1284562224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284572304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284572304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284562224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5142,6 +7987,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -7232,20 +10157,1062 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>27454</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>153400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3208</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>21782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>334804</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>129961</xdr:rowOff>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7272,16 +11239,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2719</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>111579</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1892997</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>164400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>335642</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>172358</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2533318</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>34679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7308,16 +11275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>494108</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>43258</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2415559</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>109067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>26725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1571623</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>92534</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7344,16 +11311,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>545701</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114694</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1863180</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>170545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>170952</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>36303</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7373,6 +11340,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>241155</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE0C046-66AB-FFC4-07F7-3F50A1C4FBC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2807709</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>20349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>244618</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>6494</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968032EB-8DDB-F0C9-7EC5-8A8C356B4E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7698,10 +11737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
-  <dimension ref="B2:K51"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7712,12 +11754,12 @@
     <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="12" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -7747,22 +11789,26 @@
       <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -7802,8 +11848,12 @@
         <f>1000*0.000741177122108638</f>
         <v>0.74117712210863795</v>
       </c>
+      <c r="L4" s="9">
+        <f>1000*0.000651370792184025</f>
+        <v>0.65137079218402505</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -7843,8 +11893,12 @@
         <f>1000*0.000793763087131083</f>
         <v>0.79376308713108301</v>
       </c>
+      <c r="L5" s="10">
+        <f>1000*0.000885166635271162</f>
+        <v>0.88516663527116202</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -7884,8 +11938,12 @@
         <f>1000*0.00162343855481595</f>
         <v>1.62343855481595</v>
       </c>
+      <c r="L6" s="10">
+        <f>1000*0.00154896057210863</f>
+        <v>1.5489605721086301</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -7925,8 +11983,12 @@
         <f>1000*0.00875111389905214</f>
         <v>8.7511138990521395</v>
       </c>
+      <c r="L7" s="10">
+        <f>1000*0.00764576252549887</f>
+        <v>7.6457625254988697</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -7966,8 +12028,12 @@
         <f>1000*0.00375264137983322</f>
         <v>3.7526413798332201</v>
       </c>
+      <c r="L8" s="10">
+        <f>1000*0.00310287787579</f>
+        <v>3.10287787579</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -8007,8 +12073,12 @@
         <f>1000*0.00104413053486496</f>
         <v>1.0441305348649599</v>
       </c>
+      <c r="L9" s="10">
+        <f>1000*0.000758039066568017</f>
+        <v>0.75803906656801701</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -8048,8 +12118,12 @@
         <f>1000*6.84354336044635E-06</f>
         <v>6.8435433604463504E-3</v>
       </c>
+      <c r="L10" s="10">
+        <f>1000*5.97452208239702E-06</f>
+        <v>5.9745220823970201E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -8089,8 +12163,12 @@
         <f>1000*0.000789120444096625</f>
         <v>0.78912044409662496</v>
       </c>
+      <c r="L11" s="10">
+        <f>1000*0.000693372800014913</f>
+        <v>0.69337280001491297</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -8130,22 +12208,27 @@
         <f>SUM(K4:K11)</f>
         <v>17.50222856526306</v>
       </c>
+      <c r="L12" s="11">
+        <f>SUM(L4:L11)</f>
+        <v>15.291524789518014</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -8176,8 +12259,11 @@
       <c r="K14" s="9">
         <v>186</v>
       </c>
+      <c r="L14" s="9">
+        <v>186</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -8208,8 +12294,11 @@
       <c r="K15" s="10">
         <v>32</v>
       </c>
+      <c r="L15" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -8240,8 +12329,11 @@
       <c r="K16" s="10">
         <v>222</v>
       </c>
+      <c r="L16" s="10">
+        <v>241</v>
+      </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -8272,8 +12364,11 @@
       <c r="K17" s="10">
         <v>0</v>
       </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -8304,8 +12399,11 @@
       <c r="K18" s="10">
         <v>4</v>
       </c>
+      <c r="L18" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -8336,8 +12434,11 @@
       <c r="K19" s="10">
         <v>71</v>
       </c>
+      <c r="L19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -8368,22 +12469,26 @@
       <c r="K20" s="11">
         <v>1</v>
       </c>
+      <c r="L20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -8414,8 +12519,11 @@
       <c r="K22" s="9">
         <v>47</v>
       </c>
+      <c r="L22" s="9">
+        <v>53</v>
+      </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
@@ -8446,8 +12554,11 @@
       <c r="K23" s="10">
         <v>7</v>
       </c>
+      <c r="L23" s="10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
@@ -8478,13 +12589,16 @@
       <c r="K24" s="10">
         <v>1.33</v>
       </c>
+      <c r="L24" s="10">
+        <v>1.573</v>
+      </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25:K25" si="1">1000*1/(C23-C24)</f>
+        <f t="shared" ref="C25:J25" si="1">1000*1/(C23-C24)</f>
         <v>157.5795776867318</v>
       </c>
       <c r="D25" s="11">
@@ -8519,10 +12633,14 @@
         <f>1000*1/(K23-K24)</f>
         <v>176.3668430335097</v>
       </c>
+      <c r="L25" s="11">
+        <f>1000*1/(L23-L24)</f>
+        <v>225.886604924328</v>
+      </c>
     </row>
-    <row r="27" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+    <row r="27" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -8549,21 +12667,25 @@
       <c r="K28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="L28" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="19" t="s">
+    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="22"/>
+      <c r="D29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
@@ -8595,12 +12717,16 @@
         <f>J4-C4</f>
         <v>-2.1762214601038998E-2</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="17">
         <f>K4-C4</f>
         <v>0.28694965294562297</v>
       </c>
+      <c r="L30" s="9">
+        <f>L4-C4</f>
+        <v>0.19714332302101006</v>
+      </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
@@ -8629,15 +12755,19 @@
         <v>0.38547744043171006</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" ref="J31:K38" si="8">J5-C5</f>
+        <f t="shared" ref="J31:J38" si="8">J5-C5</f>
         <v>0.57483604177833025</v>
       </c>
-      <c r="K31" s="10">
-        <f t="shared" ref="K31:K38" si="9">K5-C5</f>
+      <c r="K31" s="16">
+        <f t="shared" ref="K31:L38" si="9">K5-C5</f>
         <v>-0.42172183748334691</v>
       </c>
+      <c r="L31" s="10">
+        <f t="shared" ref="L31:L38" si="10">L5-C5</f>
+        <v>-0.3303182893432679</v>
+      </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
@@ -8669,12 +12799,16 @@
         <f t="shared" si="8"/>
         <v>2.8614420443772992E-2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="16">
         <f t="shared" si="9"/>
         <v>1.288426748942586</v>
       </c>
+      <c r="L32" s="10">
+        <f t="shared" si="10"/>
+        <v>1.2139487662352662</v>
+      </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -8706,12 +12840,16 @@
         <f t="shared" si="8"/>
         <v>0.9891097433865097</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="16">
         <f t="shared" si="9"/>
         <v>1.2503485195338699</v>
       </c>
+      <c r="L33" s="10">
+        <f t="shared" si="10"/>
+        <v>0.1449971459806001</v>
+      </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
@@ -8743,12 +12881,16 @@
         <f t="shared" si="8"/>
         <v>0.22958056069909993</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="16">
         <f t="shared" si="9"/>
         <v>0.18870481289923013</v>
       </c>
+      <c r="L34" s="10">
+        <f t="shared" si="10"/>
+        <v>-0.46105869114399001</v>
+      </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
@@ -8780,12 +12922,16 @@
         <f t="shared" si="8"/>
         <v>0.10664056753739504</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="16">
         <f t="shared" si="9"/>
         <v>0.12265000259503489</v>
       </c>
+      <c r="L35" s="10">
+        <f t="shared" si="10"/>
+        <v>-0.16344146570190798</v>
+      </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
@@ -8817,12 +12963,16 @@
         <f t="shared" si="8"/>
         <v>-1.7858678802440018E-4</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="16">
         <f t="shared" si="9"/>
         <v>3.2784471386548904E-3</v>
       </c>
+      <c r="L36" s="10">
+        <f t="shared" si="10"/>
+        <v>2.4094258606055601E-3</v>
+      </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
         <v>19</v>
       </c>
@@ -8854,12 +13004,16 @@
         <f t="shared" si="8"/>
         <v>7.1378075517710027E-2</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="16">
         <f t="shared" si="9"/>
         <v>-0.21793914493173505</v>
       </c>
+      <c r="L37" s="10">
+        <f t="shared" si="10"/>
+        <v>-0.31368678901344704</v>
+      </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -8891,38 +13045,43 @@
         <f t="shared" si="8"/>
         <v>1.9782186079737532</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="6">
         <f t="shared" si="9"/>
         <v>2.5006972016399143</v>
       </c>
+      <c r="L38" s="11">
+        <f t="shared" si="10"/>
+        <v>0.28999342589486865</v>
+      </c>
     </row>
-    <row r="39" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="27"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="10">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="11">D14-C14</f>
         <v>-5</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" ref="E40:E46" si="11">E14-C14</f>
+        <f t="shared" ref="E40:E46" si="12">E14-C14</f>
         <v>-117</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" ref="F40:F46" si="12">F14-C14</f>
+        <f t="shared" ref="F40:F46" si="13">F14-C14</f>
         <v>-58</v>
       </c>
       <c r="G40" s="17">
@@ -8941,247 +13100,276 @@
         <f>J14-C14</f>
         <v>1</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="17">
         <f>K14-C14</f>
         <v>-89</v>
       </c>
+      <c r="L40" s="9">
+        <f>L14-C14</f>
+        <v>-89</v>
+      </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="E41" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-32</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" ref="G41:G46" si="13">G15-C15</f>
+        <f t="shared" ref="G41:G46" si="14">G15-C15</f>
         <v>-32</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" ref="H41:H46" si="14">H15-C15</f>
+        <f t="shared" ref="H41:H46" si="15">H15-C15</f>
         <v>0</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ref="I41:I46" si="15">I15-C15</f>
+        <f t="shared" ref="I41:I46" si="16">I15-C15</f>
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" ref="J41:K46" si="16">J15-C15</f>
+        <f t="shared" ref="J41:J46" si="17">J15-C15</f>
         <v>0</v>
       </c>
-      <c r="K41" s="10">
-        <f t="shared" ref="K41:K46" si="17">K15-C15</f>
+      <c r="K41" s="16">
+        <f t="shared" ref="K41:L46" si="18">K15-C15</f>
         <v>0</v>
       </c>
+      <c r="L41" s="10">
+        <f t="shared" ref="L41:L46" si="19">L15-C15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-26</v>
       </c>
       <c r="E42" s="16">
+        <f t="shared" si="12"/>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="13"/>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="11"/>
-        <v>-54</v>
-      </c>
-      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="12"/>
-        <v>-38</v>
-      </c>
-      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="13"/>
-        <v>194</v>
-      </c>
-      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="15"/>
-        <v>66</v>
-      </c>
-      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="16"/>
-        <v>66</v>
-      </c>
-      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="17"/>
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="E46" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I43" s="16">
+      <c r="H46" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J43" s="16">
+      <c r="I46" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K43" s="10">
+      <c r="J46" s="6">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="K46" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
+    <row r="47" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="18"/>
+      <c r="D47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="27"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="18"/>
-      <c r="D47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>34</v>
       </c>
@@ -9213,12 +13401,16 @@
         <f>J22-C22</f>
         <v>0</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <f>K22-C22</f>
         <v>3</v>
       </c>
+      <c r="L48" s="9">
+        <f>L22-C22</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
@@ -9226,7 +13418,7 @@
         <f>D23-C23</f>
         <v>0</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="1">
         <f>E23-C23</f>
         <v>0</v>
       </c>
@@ -9234,7 +13426,7 @@
         <f>F23-C23</f>
         <v>0</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="1">
         <f>G23-C23</f>
         <v>0</v>
       </c>
@@ -9250,12 +13442,16 @@
         <f>J23-C23</f>
         <v>-2</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="25">
         <f>K23-C23</f>
         <v>-3</v>
       </c>
+      <c r="L49" s="10">
+        <f t="shared" ref="L49:L51" si="20">L23-C23</f>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
         <v>4</v>
       </c>
@@ -9263,7 +13459,7 @@
         <f>D24-C24</f>
         <v>-0.58000000000000007</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="1">
         <f>E24-C24</f>
         <v>-0.18999999999999995</v>
       </c>
@@ -9271,7 +13467,7 @@
         <f>F24-C24</f>
         <v>0.54900000000000038</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="1">
         <f>G24-C24</f>
         <v>-1.1819999999999999</v>
       </c>
@@ -9287,12 +13483,16 @@
         <f>J24-C24</f>
         <v>-1.3769999999999998</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="25">
         <f>K24-C24</f>
         <v>-2.3239999999999998</v>
       </c>
+      <c r="L50" s="10">
+        <f t="shared" si="20"/>
+        <v>-2.081</v>
+      </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
@@ -9324,23 +13524,931 @@
         <f>J25-C25</f>
         <v>17.153953677937096</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="7">
         <f>K25-C25</f>
         <v>18.7872653467779</v>
       </c>
+      <c r="L51" s="11">
+        <f t="shared" si="20"/>
+        <v>68.307027237596202</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="22"/>
+      <c r="D55" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="9">
+        <f>((D4-$C4)/$C4)*100</f>
+        <v>-18.435649023904833</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" ref="E56:L56" si="21">((E4-$C4)/$C4)*100</f>
+        <v>-35.582227541156172</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="21"/>
+        <v>-69.829975862965838</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="21"/>
+        <v>-35.287029261036132</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" si="21"/>
+        <v>0.17798908281521064</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="21"/>
+        <v>-18.348112148948175</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="21"/>
+        <v>-4.7910388689480357</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" si="21"/>
+        <v>63.173117529499592</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" si="21"/>
+        <v>43.401893633662759</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" ref="D57:D64" si="22">((D5-$C5)/$C5)*100</f>
+        <v>44.533976647304748</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57:L57" si="23">((E5-$C5)/$C5)*100</f>
+        <v>-9.5885464674817307</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="23"/>
+        <v>-84.807098472780623</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="23"/>
+        <v>-67.989122335392153</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="23"/>
+        <v>1.8255068319380879E-2</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="23"/>
+        <v>31.713880824477464</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="23"/>
+        <v>47.292733141933198</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="23"/>
+        <v>-34.695768655224043</v>
+      </c>
+      <c r="L57" s="10">
+        <f t="shared" si="23"/>
+        <v>-27.175844196344091</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="22"/>
+        <v>23.779754142979883</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" ref="E58:L58" si="24">((E6-$C6)/$C6)*100</f>
+        <v>-4.1243105024289388</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="24"/>
+        <v>232.65371189335323</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="24"/>
+        <v>114.87014328483636</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="24"/>
+        <v>2.5547223948603879</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="24"/>
+        <v>-9.318023115098212</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" si="24"/>
+        <v>8.5413170348358936</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="24"/>
+        <v>384.59144613835406</v>
+      </c>
+      <c r="L58" s="10">
+        <f t="shared" si="24"/>
+        <v>362.35999596209587</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C59" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="22"/>
+        <v>47.144033771028802</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" ref="E59:L59" si="25">((E7-$C7)/$C7)*100</f>
+        <v>-23.966723887494993</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="25"/>
+        <v>53.886518500914882</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="25"/>
+        <v>128.00170178729215</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="25"/>
+        <v>0.2113327784458463</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="25"/>
+        <v>-3.9046308766122064</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" si="25"/>
+        <v>13.186784192549087</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="25"/>
+        <v>16.669612449792055</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" si="25"/>
+        <v>1.933098005925262</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="22"/>
+        <v>75.96781758086874</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" ref="E60:L60" si="26">((E8-$C8)/$C8)*100</f>
+        <v>-31.026058615961897</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="26"/>
+        <v>93.700773718361802</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="26"/>
+        <v>199.02318489636534</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="26"/>
+        <v>-0.14294122208613866</v>
+      </c>
+      <c r="I60" s="10">
+        <f t="shared" si="26"/>
+        <v>-9.9595015114334409</v>
+      </c>
+      <c r="J60" s="10">
+        <f t="shared" si="26"/>
+        <v>6.441768993004418</v>
+      </c>
+      <c r="K60" s="10">
+        <f t="shared" si="26"/>
+        <v>5.2948420757547465</v>
+      </c>
+      <c r="L60" s="10">
+        <f t="shared" si="26"/>
+        <v>-12.936781631347413</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C61" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="22"/>
+        <v>-9.0317142123497565</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" ref="E61:L61" si="27">((E9-$C9)/$C9)*100</f>
+        <v>-35.941321142839868</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" si="27"/>
+        <v>-51.773191884360415</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="27"/>
+        <v>27.687502585921099</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="27"/>
+        <v>0.43275451861124714</v>
+      </c>
+      <c r="I61" s="10">
+        <f t="shared" si="27"/>
+        <v>-5.7176290820840343</v>
+      </c>
+      <c r="J61" s="10">
+        <f t="shared" si="27"/>
+        <v>11.572742320958476</v>
+      </c>
+      <c r="K61" s="10">
+        <f t="shared" si="27"/>
+        <v>13.31010241669518</v>
+      </c>
+      <c r="L61" s="10">
+        <f t="shared" si="27"/>
+        <v>-17.736833278430218</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="22"/>
+        <v>-6.1062119553996101</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" ref="E62:L62" si="28">((E10-$C10)/$C10)*100</f>
+        <v>16.699472858087848</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="28"/>
+        <v>133.57469157577469</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="28"/>
+        <v>213.86600774937611</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="28"/>
+        <v>-1.8867997932835279</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="28"/>
+        <v>-2.8699969800628463E-4</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="28"/>
+        <v>-5.0093118646503276</v>
+      </c>
+      <c r="K62" s="10">
+        <f t="shared" si="28"/>
+        <v>91.95956952341308</v>
+      </c>
+      <c r="L62" s="10">
+        <f t="shared" si="28"/>
+        <v>67.583754005798596</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C63" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="22"/>
+        <v>37.230272296319036</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" ref="E63:L63" si="29">((E11-$C11)/$C11)*100</f>
+        <v>-6.8867784064323034</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="29"/>
+        <v>-36.10269420209714</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="29"/>
+        <v>22.192452849382104</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="29"/>
+        <v>0.73837857733366508</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="29"/>
+        <v>-15.506470320589177</v>
+      </c>
+      <c r="J63" s="10">
+        <f t="shared" si="29"/>
+        <v>7.087770802776193</v>
+      </c>
+      <c r="K63" s="10">
+        <f t="shared" si="29"/>
+        <v>-21.641136960128545</v>
+      </c>
+      <c r="L63" s="10">
+        <f t="shared" si="29"/>
+        <v>-31.148781306585942</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" si="22"/>
+        <v>47.144020453505753</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" ref="E64:L64" si="30">((E12-$C12)/$C12)*100</f>
+        <v>-23.966727742941849</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="30"/>
+        <v>39.841645682828201</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="30"/>
+        <v>110.51248917817915</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="30"/>
+        <v>0.21132922932416195</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="30"/>
+        <v>-3.9046344735631631</v>
+      </c>
+      <c r="J64" s="11">
+        <f t="shared" si="30"/>
+        <v>13.186777803036081</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="30"/>
+        <v>16.669612861682875</v>
+      </c>
+      <c r="L64" s="11">
+        <f t="shared" si="30"/>
+        <v>1.9330921548320512</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="12"/>
+      <c r="D65" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C66" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="9">
+        <f>((D14-$C14)/$C14)*100</f>
+        <v>-1.8181818181818181</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" ref="E66:K66" si="31">((E14-$C14)/$C14)*100</f>
+        <v>-42.545454545454547</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="31"/>
+        <v>-21.09090909090909</v>
+      </c>
+      <c r="G66" s="9">
+        <f t="shared" si="31"/>
+        <v>64.363636363636374</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="31"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="31"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" si="31"/>
+        <v>-32.36363636363636</v>
+      </c>
+      <c r="L66" s="9">
+        <f>((L14-$C14)/$C14)*100</f>
+        <v>-32.36363636363636</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" ref="D67:K72" si="32">((D15-$C15)/$C15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="32"/>
+        <v>-100</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="32"/>
+        <v>-100</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="10">
+        <f t="shared" ref="L67" si="33">((L15-$C15)/$C15)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C68" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="32"/>
+        <v>-16.25</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="32"/>
+        <v>-33.75</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="32"/>
+        <v>-23.75</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="32"/>
+        <v>121.24999999999999</v>
+      </c>
+      <c r="H68" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="10">
+        <f t="shared" si="32"/>
+        <v>41.25</v>
+      </c>
+      <c r="J68" s="10">
+        <f t="shared" si="32"/>
+        <v>41.25</v>
+      </c>
+      <c r="K68" s="10">
+        <f t="shared" si="32"/>
+        <v>38.75</v>
+      </c>
+      <c r="L68" s="10">
+        <f t="shared" ref="L68" si="34">((L16-$C16)/$C16)*100</f>
+        <v>50.625</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0</v>
+      </c>
+      <c r="K69" s="10">
+        <v>0</v>
+      </c>
+      <c r="L69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="10">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="L70" s="10">
+        <f t="shared" ref="L70" si="35">((L18-$C18)/$C18)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C71" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="10">
+        <f t="shared" ref="L71" si="36">((L19-$C19)/$C19)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" ref="L72" si="37">((L20-$C20)/$C20)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C73" s="18"/>
+      <c r="D73" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C74" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="9">
+        <f>((D22-$C22)/$C22)*100</f>
+        <v>-2.2727272727272729</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" ref="E74:L74" si="38">((E22-$C22)/$C22)*100</f>
+        <v>52.272727272727273</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="38"/>
+        <v>-20.454545454545457</v>
+      </c>
+      <c r="G74" s="9">
+        <f t="shared" si="38"/>
+        <v>-43.18181818181818</v>
+      </c>
+      <c r="H74" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="38"/>
+        <v>13.636363636363635</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="9">
+        <f t="shared" si="38"/>
+        <v>6.8181818181818175</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="38"/>
+        <v>20.454545454545457</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C75" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" ref="D75:L77" si="39">((D23-$C23)/$C23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="39"/>
+        <v>-10</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" si="39"/>
+        <v>-30</v>
+      </c>
+      <c r="L75" s="10">
+        <f t="shared" si="39"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C76" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="39"/>
+        <v>-15.873015873015875</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="39"/>
+        <v>-5.1997810618500262</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="39"/>
+        <v>15.024630541871931</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="39"/>
+        <v>-32.348111658456489</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="39"/>
+        <v>-16.256157635467979</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="39"/>
+        <v>-37.684729064039402</v>
+      </c>
+      <c r="K76" s="10">
+        <f t="shared" si="39"/>
+        <v>-63.601532567049802</v>
+      </c>
+      <c r="L76" s="10">
+        <f t="shared" si="39"/>
+        <v>-56.951286261631083</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" si="39"/>
+        <v>-8.3742419867167204</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="39"/>
+        <v>-2.9069767441860419</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="39"/>
+        <v>9.4704157322753151</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" si="39"/>
+        <v>-15.701381509032938</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="39"/>
+        <v>6.8350168350168437</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" si="39"/>
+        <v>10.885899004018881</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" si="39"/>
+        <v>11.922398589065256</v>
+      </c>
+      <c r="L77" s="11">
+        <f t="shared" si="39"/>
+        <v>43.347639484978551</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="D39:L39"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="C54:C55"/>
   </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B04CCC6-9E5D-4D26-8D3F-4FD2017DA7D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM49" sqref="AM49:AM50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC25382-13D7-47F8-9ED3-D5A64A9B245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F50EAD-DE4D-4371-98CF-E1019422120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -36,8 +36,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Giorgio Ubbriaco</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{905D979A-D569-4017-8C5E-C99DF3158307}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giorgio Ubbriaco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ABSOLUTE_ERROR = SOLUTION - UNOPTIMIZED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{091EFB19-36EE-4D21-BA4C-183860524C78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giorgio Ubbriaco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PERCENTAGE_VARIATION = ((SOLUTION-UNOPTIMIZED) / UNOPTIMIZED) * 100</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -176,12 +252,15 @@
   <si>
     <t>PERCENTAGE VARIATION</t>
   </si>
+  <si>
+    <t>Operation Chaining Solution CLK=5ns</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +290,25 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,9 +546,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11736,29 +11831,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6882FD06-CF12-407A-B05E-22928E94B38D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L77"/>
+  <dimension ref="B2:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
@@ -11792,8 +11888,11 @@
       <c r="L2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
       <c r="C3" s="20" t="s">
         <v>22</v>
@@ -11807,8 +11906,9 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -11852,8 +11952,12 @@
         <f>1000*0.000651370792184025</f>
         <v>0.65137079218402505</v>
       </c>
+      <c r="M4" s="9">
+        <f>1000*0.000556948827579618</f>
+        <v>0.55694882757961806</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -11897,8 +12001,12 @@
         <f>1000*0.000885166635271162</f>
         <v>0.88516663527116202</v>
       </c>
+      <c r="M5" s="10">
+        <f>1000*0.00317416270263493</f>
+        <v>3.1741627026349302</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -11942,8 +12050,12 @@
         <f>1000*0.00154896057210863</f>
         <v>1.5489605721086301</v>
       </c>
+      <c r="M6" s="10">
+        <f>1000*0.000278797728242353</f>
+        <v>0.27879772824235299</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -11987,8 +12099,12 @@
         <f>1000*0.00764576252549887</f>
         <v>7.6457625254988697</v>
       </c>
+      <c r="M7" s="10">
+        <f>1000*0.00957265589386225</f>
+        <v>9.5726558938622492</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -12032,8 +12148,12 @@
         <f>1000*0.00310287787579</f>
         <v>3.10287787579</v>
       </c>
+      <c r="M8" s="10">
+        <f>1000*0.00381642347201705</f>
+        <v>3.8164234720170498</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -12077,8 +12197,12 @@
         <f>1000*0.000758039066568017</f>
         <v>0.75803906656801701</v>
       </c>
+      <c r="M9" s="10">
+        <f>1000*0.000888140755705535</f>
+        <v>0.88814075570553497</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -12122,8 +12246,12 @@
         <f>1000*5.97452208239702E-06</f>
         <v>5.9745220823970201E-3</v>
       </c>
+      <c r="M10" s="10">
+        <f>1000*4.53235816166853E-06</f>
+        <v>4.5323581616685303E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -12167,8 +12295,12 @@
         <f>1000*0.000693372800014913</f>
         <v>0.69337280001491297</v>
       </c>
+      <c r="M11" s="10">
+        <f>1000*0.00085364980623126</f>
+        <v>0.85364980623125997</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -12212,8 +12344,12 @@
         <f>SUM(L4:L11)</f>
         <v>15.291524789518014</v>
       </c>
+      <c r="M12" s="11">
+        <f>SUM(M4:M11)</f>
+        <v>19.145311544434662</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="20" t="s">
         <v>3</v>
@@ -12227,8 +12363,9 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -12262,8 +12399,11 @@
       <c r="L14" s="9">
         <v>186</v>
       </c>
+      <c r="M14" s="9">
+        <v>186</v>
+      </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -12297,8 +12437,11 @@
       <c r="L15" s="10">
         <v>32</v>
       </c>
+      <c r="M15" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -12332,8 +12475,11 @@
       <c r="L16" s="10">
         <v>241</v>
       </c>
+      <c r="M16" s="10">
+        <v>258</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -12367,8 +12513,11 @@
       <c r="L17" s="10">
         <v>0</v>
       </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -12402,8 +12551,11 @@
       <c r="L18" s="10">
         <v>4</v>
       </c>
+      <c r="M18" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -12437,8 +12589,11 @@
       <c r="L19" s="10">
         <v>71</v>
       </c>
+      <c r="M19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -12472,8 +12627,11 @@
       <c r="L20" s="11">
         <v>1</v>
       </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
         <v>23</v>
@@ -12487,8 +12645,9 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -12522,8 +12681,11 @@
       <c r="L22" s="9">
         <v>53</v>
       </c>
+      <c r="M22" s="9">
+        <v>44</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
@@ -12557,8 +12719,11 @@
       <c r="L23" s="10">
         <v>6</v>
       </c>
+      <c r="M23" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
@@ -12592,8 +12757,11 @@
       <c r="L24" s="10">
         <v>1.573</v>
       </c>
+      <c r="M24" s="10">
+        <v>0.374</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -12637,9 +12805,13 @@
         <f>1000*1/(L23-L24)</f>
         <v>225.886604924328</v>
       </c>
+      <c r="M25" s="11">
+        <f>1000*1/(M23-M24)</f>
+        <v>216.16947686986595</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
         <v>24</v>
       </c>
@@ -12670,8 +12842,11 @@
       <c r="L28" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M28" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="22"/>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -12683,9 +12858,10 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
@@ -12721,12 +12897,16 @@
         <f>K4-C4</f>
         <v>0.28694965294562297</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="17">
         <f>L4-C4</f>
         <v>0.19714332302101006</v>
       </c>
+      <c r="M30" s="9">
+        <f>M4-C4</f>
+        <v>0.10272135841660307</v>
+      </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
@@ -12759,15 +12939,19 @@
         <v>0.57483604177833025</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" ref="K31:L38" si="9">K5-C5</f>
+        <f t="shared" ref="K31:K38" si="9">K5-C5</f>
         <v>-0.42172183748334691</v>
       </c>
-      <c r="L31" s="10">
-        <f t="shared" ref="L31:L38" si="10">L5-C5</f>
+      <c r="L31" s="16">
+        <f t="shared" ref="L31:M38" si="10">L5-C5</f>
         <v>-0.3303182893432679</v>
       </c>
+      <c r="M31" s="10">
+        <f t="shared" ref="M31:M38" si="11">M5-C5</f>
+        <v>1.9586777780205002</v>
+      </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
@@ -12803,12 +12987,16 @@
         <f t="shared" si="9"/>
         <v>1.288426748942586</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="16">
         <f t="shared" si="10"/>
         <v>1.2139487662352662</v>
       </c>
+      <c r="M32" s="10">
+        <f t="shared" si="11"/>
+        <v>-5.6214077631010995E-2</v>
+      </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -12844,12 +13032,16 @@
         <f t="shared" si="9"/>
         <v>1.2503485195338699</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="16">
         <f t="shared" si="10"/>
         <v>0.1449971459806001</v>
       </c>
+      <c r="M33" s="10">
+        <f t="shared" si="11"/>
+        <v>2.0718905143439796</v>
+      </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
@@ -12885,12 +13077,16 @@
         <f t="shared" si="9"/>
         <v>0.18870481289923013</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="16">
         <f t="shared" si="10"/>
         <v>-0.46105869114399001</v>
       </c>
+      <c r="M34" s="10">
+        <f t="shared" si="11"/>
+        <v>0.25248690508305982</v>
+      </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
@@ -12926,12 +13122,16 @@
         <f t="shared" si="9"/>
         <v>0.12265000259503489</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="16">
         <f t="shared" si="10"/>
         <v>-0.16344146570190798</v>
       </c>
+      <c r="M35" s="10">
+        <f t="shared" si="11"/>
+        <v>-3.3339776564390022E-2</v>
+      </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
@@ -12967,12 +13167,16 @@
         <f t="shared" si="9"/>
         <v>3.2784471386548904E-3</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="16">
         <f t="shared" si="10"/>
         <v>2.4094258606055601E-3</v>
       </c>
+      <c r="M36" s="10">
+        <f t="shared" si="11"/>
+        <v>9.6726193987707034E-4</v>
+      </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
         <v>19</v>
       </c>
@@ -13008,12 +13212,16 @@
         <f t="shared" si="9"/>
         <v>-0.21793914493173505</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="16">
         <f t="shared" si="10"/>
         <v>-0.31368678901344704</v>
       </c>
+      <c r="M37" s="10">
+        <f t="shared" si="11"/>
+        <v>-0.15340978279710005</v>
+      </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -13049,12 +13257,16 @@
         <f t="shared" si="9"/>
         <v>2.5006972016399143</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="6">
         <f t="shared" si="10"/>
         <v>0.28999342589486865</v>
       </c>
+      <c r="M38" s="11">
+        <f t="shared" si="11"/>
+        <v>4.1437801808115164</v>
+      </c>
     </row>
-    <row r="39" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="20" t="s">
         <v>3</v>
@@ -13066,22 +13278,23 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
-      <c r="L39" s="27"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="11">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="12">D14-C14</f>
         <v>-5</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" ref="E40:E46" si="12">E14-C14</f>
+        <f t="shared" ref="E40:E46" si="13">E14-C14</f>
         <v>-117</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" ref="F40:F46" si="13">F14-C14</f>
+        <f t="shared" ref="F40:F46" si="14">F14-C14</f>
         <v>-58</v>
       </c>
       <c r="G40" s="17">
@@ -13104,258 +13317,286 @@
         <f>K14-C14</f>
         <v>-89</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="17">
         <f>L14-C14</f>
         <v>-89</v>
       </c>
+      <c r="M40" s="9">
+        <f>M14-C14</f>
+        <v>-89</v>
+      </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="E41" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-32</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" ref="G41:G46" si="14">G15-C15</f>
+        <f t="shared" ref="G41:G46" si="15">G15-C15</f>
         <v>-32</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" ref="H41:H46" si="15">H15-C15</f>
+        <f t="shared" ref="H41:H46" si="16">H15-C15</f>
         <v>0</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ref="I41:I46" si="16">I15-C15</f>
+        <f t="shared" ref="I41:I46" si="17">I15-C15</f>
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" ref="J41:J46" si="17">J15-C15</f>
+        <f t="shared" ref="J41:J46" si="18">J15-C15</f>
         <v>0</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" ref="K41:L46" si="18">K15-C15</f>
+        <f t="shared" ref="K41:K46" si="19">K15-C15</f>
         <v>0</v>
       </c>
-      <c r="L41" s="10">
-        <f t="shared" ref="L41:L46" si="19">L15-C15</f>
+      <c r="L41" s="16">
+        <f t="shared" ref="L41:M46" si="20">L15-C15</f>
         <v>0</v>
       </c>
+      <c r="M41" s="10">
+        <f t="shared" ref="M41:M46" si="21">M15-C15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-26</v>
       </c>
       <c r="E42" s="16">
+        <f t="shared" si="13"/>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="14"/>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="15"/>
+        <v>194</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="19"/>
+        <v>62</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="21"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="12"/>
-        <v>-54</v>
-      </c>
-      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="13"/>
-        <v>-38</v>
-      </c>
-      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="14"/>
-        <v>194</v>
-      </c>
-      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="16"/>
-        <v>66</v>
-      </c>
-      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="17"/>
-        <v>66</v>
-      </c>
-      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="18"/>
-        <v>62</v>
-      </c>
-      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
         <f t="shared" si="19"/>
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="E46" s="6">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I43" s="16">
+      <c r="H46" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J43" s="16">
+      <c r="I46" s="6">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K43" s="16">
+      <c r="J46" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L43" s="10">
+      <c r="K46" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="L46" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="L44" s="10">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="18"/>
       <c r="D47" s="20" t="s">
         <v>23</v>
@@ -13367,9 +13608,10 @@
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
-      <c r="L47" s="27"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="26"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>34</v>
       </c>
@@ -13405,12 +13647,16 @@
         <f>K22-C22</f>
         <v>3</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="17">
         <f>L22-C22</f>
         <v>9</v>
       </c>
+      <c r="M48" s="9">
+        <f>M22-C22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
@@ -13442,16 +13688,20 @@
         <f>J23-C23</f>
         <v>-2</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K49" s="1">
         <f>K23-C23</f>
         <v>-3</v>
       </c>
-      <c r="L49" s="10">
-        <f t="shared" ref="L49:L51" si="20">L23-C23</f>
+      <c r="L49" s="16">
+        <f t="shared" ref="L49:M51" si="22">L23-C23</f>
         <v>-4</v>
       </c>
+      <c r="M49" s="10">
+        <f t="shared" ref="M49:M51" si="23">M23-C23</f>
+        <v>-5</v>
+      </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
         <v>4</v>
       </c>
@@ -13483,16 +13733,20 @@
         <f>J24-C24</f>
         <v>-1.3769999999999998</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K50" s="1">
         <f>K24-C24</f>
         <v>-2.3239999999999998</v>
       </c>
-      <c r="L50" s="10">
-        <f t="shared" si="20"/>
+      <c r="L50" s="16">
+        <f t="shared" si="22"/>
         <v>-2.081</v>
       </c>
+      <c r="M50" s="10">
+        <f t="shared" si="23"/>
+        <v>-3.28</v>
+      </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
@@ -13528,12 +13782,16 @@
         <f>K25-C25</f>
         <v>18.7872653467779</v>
       </c>
-      <c r="L51" s="11">
-        <f t="shared" si="20"/>
+      <c r="L51" s="6">
+        <f t="shared" si="22"/>
         <v>68.307027237596202</v>
       </c>
+      <c r="M51" s="11">
+        <f t="shared" si="23"/>
+        <v>58.58989918313415</v>
+      </c>
     </row>
-    <row r="54" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C54" s="21" t="s">
         <v>45</v>
       </c>
@@ -13564,8 +13822,11 @@
       <c r="L54" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M54" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="55" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="22"/>
       <c r="D55" s="20" t="s">
         <v>22</v>
@@ -13578,8 +13839,9 @@
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>36</v>
       </c>
@@ -13588,367 +13850,403 @@
         <v>-18.435649023904833</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:L56" si="21">((E4-$C4)/$C4)*100</f>
+        <f t="shared" ref="E56:L56" si="24">((E4-$C4)/$C4)*100</f>
         <v>-35.582227541156172</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-69.829975862965838</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-35.287029261036132</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.17798908281521064</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-18.348112148948175</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-4.7910388689480357</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>63.173117529499592</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>43.401893633662759</v>
       </c>
+      <c r="M56" s="9">
+        <f t="shared" ref="M56" si="25">((M4-$C4)/$C4)*100</f>
+        <v>22.614519242062396</v>
+      </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="10">
-        <f t="shared" ref="D57:D64" si="22">((D5-$C5)/$C5)*100</f>
+        <f t="shared" ref="D57:D64" si="26">((D5-$C5)/$C5)*100</f>
         <v>44.533976647304748</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" ref="E57:L57" si="23">((E5-$C5)/$C5)*100</f>
+        <f t="shared" ref="E57:L57" si="27">((E5-$C5)/$C5)*100</f>
         <v>-9.5885464674817307</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-84.807098472780623</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-67.989122335392153</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.8255068319380879E-2</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>31.713880824477464</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>47.292733141933198</v>
       </c>
       <c r="K57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-34.695768655224043</v>
       </c>
       <c r="L57" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-27.175844196344091</v>
       </c>
+      <c r="M57" s="10">
+        <f t="shared" ref="M57" si="28">((M5-$C5)/$C5)*100</f>
+        <v>161.14373270748891</v>
+      </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>23.779754142979883</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" ref="E58:L58" si="24">((E6-$C6)/$C6)*100</f>
+        <f t="shared" ref="E58:L58" si="29">((E6-$C6)/$C6)*100</f>
         <v>-4.1243105024289388</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>232.65371189335323</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>114.87014328483636</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2.5547223948603879</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-9.318023115098212</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>8.5413170348358936</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>384.59144613835406</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>362.35999596209587</v>
       </c>
+      <c r="M58" s="10">
+        <f t="shared" ref="M58" si="30">((M6-$C6)/$C6)*100</f>
+        <v>-16.779730339491429</v>
+      </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>47.144033771028802</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" ref="E59:L59" si="25">((E7-$C7)/$C7)*100</f>
+        <f t="shared" ref="E59:L59" si="31">((E7-$C7)/$C7)*100</f>
         <v>-23.966723887494993</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>53.886518500914882</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>128.00170178729215</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.2113327784458463</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.9046308766122064</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>13.186784192549087</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>16.669612449792055</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.933098005925262</v>
       </c>
+      <c r="M59" s="10">
+        <f t="shared" ref="M59" si="32">((M7-$C7)/$C7)*100</f>
+        <v>27.622387976585998</v>
+      </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>75.96781758086874</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" ref="E60:L60" si="26">((E8-$C8)/$C8)*100</f>
+        <f t="shared" ref="E60:L60" si="33">((E8-$C8)/$C8)*100</f>
         <v>-31.026058615961897</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>93.700773718361802</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>199.02318489636534</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>-0.14294122208613866</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>-9.9595015114334409</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>6.441768993004418</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>5.2948420757547465</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>-12.936781631347413</v>
       </c>
+      <c r="M60" s="10">
+        <f t="shared" ref="M60" si="34">((M8-$C8)/$C8)*100</f>
+        <v>7.0844949213075115</v>
+      </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-9.0317142123497565</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" ref="E61:L61" si="27">((E9-$C9)/$C9)*100</f>
+        <f t="shared" ref="E61:L61" si="35">((E9-$C9)/$C9)*100</f>
         <v>-35.941321142839868</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>-51.773191884360415</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>27.687502585921099</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.43275451861124714</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>-5.7176290820840343</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>11.572742320958476</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>13.31010241669518</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>-17.736833278430218</v>
       </c>
+      <c r="M61" s="10">
+        <f t="shared" ref="M61" si="36">((M9-$C9)/$C9)*100</f>
+        <v>-3.6180662962311998</v>
+      </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-6.1062119553996101</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" ref="E62:L62" si="28">((E10-$C10)/$C10)*100</f>
+        <f t="shared" ref="E62:L62" si="37">((E10-$C10)/$C10)*100</f>
         <v>16.699472858087848</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>133.57469157577469</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>213.86600774937611</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>-1.8867997932835279</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>-2.8699969800628463E-4</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>-5.0093118646503276</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>91.95956952341308</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>67.583754005798596</v>
       </c>
+      <c r="M62" s="10">
+        <f t="shared" ref="M62" si="38">((M10-$C10)/$C10)*100</f>
+        <v>27.13143993042133</v>
+      </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>37.230272296319036</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" ref="E63:L63" si="29">((E11-$C11)/$C11)*100</f>
+        <f t="shared" ref="E63:L63" si="39">((E11-$C11)/$C11)*100</f>
         <v>-6.8867784064323034</v>
       </c>
       <c r="F63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-36.10269420209714</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>22.192452849382104</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>0.73837857733366508</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-15.506470320589177</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.087770802776193</v>
       </c>
       <c r="K63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-21.641136960128545</v>
       </c>
       <c r="L63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-31.148781306585942</v>
       </c>
+      <c r="M63" s="10">
+        <f t="shared" ref="M63" si="40">((M11-$C11)/$C11)*100</f>
+        <v>-15.23343647868089</v>
+      </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>47.144020453505753</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" ref="E64:L64" si="30">((E12-$C12)/$C12)*100</f>
+        <f t="shared" ref="E64:L64" si="41">((E12-$C12)/$C12)*100</f>
         <v>-23.966727742941849</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>39.841645682828201</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>110.51248917817915</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.21132922932416195</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-3.9046344735631631</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>13.186777803036081</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>16.669612861682875</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>1.9330921548320512</v>
       </c>
+      <c r="M64" s="11">
+        <f t="shared" ref="M64" si="42">((M12-$C12)/$C12)*100</f>
+        <v>27.622381211425317</v>
+      </c>
     </row>
-    <row r="65" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="20" t="s">
         <v>3</v>
@@ -13961,8 +14259,9 @@
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>6</v>
       </c>
@@ -13971,121 +14270,133 @@
         <v>-1.8181818181818181</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" ref="E66:K66" si="31">((E14-$C14)/$C14)*100</f>
+        <f t="shared" ref="E66:K66" si="43">((E14-$C14)/$C14)*100</f>
         <v>-42.545454545454547</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>-21.09090909090909</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>64.363636363636374</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>-32.36363636363636</v>
       </c>
       <c r="L66" s="9">
         <f>((L14-$C14)/$C14)*100</f>
         <v>-32.36363636363636</v>
       </c>
+      <c r="M66" s="9">
+        <f>((M14-$C14)/$C14)*100</f>
+        <v>-32.36363636363636</v>
+      </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="10">
-        <f t="shared" ref="D67:K72" si="32">((D15-$C15)/$C15)*100</f>
+        <f t="shared" ref="D67:K72" si="44">((D15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>-100</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>-100</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67" si="33">((L15-$C15)/$C15)*100</f>
+        <f t="shared" ref="L67:M67" si="45">((L15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
+      <c r="M67" s="10">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>-16.25</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>-33.75</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>-23.75</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>121.24999999999999</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>41.25</v>
       </c>
       <c r="J68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>41.25</v>
       </c>
       <c r="K68" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>38.75</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" ref="L68" si="34">((L16-$C16)/$C16)*100</f>
+        <f t="shared" ref="L68:M68" si="46">((L16-$C16)/$C16)*100</f>
         <v>50.625</v>
       </c>
+      <c r="M68" s="10">
+        <f t="shared" si="46"/>
+        <v>61.250000000000007</v>
+      </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69" s="16" t="s">
         <v>29</v>
       </c>
@@ -14116,131 +14427,146 @@
       <c r="L69" s="10">
         <v>0</v>
       </c>
+      <c r="M69" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K70" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" ref="L70" si="35">((L18-$C18)/$C18)*100</f>
+        <f t="shared" ref="L70:M70" si="47">((L18-$C18)/$C18)*100</f>
         <v>100</v>
       </c>
+      <c r="M70" s="10">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K71" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" ref="L71" si="36">((L19-$C19)/$C19)*100</f>
+        <f t="shared" ref="L71:M71" si="48">((L19-$C19)/$C19)*100</f>
         <v>0</v>
       </c>
+      <c r="M71" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" ref="L72" si="37">((L20-$C20)/$C20)*100</f>
+        <f t="shared" ref="L72:M72" si="49">((L20-$C20)/$C20)*100</f>
         <v>0</v>
       </c>
+      <c r="M72" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="18"/>
       <c r="D73" s="20" t="s">
         <v>23</v>
@@ -14253,8 +14579,9 @@
       <c r="J73" s="20"/>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>34</v>
       </c>
@@ -14263,179 +14590,196 @@
         <v>-2.2727272727272729</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" ref="E74:L74" si="38">((E22-$C22)/$C22)*100</f>
+        <f t="shared" ref="E74:L74" si="50">((E22-$C22)/$C22)*100</f>
         <v>52.272727272727273</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>-20.454545454545457</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>-43.18181818181818</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>13.636363636363635</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>6.8181818181818175</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>20.454545454545457</v>
       </c>
+      <c r="M74" s="9">
+        <f t="shared" ref="M74" si="51">((M22-$C22)/$C22)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" ref="D75:L77" si="39">((D23-$C23)/$C23)*100</f>
+        <f t="shared" ref="D75:L77" si="52">((D23-$C23)/$C23)*100</f>
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-10</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-20</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-30</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-40</v>
       </c>
+      <c r="M75" s="10">
+        <f t="shared" ref="M75" si="53">((M23-$C23)/$C23)*100</f>
+        <v>-50</v>
+      </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-15.873015873015875</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-5.1997810618500262</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>15.024630541871931</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-32.348111658456489</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-16.256157635467979</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-37.684729064039402</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-63.601532567049802</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-56.951286261631083</v>
       </c>
+      <c r="M76" s="10">
+        <f t="shared" ref="M76" si="54">((M24-$C24)/$C24)*100</f>
+        <v>-89.764641488779418</v>
+      </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-8.3742419867167204</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-2.9069767441860419</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>9.4704157322753151</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>-15.701381509032938</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>6.8350168350168437</v>
       </c>
       <c r="J77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>10.885899004018881</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>11.922398589065256</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>43.347639484978551</v>
+      </c>
+      <c r="M77" s="11">
+        <f t="shared" ref="M77" si="55">((M25-$C25)/$C25)*100</f>
+        <v>37.181150021616929</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D73:M73"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D65:L65"/>
-    <mergeCell ref="D73:L73"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D39:M39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F50EAD-DE4D-4371-98CF-E1019422120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7BD106-999C-4638-8AB6-4B739887D91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Operation Chaining Solution CLK=5ns</t>
+  </si>
+  <si>
+    <t>Operation Chaining Solution CLK=4ns</t>
   </si>
 </sst>
 </file>
@@ -533,14 +536,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,9 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,9 +690,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -719,16 +722,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$4:$L$4</c:f>
+              <c:f>Data!$C$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -758,6 +767,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.65137079218402505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55694882757961806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57213963009417101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,9 +825,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -842,16 +857,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$5:$L$5</c:f>
+              <c:f>Data!$C$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -881,6 +902,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.88516663527116202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1741627026349302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8048466667532899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,9 +960,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -965,16 +992,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$6:$L$6</c:f>
+              <c:f>Data!$C$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -1004,6 +1037,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.5489605721086301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27879772824235299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24706084514036802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,9 +1093,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1086,16 +1125,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$7:$L$7</c:f>
+              <c:f>Data!$C$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -1125,6 +1170,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.6457625254988697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5726558938622492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1752698644995707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,9 +1226,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1207,16 +1258,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$8:$L$8</c:f>
+              <c:f>Data!$C$8:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -1246,6 +1303,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.10287787579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8164234720170498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1423273030668502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,9 +1361,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1330,16 +1393,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$9:$L$9</c:f>
+              <c:f>Data!$C$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1369,6 +1438,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.75803906656801701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88814075570553497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72020455263554994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,9 +1498,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1455,16 +1530,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$10:$L$10</c:f>
+              <c:f>Data!$C$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1494,6 +1575,12 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>5.9745220823970201E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4.5323581616685303E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.4769840365479502E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,9 +1639,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1584,16 +1671,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$11:$L$11</c:f>
+              <c:f>Data!$C$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1623,6 +1716,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.69337280001491297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85364980623125997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68621442187577497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,9 +1780,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1713,16 +1812,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$12:$L$12</c:f>
+              <c:f>Data!$C$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1752,6 +1857,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.291524789518014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.145311544434662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.350540268102122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,9 +2240,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2158,16 +2269,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$30:$L$30</c:f>
+              <c:f>Data!$D$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -2194,6 +2311,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.19714332302101006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10272135841660307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11791216093115603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,9 +2353,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2259,16 +2382,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$31:$L$31</c:f>
+              <c:f>Data!$D$31:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -2295,6 +2424,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.3303182893432679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9586777780205002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5893617421388599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,9 +2466,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2360,16 +2495,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$32:$L$32</c:f>
+              <c:f>Data!$D$32:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -2396,6 +2537,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.2139487662352662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.6214077631010995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.7950960732995964E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,9 +2579,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2461,16 +2608,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$33:$L$33</c:f>
+              <c:f>Data!$D$33:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -2497,6 +2650,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.1449971459806001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0718905143439796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6745044849813011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,9 +2692,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2562,16 +2721,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$34:$L$34</c:f>
+              <c:f>Data!$D$34:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -2598,6 +2763,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.46105869114399001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25248690508305982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.42160926386713982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,9 +2805,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2663,16 +2834,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$35:$L$35</c:f>
+              <c:f>Data!$D$35:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -2699,6 +2876,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.16344146570190798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.3339776564390022E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20127597963437505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,9 +2920,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2766,16 +2949,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$36:$L$36</c:f>
+              <c:f>Data!$D$36:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -2802,6 +2991,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.4094258606055601E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6726193987707034E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0881121852435098E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,9 +3035,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2869,16 +3064,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$37:$L$37</c:f>
+              <c:f>Data!$D$37:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -2905,6 +3106,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.31368678901344704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15340978279710005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.32084516715258504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2943,9 +3150,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -2972,16 +3179,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$38:$L$38</c:f>
+              <c:f>Data!$D$38:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -3008,6 +3221,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.28999342589486865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1437801808115164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3490089044789766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,9 +3562,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3375,16 +3594,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$14:$L$14</c:f>
+              <c:f>Data!$C$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -3414,6 +3639,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,9 +3697,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3498,16 +3729,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$15:$L$15</c:f>
+              <c:f>Data!$C$15:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3536,6 +3773,12 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -3589,9 +3832,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3621,16 +3864,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$16:$L$16</c:f>
+              <c:f>Data!$C$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3660,6 +3909,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,9 +3965,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3742,16 +3997,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$17:$L$17</c:f>
+              <c:f>Data!$C$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3780,6 +4041,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3831,9 +4098,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3863,16 +4130,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$18:$L$18</c:f>
+              <c:f>Data!$C$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3901,6 +4174,12 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3954,9 +4233,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3986,16 +4265,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$19:$L$19</c:f>
+              <c:f>Data!$C$19:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -4024,6 +4309,12 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -4079,9 +4370,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$L$2</c:f>
+              <c:f>Data!$C$2:$N$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -4111,16 +4402,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$20:$L$20</c:f>
+              <c:f>Data!$C$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4149,6 +4446,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4527,9 +4830,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4556,16 +4859,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$40:$L$40</c:f>
+              <c:f>Data!$D$40:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -4592,6 +4901,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,9 +4943,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4657,16 +4972,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$41:$L$41</c:f>
+              <c:f>Data!$D$41:$N$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4692,6 +5013,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4729,9 +5056,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4758,16 +5085,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$42:$L$42</c:f>
+              <c:f>Data!$D$42:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -4794,6 +5127,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,9 +5169,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4859,16 +5198,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$43:$L$43</c:f>
+              <c:f>Data!$D$43:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4894,6 +5239,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4931,9 +5282,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4960,16 +5311,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$44:$L$44</c:f>
+              <c:f>Data!$D$44:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4995,6 +5352,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5032,9 +5395,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5061,16 +5424,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$45:$L$45</c:f>
+              <c:f>Data!$D$45:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5096,6 +5465,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5135,9 +5510,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$L$28</c:f>
+              <c:f>Data!$D$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5164,16 +5539,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$46:$L$46</c:f>
+              <c:f>Data!$D$46:$N$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5199,6 +5580,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5491,8 +5878,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5509,35 +5897,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5564,16 +5937,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$56:$L$56</c:f>
+              <c:f>Data!$D$56:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-18.435649023904833</c:v>
                 </c:pt>
@@ -5600,11 +5979,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43.401893633662759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.614519242062396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.958835371279417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-07CF-48F0-8505-1AC2411F0824}"/>
@@ -5626,35 +6010,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5681,16 +6050,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$57:$L$57</c:f>
+              <c:f>Data!$D$57:$N$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44.533976647304748</c:v>
                 </c:pt>
@@ -5717,11 +6092,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-27.175844196344091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161.14373270748891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213.03116885306039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-07CF-48F0-8505-1AC2411F0824}"/>
@@ -5743,35 +6123,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5798,16 +6163,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$58:$L$58</c:f>
+              <c:f>Data!$D$58:$N$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>23.779754142979883</c:v>
                 </c:pt>
@@ -5834,11 +6205,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>362.35999596209587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16.779730339491429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26.253092933161238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-07CF-48F0-8505-1AC2411F0824}"/>
@@ -5860,33 +6236,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5913,16 +6276,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$59:$L$59</c:f>
+              <c:f>Data!$D$59:$N$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>47.144033771028802</c:v>
                 </c:pt>
@@ -5949,11 +6318,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.933098005925262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.622387976585998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.324448243025095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-07CF-48F0-8505-1AC2411F0824}"/>
@@ -5975,33 +6349,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6028,16 +6389,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$60:$L$60</c:f>
+              <c:f>Data!$D$60:$N$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>75.96781758086874</c:v>
                 </c:pt>
@@ -6064,11 +6431,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-12.936781631347413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0844949213075115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.829875643096672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-07CF-48F0-8505-1AC2411F0824}"/>
@@ -6090,35 +6462,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6145,16 +6502,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$61:$L$61</c:f>
+              <c:f>Data!$D$61:$N$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-9.0317142123497565</c:v>
                 </c:pt>
@@ -6181,11 +6544,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-17.736833278430218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.6180662962311998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-21.842673023006004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-07CF-48F0-8505-1AC2411F0824}"/>
@@ -6207,37 +6575,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6264,16 +6617,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$62:$L$62</c:f>
+              <c:f>Data!$D$62:$N$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-6.1062119553996101</c:v>
                 </c:pt>
@@ -6300,11 +6659,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>67.583754005798596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.13143993042133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-30.521257142864261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-07CF-48F0-8505-1AC2411F0824}"/>
@@ -6326,41 +6690,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6387,16 +6732,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$63:$L$63</c:f>
+              <c:f>Data!$D$63:$N$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>37.230272296319036</c:v>
                 </c:pt>
@@ -6423,11 +6774,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-31.148781306585942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.23343647868089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.859601025411582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-07CF-48F0-8505-1AC2411F0824}"/>
@@ -6449,41 +6805,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6510,16 +6847,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$64:$L$64</c:f>
+              <c:f>Data!$D$64:$N$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>47.144020453505753</c:v>
                 </c:pt>
@@ -6546,11 +6889,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.9330921548320512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.622381211425317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.324446906799849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-07CF-48F0-8505-1AC2411F0824}"/>
@@ -6565,11 +6913,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="184478880"/>
         <c:axId val="184472640"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="184478880"/>
         <c:scaling>
@@ -6893,8 +7240,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6911,35 +7259,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6966,16 +7299,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$66:$L$66</c:f>
+              <c:f>Data!$D$66:$N$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-1.8181818181818181</c:v>
                 </c:pt>
@@ -7002,11 +7341,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-32.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-32.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.636363636363633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7028,35 +7372,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -7083,16 +7412,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$67:$L$67</c:f>
+              <c:f>Data!$D$67:$N$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7118,12 +7453,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7145,35 +7485,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -7200,16 +7525,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$68:$L$68</c:f>
+              <c:f>Data!$D$68:$N$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-16.25</c:v>
                 </c:pt>
@@ -7236,11 +7567,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7262,33 +7598,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -7315,16 +7638,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$69:$L$69</c:f>
+              <c:f>Data!$D$69:$N$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7350,12 +7679,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7377,33 +7711,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -7430,16 +7751,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$70:$L$70</c:f>
+              <c:f>Data!$D$70:$N$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7465,12 +7792,17 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7492,35 +7824,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -7547,16 +7864,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$71:$L$71</c:f>
+              <c:f>Data!$D$71:$N$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7582,12 +7905,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7609,37 +7937,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$L$54</c:f>
+              <c:f>Data!$D$54:$N$54</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -7666,16 +7979,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$72:$L$72</c:f>
+              <c:f>Data!$D$72:$N$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7701,12 +8020,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-EE73-428B-9358-81C8B6D4B534}"/>
@@ -7721,11 +8045,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1284562224"/>
         <c:axId val="1284572304"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1284562224"/>
         <c:scaling>
@@ -11335,15 +11658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1892997</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>164400</xdr:rowOff>
+      <xdr:colOff>1797747</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>145350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2533318</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>34679</xdr:rowOff>
+      <xdr:colOff>2438068</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>15629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11407,15 +11730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1863180</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>170545</xdr:rowOff>
+      <xdr:colOff>1901280</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>132445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2524125</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>36303</xdr:rowOff>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>188703</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11835,10 +12158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M77"/>
+  <dimension ref="B2:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11850,12 +12173,12 @@
     <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="14" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -11891,24 +12214,27 @@
       <c r="M2" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -11956,8 +12282,12 @@
         <f>1000*0.000556948827579618</f>
         <v>0.55694882757961806</v>
       </c>
+      <c r="N4" s="9">
+        <f>1000*0.000572139630094171</f>
+        <v>0.57213963009417101</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -12005,8 +12335,12 @@
         <f>1000*0.00317416270263493</f>
         <v>3.1741627026349302</v>
       </c>
+      <c r="N5" s="10">
+        <f>1000*0.00380484666675329</f>
+        <v>3.8048466667532899</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -12054,8 +12388,12 @@
         <f>1000*0.000278797728242353</f>
         <v>0.27879772824235299</v>
       </c>
+      <c r="N6" s="10">
+        <f>1000*0.000247060845140368</f>
+        <v>0.24706084514036802</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -12103,8 +12441,12 @@
         <f>1000*0.00957265589386225</f>
         <v>9.5726558938622492</v>
       </c>
+      <c r="N7" s="10">
+        <f>1000*0.00917526986449957</f>
+        <v>9.1752698644995707</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -12152,8 +12494,12 @@
         <f>1000*0.00381642347201705</f>
         <v>3.8164234720170498</v>
       </c>
+      <c r="N8" s="10">
+        <f>1000*0.00314232730306685</f>
+        <v>3.1423273030668502</v>
+      </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -12201,8 +12547,12 @@
         <f>1000*0.000888140755705535</f>
         <v>0.88814075570553497</v>
       </c>
+      <c r="N9" s="10">
+        <f>1000*0.00072020455263555</f>
+        <v>0.72020455263554994</v>
+      </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -12250,8 +12600,12 @@
         <f>1000*4.53235816166853E-06</f>
         <v>4.5323581616685303E-3</v>
       </c>
+      <c r="N10" s="10">
+        <f>1000*2.47698403654795E-06</f>
+        <v>2.4769840365479502E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -12299,8 +12653,12 @@
         <f>1000*0.00085364980623126</f>
         <v>0.85364980623125997</v>
       </c>
+      <c r="N11" s="10">
+        <f>1000*0.000686214421875775</f>
+        <v>0.68621442187577497</v>
+      </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -12348,24 +12706,28 @@
         <f>SUM(M4:M11)</f>
         <v>19.145311544434662</v>
       </c>
+      <c r="N12" s="11">
+        <f>SUM(N4:N11)</f>
+        <v>18.350540268102122</v>
+      </c>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -12402,8 +12764,11 @@
       <c r="M14" s="9">
         <v>186</v>
       </c>
+      <c r="N14" s="9">
+        <v>188</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -12440,8 +12805,11 @@
       <c r="M15" s="10">
         <v>32</v>
       </c>
+      <c r="N15" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -12478,8 +12846,11 @@
       <c r="M16" s="10">
         <v>258</v>
       </c>
+      <c r="N16" s="10">
+        <v>376</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -12516,8 +12887,11 @@
       <c r="M17" s="10">
         <v>0</v>
       </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -12554,8 +12928,11 @@
       <c r="M18" s="10">
         <v>4</v>
       </c>
+      <c r="N18" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -12592,8 +12969,11 @@
       <c r="M19" s="10">
         <v>71</v>
       </c>
+      <c r="N19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -12630,24 +13010,27 @@
       <c r="M20" s="11">
         <v>1</v>
       </c>
+      <c r="N20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -12684,8 +13067,11 @@
       <c r="M22" s="9">
         <v>44</v>
       </c>
+      <c r="N22" s="9">
+        <v>53</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
@@ -12722,8 +13108,11 @@
       <c r="M23" s="10">
         <v>5</v>
       </c>
+      <c r="N23" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
@@ -12760,8 +13149,11 @@
       <c r="M24" s="10">
         <v>0.374</v>
       </c>
+      <c r="N24" s="10">
+        <v>0.45400000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -12809,10 +13201,14 @@
         <f>1000*1/(M23-M24)</f>
         <v>216.16947686986595</v>
       </c>
+      <c r="N25" s="11">
+        <f>1000*1/(N23-N24)</f>
+        <v>282.0078962210942</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
+    <row r="27" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -12845,23 +13241,26 @@
       <c r="M28" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="N28" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="22"/>
-      <c r="D29" s="20" t="s">
+    <row r="29" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="25"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
@@ -12901,12 +13300,16 @@
         <f>L4-C4</f>
         <v>0.19714332302101006</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="17">
         <f>M4-C4</f>
         <v>0.10272135841660307</v>
       </c>
+      <c r="N30" s="9">
+        <f>N4-C4</f>
+        <v>0.11791216093115603</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
@@ -12943,15 +13346,19 @@
         <v>-0.42172183748334691</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" ref="L31:M38" si="10">L5-C5</f>
+        <f t="shared" ref="L31:L38" si="10">L5-C5</f>
         <v>-0.3303182893432679</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" ref="M31:M38" si="11">M5-C5</f>
+      <c r="M31" s="16">
+        <f t="shared" ref="M31:N38" si="11">M5-C5</f>
         <v>1.9586777780205002</v>
       </c>
+      <c r="N31" s="10">
+        <f t="shared" ref="N31:N38" si="12">N5-C5</f>
+        <v>2.5893617421388599</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
@@ -12991,12 +13398,16 @@
         <f t="shared" si="10"/>
         <v>1.2139487662352662</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="16">
         <f t="shared" si="11"/>
         <v>-5.6214077631010995E-2</v>
       </c>
+      <c r="N32" s="10">
+        <f t="shared" si="12"/>
+        <v>-8.7950960732995964E-2</v>
+      </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -13036,12 +13447,16 @@
         <f t="shared" si="10"/>
         <v>0.1449971459806001</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="16">
         <f t="shared" si="11"/>
         <v>2.0718905143439796</v>
       </c>
+      <c r="N33" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6745044849813011</v>
+      </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
@@ -13081,12 +13496,16 @@
         <f t="shared" si="10"/>
         <v>-0.46105869114399001</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="16">
         <f t="shared" si="11"/>
         <v>0.25248690508305982</v>
       </c>
+      <c r="N34" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.42160926386713982</v>
+      </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
@@ -13126,12 +13545,16 @@
         <f t="shared" si="10"/>
         <v>-0.16344146570190798</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="16">
         <f t="shared" si="11"/>
         <v>-3.3339776564390022E-2</v>
       </c>
+      <c r="N35" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.20127597963437505</v>
+      </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
@@ -13171,12 +13594,16 @@
         <f t="shared" si="10"/>
         <v>2.4094258606055601E-3</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="16">
         <f t="shared" si="11"/>
         <v>9.6726193987707034E-4</v>
       </c>
+      <c r="N36" s="10">
+        <f t="shared" si="12"/>
+        <v>-1.0881121852435098E-3</v>
+      </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
         <v>19</v>
       </c>
@@ -13216,12 +13643,16 @@
         <f t="shared" si="10"/>
         <v>-0.31368678901344704</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="16">
         <f t="shared" si="11"/>
         <v>-0.15340978279710005</v>
       </c>
+      <c r="N37" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.32084516715258504</v>
+      </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -13261,40 +13692,44 @@
         <f t="shared" si="10"/>
         <v>0.28999342589486865</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="6">
         <f t="shared" si="11"/>
         <v>4.1437801808115164</v>
       </c>
+      <c r="N38" s="11">
+        <f t="shared" si="12"/>
+        <v>3.3490089044789766</v>
+      </c>
     </row>
-    <row r="39" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="26"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="12">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="13">D14-C14</f>
         <v>-5</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" ref="E40:E46" si="13">E14-C14</f>
+        <f t="shared" ref="E40:E46" si="14">E14-C14</f>
         <v>-117</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" ref="F40:F46" si="14">F14-C14</f>
+        <f t="shared" ref="F40:F46" si="15">F14-C14</f>
         <v>-58</v>
       </c>
       <c r="G40" s="17">
@@ -13321,297 +13756,325 @@
         <f>L14-C14</f>
         <v>-89</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="17">
         <f>M14-C14</f>
         <v>-89</v>
       </c>
+      <c r="N40" s="9">
+        <f>N14-C14</f>
+        <v>-87</v>
+      </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="E41" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-32</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" ref="G41:G46" si="15">G15-C15</f>
+        <f t="shared" ref="G41:G46" si="16">G15-C15</f>
         <v>-32</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" ref="H41:H46" si="16">H15-C15</f>
+        <f t="shared" ref="H41:H46" si="17">H15-C15</f>
         <v>0</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ref="I41:I46" si="17">I15-C15</f>
+        <f t="shared" ref="I41:I46" si="18">I15-C15</f>
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" ref="J41:J46" si="18">J15-C15</f>
+        <f t="shared" ref="J41:J46" si="19">J15-C15</f>
         <v>0</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" ref="K41:K46" si="19">K15-C15</f>
+        <f t="shared" ref="K41:K46" si="20">K15-C15</f>
         <v>0</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" ref="L41:M46" si="20">L15-C15</f>
+        <f t="shared" ref="L41:L46" si="21">L15-C15</f>
         <v>0</v>
       </c>
-      <c r="M41" s="10">
-        <f t="shared" ref="M41:M46" si="21">M15-C15</f>
+      <c r="M41" s="16">
+        <f t="shared" ref="M41:N46" si="22">M15-C15</f>
         <v>0</v>
       </c>
+      <c r="N41" s="10">
+        <f t="shared" ref="N41:N46" si="23">N15-C15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-26</v>
       </c>
       <c r="E42" s="16">
+        <f t="shared" si="14"/>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="15"/>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="16"/>
+        <v>194</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="22"/>
+        <v>98</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="23"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="13"/>
-        <v>-54</v>
-      </c>
-      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="14"/>
-        <v>-38</v>
-      </c>
-      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="15"/>
-        <v>194</v>
-      </c>
-      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="17"/>
-        <v>66</v>
-      </c>
-      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="18"/>
-        <v>66</v>
-      </c>
-      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="19"/>
-        <v>62</v>
-      </c>
-      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
         <f t="shared" si="20"/>
-        <v>81</v>
-      </c>
-      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="21"/>
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="E46" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I43" s="16">
+      <c r="H46" s="6">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J43" s="16">
+      <c r="I46" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K43" s="16">
+      <c r="J46" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L43" s="16">
+      <c r="K46" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M43" s="10">
+      <c r="L46" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="M46" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="M44" s="10">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
+    <row r="47" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="18"/>
+      <c r="D47" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="18"/>
-      <c r="D47" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="26"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>34</v>
       </c>
@@ -13651,12 +14114,16 @@
         <f>L22-C22</f>
         <v>9</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="17">
         <f>M22-C22</f>
         <v>0</v>
       </c>
+      <c r="N48" s="9">
+        <f>N22-C22</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
@@ -13693,15 +14160,19 @@
         <v>-3</v>
       </c>
       <c r="L49" s="16">
-        <f t="shared" ref="L49:M51" si="22">L23-C23</f>
+        <f t="shared" ref="L49:L51" si="24">L23-C23</f>
         <v>-4</v>
       </c>
-      <c r="M49" s="10">
-        <f t="shared" ref="M49:M51" si="23">M23-C23</f>
+      <c r="M49" s="16">
+        <f t="shared" ref="M49:N51" si="25">M23-C23</f>
         <v>-5</v>
       </c>
+      <c r="N49" s="10">
+        <f t="shared" ref="N49:N51" si="26">N23-C23</f>
+        <v>-6</v>
+      </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
         <v>4</v>
       </c>
@@ -13738,15 +14209,19 @@
         <v>-2.3239999999999998</v>
       </c>
       <c r="L50" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.081</v>
       </c>
-      <c r="M50" s="10">
-        <f t="shared" si="23"/>
+      <c r="M50" s="16">
+        <f t="shared" si="25"/>
         <v>-3.28</v>
       </c>
+      <c r="N50" s="10">
+        <f t="shared" si="26"/>
+        <v>-3.1999999999999997</v>
+      </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
@@ -13783,16 +14258,20 @@
         <v>18.7872653467779</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>68.307027237596202</v>
       </c>
-      <c r="M51" s="11">
-        <f t="shared" si="23"/>
+      <c r="M51" s="6">
+        <f t="shared" si="25"/>
         <v>58.58989918313415</v>
       </c>
+      <c r="N51" s="11">
+        <f t="shared" si="26"/>
+        <v>124.4283185343624</v>
+      </c>
     </row>
-    <row r="54" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="21" t="s">
+    <row r="54" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -13825,23 +14304,26 @@
       <c r="M54" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="N54" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="55" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="22"/>
-      <c r="D55" s="20" t="s">
+    <row r="55" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>36</v>
       </c>
@@ -13850,418 +14332,454 @@
         <v>-18.435649023904833</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:L56" si="24">((E4-$C4)/$C4)*100</f>
+        <f t="shared" ref="E56:L56" si="27">((E4-$C4)/$C4)*100</f>
         <v>-35.582227541156172</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-69.829975862965838</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-35.287029261036132</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.17798908281521064</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-18.348112148948175</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-4.7910388689480357</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>63.173117529499592</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>43.401893633662759</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" ref="M56" si="25">((M4-$C4)/$C4)*100</f>
+        <f t="shared" ref="M56:N56" si="28">((M4-$C4)/$C4)*100</f>
         <v>22.614519242062396</v>
       </c>
+      <c r="N56" s="9">
+        <f t="shared" si="28"/>
+        <v>25.958835371279417</v>
+      </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C57" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="10">
-        <f t="shared" ref="D57:D64" si="26">((D5-$C5)/$C5)*100</f>
+        <f t="shared" ref="D57:D64" si="29">((D5-$C5)/$C5)*100</f>
         <v>44.533976647304748</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" ref="E57:L57" si="27">((E5-$C5)/$C5)*100</f>
+        <f t="shared" ref="E57:L57" si="30">((E5-$C5)/$C5)*100</f>
         <v>-9.5885464674817307</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-84.807098472780623</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-67.989122335392153</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.8255068319380879E-2</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>31.713880824477464</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>47.292733141933198</v>
       </c>
       <c r="K57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-34.695768655224043</v>
       </c>
       <c r="L57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-27.175844196344091</v>
       </c>
       <c r="M57" s="10">
-        <f t="shared" ref="M57" si="28">((M5-$C5)/$C5)*100</f>
+        <f t="shared" ref="M57:N57" si="31">((M5-$C5)/$C5)*100</f>
         <v>161.14373270748891</v>
       </c>
+      <c r="N57" s="10">
+        <f t="shared" si="31"/>
+        <v>213.03116885306039</v>
+      </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C58" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>23.779754142979883</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" ref="E58:L58" si="29">((E6-$C6)/$C6)*100</f>
+        <f t="shared" ref="E58:L58" si="32">((E6-$C6)/$C6)*100</f>
         <v>-4.1243105024289388</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>232.65371189335323</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>114.87014328483636</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.5547223948603879</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-9.318023115098212</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8.5413170348358936</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>384.59144613835406</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>362.35999596209587</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" ref="M58" si="30">((M6-$C6)/$C6)*100</f>
+        <f t="shared" ref="M58:N58" si="33">((M6-$C6)/$C6)*100</f>
         <v>-16.779730339491429</v>
       </c>
+      <c r="N58" s="10">
+        <f t="shared" si="33"/>
+        <v>-26.253092933161238</v>
+      </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C59" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>47.144033771028802</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" ref="E59:L59" si="31">((E7-$C7)/$C7)*100</f>
+        <f t="shared" ref="E59:L59" si="34">((E7-$C7)/$C7)*100</f>
         <v>-23.966723887494993</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>53.886518500914882</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>128.00170178729215</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.2113327784458463</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-3.9046308766122064</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13.186784192549087</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>16.669612449792055</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.933098005925262</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" ref="M59" si="32">((M7-$C7)/$C7)*100</f>
+        <f t="shared" ref="M59:N59" si="35">((M7-$C7)/$C7)*100</f>
         <v>27.622387976585998</v>
       </c>
+      <c r="N59" s="10">
+        <f t="shared" si="35"/>
+        <v>22.324448243025095</v>
+      </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C60" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>75.96781758086874</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" ref="E60:L60" si="33">((E8-$C8)/$C8)*100</f>
+        <f t="shared" ref="E60:L60" si="36">((E8-$C8)/$C8)*100</f>
         <v>-31.026058615961897</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>93.700773718361802</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>199.02318489636534</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-0.14294122208613866</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-9.9595015114334409</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6.441768993004418</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5.2948420757547465</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-12.936781631347413</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" ref="M60" si="34">((M8-$C8)/$C8)*100</f>
+        <f t="shared" ref="M60:N60" si="37">((M8-$C8)/$C8)*100</f>
         <v>7.0844949213075115</v>
       </c>
+      <c r="N60" s="10">
+        <f t="shared" si="37"/>
+        <v>-11.829875643096672</v>
+      </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C61" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-9.0317142123497565</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" ref="E61:L61" si="35">((E9-$C9)/$C9)*100</f>
+        <f t="shared" ref="E61:L61" si="38">((E9-$C9)/$C9)*100</f>
         <v>-35.941321142839868</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-51.773191884360415</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27.687502585921099</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.43275451861124714</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-5.7176290820840343</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>11.572742320958476</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>13.31010241669518</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-17.736833278430218</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" ref="M61" si="36">((M9-$C9)/$C9)*100</f>
+        <f t="shared" ref="M61:N61" si="39">((M9-$C9)/$C9)*100</f>
         <v>-3.6180662962311998</v>
       </c>
+      <c r="N61" s="10">
+        <f t="shared" si="39"/>
+        <v>-21.842673023006004</v>
+      </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6.1062119553996101</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" ref="E62:L62" si="37">((E10-$C10)/$C10)*100</f>
+        <f t="shared" ref="E62:L62" si="40">((E10-$C10)/$C10)*100</f>
         <v>16.699472858087848</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>133.57469157577469</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>213.86600774937611</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1.8867997932835279</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-2.8699969800628463E-4</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-5.0093118646503276</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>91.95956952341308</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>67.583754005798596</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" ref="M62" si="38">((M10-$C10)/$C10)*100</f>
+        <f t="shared" ref="M62:N62" si="41">((M10-$C10)/$C10)*100</f>
         <v>27.13143993042133</v>
       </c>
+      <c r="N62" s="10">
+        <f t="shared" si="41"/>
+        <v>-30.521257142864261</v>
+      </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C63" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>37.230272296319036</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" ref="E63:L63" si="39">((E11-$C11)/$C11)*100</f>
+        <f t="shared" ref="E63:L63" si="42">((E11-$C11)/$C11)*100</f>
         <v>-6.8867784064323034</v>
       </c>
       <c r="F63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-36.10269420209714</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22.192452849382104</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.73837857733366508</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-15.506470320589177</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>7.087770802776193</v>
       </c>
       <c r="K63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-21.641136960128545</v>
       </c>
       <c r="L63" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-31.148781306585942</v>
       </c>
       <c r="M63" s="10">
-        <f t="shared" ref="M63" si="40">((M11-$C11)/$C11)*100</f>
+        <f t="shared" ref="M63:N63" si="43">((M11-$C11)/$C11)*100</f>
         <v>-15.23343647868089</v>
       </c>
+      <c r="N63" s="10">
+        <f t="shared" si="43"/>
+        <v>-31.859601025411582</v>
+      </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>47.144020453505753</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" ref="E64:L64" si="41">((E12-$C12)/$C12)*100</f>
+        <f t="shared" ref="E64:L64" si="44">((E12-$C12)/$C12)*100</f>
         <v>-23.966727742941849</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>39.841645682828201</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>110.51248917817915</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.21132922932416195</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-3.9046344735631631</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>13.186777803036081</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>16.669612861682875</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.9330921548320512</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" ref="M64" si="42">((M12-$C12)/$C12)*100</f>
+        <f t="shared" ref="M64:N64" si="45">((M12-$C12)/$C12)*100</f>
         <v>27.622381211425317</v>
       </c>
+      <c r="N64" s="11">
+        <f t="shared" si="45"/>
+        <v>22.324446906799849</v>
+      </c>
     </row>
-    <row r="65" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>6</v>
       </c>
@@ -14270,31 +14788,31 @@
         <v>-1.8181818181818181</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" ref="E66:K66" si="43">((E14-$C14)/$C14)*100</f>
+        <f t="shared" ref="E66:K66" si="46">((E14-$C14)/$C14)*100</f>
         <v>-42.545454545454547</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-21.09090909090909</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>64.363636363636374</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-32.36363636363636</v>
       </c>
       <c r="L66" s="9">
@@ -14305,98 +14823,110 @@
         <f>((M14-$C14)/$C14)*100</f>
         <v>-32.36363636363636</v>
       </c>
+      <c r="N66" s="9">
+        <f>((N14-$C14)/$C14)*100</f>
+        <v>-31.636363636363633</v>
+      </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="10">
-        <f t="shared" ref="D67:K72" si="44">((D15-$C15)/$C15)*100</f>
+        <f t="shared" ref="D67:K72" si="47">((D15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-100</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-100</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K67" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67:M67" si="45">((L15-$C15)/$C15)*100</f>
+        <f t="shared" ref="L67:M67" si="48">((L15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
+      <c r="N67" s="10">
+        <f t="shared" ref="N67" si="49">((N15-$C15)/$C15)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C68" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-16.25</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-33.75</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-23.75</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>121.24999999999999</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>41.25</v>
       </c>
       <c r="J68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>41.25</v>
       </c>
       <c r="K68" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>38.75</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" ref="L68:M68" si="46">((L16-$C16)/$C16)*100</f>
+        <f t="shared" ref="L68:M68" si="50">((L16-$C16)/$C16)*100</f>
         <v>50.625</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>61.250000000000007</v>
       </c>
+      <c r="N68" s="10">
+        <f t="shared" ref="N68" si="51">((N16-$C16)/$C16)*100</f>
+        <v>135</v>
+      </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69" s="16" t="s">
         <v>29</v>
       </c>
@@ -14428,160 +14958,175 @@
         <v>0</v>
       </c>
       <c r="M69" s="10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N69" s="10">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C70" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-      <c r="H70" s="10">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="10">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="10">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="10">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-      <c r="L70" s="10">
-        <f t="shared" ref="L70:M70" si="47">((L18-$C18)/$C18)*100</f>
-        <v>100</v>
-      </c>
-      <c r="M70" s="10">
         <f t="shared" si="47"/>
         <v>100</v>
       </c>
+      <c r="G70" s="10">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="10">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
+      <c r="L70" s="10">
+        <f t="shared" ref="L70:M70" si="52">((L18-$C18)/$C18)*100</f>
+        <v>100</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="52"/>
+        <v>100</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" ref="N70" si="53">((N18-$C18)/$C18)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K71" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" ref="L71:M71" si="48">((L19-$C19)/$C19)*100</f>
+        <f t="shared" ref="L71:M71" si="54">((L19-$C19)/$C19)*100</f>
         <v>0</v>
       </c>
       <c r="M71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
+      <c r="N71" s="10">
+        <f t="shared" ref="N71" si="55">((N19-$C19)/$C19)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" ref="L72:M72" si="49">((L20-$C20)/$C20)*100</f>
+        <f t="shared" ref="L72:M72" si="56">((L20-$C20)/$C20)*100</f>
         <v>0</v>
       </c>
       <c r="M72" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
+      <c r="N72" s="11">
+        <f t="shared" ref="N72" si="57">((N20-$C20)/$C20)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="18"/>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>34</v>
       </c>
@@ -14590,191 +15135,207 @@
         <v>-2.2727272727272729</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" ref="E74:L74" si="50">((E22-$C22)/$C22)*100</f>
+        <f t="shared" ref="E74:L74" si="58">((E22-$C22)/$C22)*100</f>
         <v>52.272727272727273</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-20.454545454545457</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-43.18181818181818</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>13.636363636363635</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>6.8181818181818175</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>20.454545454545457</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" ref="M74" si="51">((M22-$C22)/$C22)*100</f>
+        <f t="shared" ref="M74:N74" si="59">((M22-$C22)/$C22)*100</f>
         <v>0</v>
       </c>
+      <c r="N74" s="9">
+        <f t="shared" si="59"/>
+        <v>20.454545454545457</v>
+      </c>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" ref="D75:L77" si="52">((D23-$C23)/$C23)*100</f>
+        <f t="shared" ref="D75:L77" si="60">((D23-$C23)/$C23)*100</f>
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-10</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-20</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-30</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-40</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" ref="M75" si="53">((M23-$C23)/$C23)*100</f>
+        <f t="shared" ref="M75:N75" si="61">((M23-$C23)/$C23)*100</f>
         <v>-50</v>
       </c>
+      <c r="N75" s="10">
+        <f t="shared" si="61"/>
+        <v>-60</v>
+      </c>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C76" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-15.873015873015875</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-5.1997810618500262</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>15.024630541871931</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-32.348111658456489</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-16.256157635467979</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-37.684729064039402</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-63.601532567049802</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-56.951286261631083</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" ref="M76" si="54">((M24-$C24)/$C24)*100</f>
+        <f t="shared" ref="M76:N76" si="62">((M24-$C24)/$C24)*100</f>
         <v>-89.764641488779418</v>
       </c>
+      <c r="N76" s="10">
+        <f t="shared" si="62"/>
+        <v>-87.575259989053095</v>
+      </c>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-8.3742419867167204</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-2.9069767441860419</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>9.4704157322753151</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-15.701381509032938</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>6.8350168350168437</v>
       </c>
       <c r="J77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>10.885899004018881</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>11.922398589065256</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>43.347639484978551</v>
       </c>
       <c r="M77" s="11">
-        <f t="shared" ref="M77" si="55">((M25-$C25)/$C25)*100</f>
+        <f t="shared" ref="M77:N77" si="63">((M25-$C25)/$C25)*100</f>
         <v>37.181150021616929</v>
+      </c>
+      <c r="N77" s="11">
+        <f t="shared" si="63"/>
+        <v>78.962210941906392</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D39:M39"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C13:M13"/>
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D73:M73"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22AC986-9B2A-4714-9E7C-901AC6359794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23946A-463F-426B-B90D-0FE414B29A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -21,27 +21,6 @@
     <sheet name="Utilization Analysis (Abs.E.)" sheetId="7" r:id="rId6"/>
     <sheet name="Utilization Analysis (Per.V.)" sheetId="8" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Data!$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Data!$B$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Data!$C$11:$N$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Data!$C$12:$N$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Data!$C$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Data!$C$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Data!$C$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Data!$C$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Data!$C$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Data!$C$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Data!$C$9:$N$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$B$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data!$B$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$B$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Data!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Data!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Data!$B$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Data!$B$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Data!$C$10:$N$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -139,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -283,6 +262,9 @@
   </si>
   <si>
     <t>Operation Chaining Solution CLK=4ns</t>
+  </si>
+  <si>
+    <t>Loop Pipelining Solution</t>
   </si>
 </sst>
 </file>
@@ -503,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,19 +544,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,9 +698,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -748,16 +736,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$4:$N$4</c:f>
+              <c:f>Data!$C$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -793,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.57213963009417101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.350732821971178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,9 +839,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -883,16 +877,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$5:$N$5</c:f>
+              <c:f>Data!$C$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -928,6 +925,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.8048466667532899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64228387782350205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,9 +980,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1018,16 +1018,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$6:$N$6</c:f>
+              <c:f>Data!$C$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -1063,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.24706084514036802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.18907087016851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,9 +1119,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1151,16 +1157,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$7:$N$7</c:f>
+              <c:f>Data!$C$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -1196,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.1752698644995707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.2246076613665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,9 +1258,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1284,16 +1296,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$8:$N$8</c:f>
+              <c:f>Data!$C$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -1329,6 +1344,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.1423273030668502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7278133034706098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,9 +1399,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1419,16 +1437,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$9:$N$9</c:f>
+              <c:f>Data!$C$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1464,6 +1485,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.72020455263554994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.38780823908746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,9 +1542,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1556,16 +1580,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$10:$N$10</c:f>
+              <c:f>Data!$C$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1601,6 +1628,9 @@
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>2.4769840365479502E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.8733164324657998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,9 +1689,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1697,16 +1727,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$11:$N$11</c:f>
+              <c:f>Data!$C$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1742,6 +1775,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.68621442187577497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9081661012023701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,9 +1836,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -1838,16 +1874,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$12:$N$12</c:f>
+              <c:f>Data!$C$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -1883,6 +1922,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>18.350540268102122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.449216039414782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,9 +2316,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2312,16 +2354,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$14:$N$14</c:f>
+              <c:f>Data!$C$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -2357,6 +2402,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,9 +2457,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2447,16 +2495,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$15:$N$15</c:f>
+              <c:f>Data!$C$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2492,6 +2543,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,9 +2598,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2582,16 +2636,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$16:$N$16</c:f>
+              <c:f>Data!$C$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -2627,6 +2684,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,9 +2737,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2715,16 +2775,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$17:$N$17</c:f>
+              <c:f>Data!$C$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2759,6 +2822,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2810,9 +2876,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2848,16 +2914,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$18:$N$18</c:f>
+              <c:f>Data!$C$18:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2893,6 +2962,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,9 +3017,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -2983,16 +3055,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$19:$N$19</c:f>
+              <c:f>Data!$C$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -3027,6 +3102,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3082,9 +3160,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -3120,16 +3198,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$20:$N$20</c:f>
+              <c:f>Data!$C$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3164,6 +3245,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3580,9 +3664,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3615,16 +3699,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$40:$N$40</c:f>
+              <c:f>Data!$D$40:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -3657,6 +3744,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,9 +3783,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3728,16 +3818,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$41:$N$41</c:f>
+              <c:f>Data!$D$41:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3770,6 +3863,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,9 +3902,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3841,16 +3937,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$42:$N$42</c:f>
+              <c:f>Data!$D$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -3883,6 +3982,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3919,9 +4021,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -3954,16 +4056,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$43:$N$43</c:f>
+              <c:f>Data!$D$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3995,6 +4100,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4032,9 +4140,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4067,16 +4175,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$44:$N$44</c:f>
+              <c:f>Data!$D$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4109,6 +4220,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,9 +4259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4180,16 +4294,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$45:$N$45</c:f>
+              <c:f>Data!$D$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4221,6 +4338,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4260,9 +4380,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4295,16 +4415,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$46:$N$46</c:f>
+              <c:f>Data!$D$46:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4336,6 +4459,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4658,9 +4784,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4693,16 +4819,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$66:$N$66</c:f>
+              <c:f>Data!$D$66:$O$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-1.8181818181818181</c:v>
                 </c:pt>
@@ -4735,6 +4864,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-31.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.090909090909092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4771,9 +4903,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4806,16 +4938,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$67:$N$67</c:f>
+              <c:f>Data!$D$67:$O$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4848,6 +4983,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4884,9 +5022,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -4919,16 +5057,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$68:$N$68</c:f>
+              <c:f>Data!$D$68:$O$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-16.25</c:v>
                 </c:pt>
@@ -4961,6 +5102,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>186.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4997,9 +5141,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5032,16 +5176,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$69:$N$69</c:f>
+              <c:f>Data!$D$69:$O$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5074,6 +5221,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,9 +5260,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5145,16 +5295,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$70:$N$70</c:f>
+              <c:f>Data!$D$70:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5187,6 +5340,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5223,9 +5379,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5258,16 +5414,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$71:$N$71</c:f>
+              <c:f>Data!$D$71:$O$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5299,6 +5458,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5338,9 +5500,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5373,16 +5535,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$72:$N$72</c:f>
+              <c:f>Data!$D$72:$O$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5414,6 +5579,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5735,9 +5903,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5770,16 +5938,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$30:$N$30</c:f>
+              <c:f>Data!$D$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -5812,6 +5983,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.11791216093115603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10349464719183699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,9 +6022,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5883,16 +6057,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$31:$N$31</c:f>
+              <c:f>Data!$D$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -5925,6 +6102,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.5893617421388599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57320104679092787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5961,9 +6141,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -5996,16 +6176,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$32:$N$32</c:f>
+              <c:f>Data!$D$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -6038,6 +6221,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-8.7950960732995964E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.854059064295146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6074,9 +6260,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6109,16 +6295,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$33:$N$33</c:f>
+              <c:f>Data!$D$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -6151,6 +6340,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.6745044849813011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7238422818482304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6187,9 +6379,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6222,16 +6414,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$34:$N$34</c:f>
+              <c:f>Data!$D$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -6264,6 +6459,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.42160926386713982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1638767365366203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6300,9 +6498,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6335,16 +6533,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$35:$N$35</c:f>
+              <c:f>Data!$D$35:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -6377,6 +6578,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.20127597963437505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46632770681753499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,9 +6619,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6450,16 +6654,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$36:$N$36</c:f>
+              <c:f>Data!$D$36:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -6492,6 +6699,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.0881121852435098E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5168068102866538E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6530,9 +6740,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6565,16 +6775,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$37:$N$37</c:f>
+              <c:f>Data!$D$37:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -6607,6 +6820,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.32084516715258504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90110651217401005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6645,9 +6861,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -6680,16 +6896,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$38:$N$38</c:f>
+              <c:f>Data!$D$38:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -6722,6 +6941,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.3490089044789766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.447684675791637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7057,9 +7279,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7095,16 +7317,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$14:$N$14</c:f>
+              <c:f>Data!$C$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -7140,6 +7365,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7192,9 +7420,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7230,16 +7458,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$15:$N$15</c:f>
+              <c:f>Data!$C$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -7275,6 +7506,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7327,9 +7561,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7365,16 +7599,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$16:$N$16</c:f>
+              <c:f>Data!$C$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -7410,6 +7647,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7460,9 +7700,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7498,16 +7738,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$17:$N$17</c:f>
+              <c:f>Data!$C$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7542,6 +7785,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7593,9 +7839,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7631,16 +7877,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$18:$N$18</c:f>
+              <c:f>Data!$C$18:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7676,6 +7925,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7728,9 +7980,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7766,16 +8018,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$19:$N$19</c:f>
+              <c:f>Data!$C$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -7810,6 +8065,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -7865,9 +8123,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -7903,16 +8161,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$20:$N$20</c:f>
+              <c:f>Data!$C$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7947,6 +8208,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8325,9 +8589,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -8360,16 +8624,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$40:$N$40</c:f>
+              <c:f>Data!$D$40:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -8402,6 +8669,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8438,9 +8708,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -8473,16 +8743,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$41:$N$41</c:f>
+              <c:f>Data!$D$41:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8515,6 +8788,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8551,9 +8827,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -8586,16 +8862,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$42:$N$42</c:f>
+              <c:f>Data!$D$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-26</c:v>
                 </c:pt>
@@ -8628,6 +8907,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8664,9 +8946,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -8699,16 +8981,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$43:$N$43</c:f>
+              <c:f>Data!$D$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8740,6 +9025,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8777,9 +9065,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -8812,16 +9100,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$44:$N$44</c:f>
+              <c:f>Data!$D$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8854,6 +9145,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8890,9 +9184,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -8925,16 +9219,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$45:$N$45</c:f>
+              <c:f>Data!$D$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8966,6 +9263,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9005,9 +9305,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -9040,16 +9340,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$46:$N$46</c:f>
+              <c:f>Data!$D$46:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9081,6 +9384,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9403,9 +9709,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -9438,16 +9744,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$56:$N$56</c:f>
+              <c:f>Data!$D$56:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-18.435649023904833</c:v>
                 </c:pt>
@@ -9480,6 +9789,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25.958835371279417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22.784761868880814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9516,9 +9828,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -9551,16 +9863,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$57:$N$57</c:f>
+              <c:f>Data!$D$57:$O$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44.533976647304748</c:v>
                 </c:pt>
@@ -9593,6 +9908,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>213.03116885306039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-47.158219339722038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9629,9 +9947,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -9664,16 +9982,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$58:$N$58</c:f>
+              <c:f>Data!$D$58:$O$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>23.779754142979883</c:v>
                 </c:pt>
@@ -9706,6 +10027,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-26.253092933161238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>254.93402003211321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9742,9 +10066,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -9777,16 +10101,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$59:$N$59</c:f>
+              <c:f>Data!$D$59:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>47.144033771028802</c:v>
                 </c:pt>
@@ -9819,6 +10146,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.324448243025095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.97405519360862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9855,9 +10185,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -9890,16 +10220,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$60:$N$60</c:f>
+              <c:f>Data!$D$60:$O$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>75.96781758086874</c:v>
                 </c:pt>
@@ -9932,6 +10265,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-11.829875643096672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.95135928413356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9968,9 +10304,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -10003,16 +10339,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$61:$N$61</c:f>
+              <c:f>Data!$D$61:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-9.0317142123497565</c:v>
                 </c:pt>
@@ -10045,6 +10384,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-21.842673023006004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.606354717967697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10083,9 +10425,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -10118,16 +10460,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$62:$N$62</c:f>
+              <c:f>Data!$D$62:$O$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-6.1062119553996101</c:v>
                 </c:pt>
@@ -10160,6 +10505,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-30.521257142864261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>425.46027257700734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10198,9 +10546,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -10233,16 +10581,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$63:$N$63</c:f>
+              <c:f>Data!$D$63:$O$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>37.230272296319036</c:v>
                 </c:pt>
@@ -10275,6 +10626,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-31.859601025411582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.478966487318147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10313,9 +10667,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -10348,16 +10702,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$64:$N$64</c:f>
+              <c:f>Data!$D$64:$O$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>47.144020453505753</c:v>
                 </c:pt>
@@ -10390,6 +10747,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.324446906799849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.97405179080823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10765,9 +11125,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -10800,16 +11160,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$66:$N$66</c:f>
+              <c:f>Data!$D$66:$O$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-1.8181818181818181</c:v>
                 </c:pt>
@@ -10842,6 +11205,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-31.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.090909090909092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10878,9 +11244,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -10913,16 +11279,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$67:$N$67</c:f>
+              <c:f>Data!$D$67:$O$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10955,6 +11324,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10991,9 +11363,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -11026,16 +11398,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$68:$N$68</c:f>
+              <c:f>Data!$D$68:$O$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-16.25</c:v>
                 </c:pt>
@@ -11068,6 +11443,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>186.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11104,9 +11482,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -11139,16 +11517,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$69:$N$69</c:f>
+              <c:f>Data!$D$69:$O$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11181,6 +11562,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11217,9 +11601,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -11252,16 +11636,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$70:$N$70</c:f>
+              <c:f>Data!$D$70:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11294,6 +11681,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11330,9 +11720,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -11365,16 +11755,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$71:$N$71</c:f>
+              <c:f>Data!$D$71:$O$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11406,6 +11799,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11445,9 +11841,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -11480,16 +11876,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$72:$N$72</c:f>
+              <c:f>Data!$D$72:$O$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11521,6 +11920,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11856,9 +12258,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -11894,16 +12296,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$4:$N$4</c:f>
+              <c:f>Data!$C$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -11939,6 +12344,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.57213963009417101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.350732821971178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11991,9 +12399,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12029,16 +12437,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$5:$N$5</c:f>
+              <c:f>Data!$C$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -12074,6 +12485,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.8048466667532899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64228387782350205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12126,9 +12540,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12164,16 +12578,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$6:$N$6</c:f>
+              <c:f>Data!$C$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -12209,6 +12626,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.24706084514036802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.18907087016851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12259,9 +12679,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12297,16 +12717,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$7:$N$7</c:f>
+              <c:f>Data!$C$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7.5007653795182696</c:v>
                 </c:pt>
@@ -12342,6 +12765,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.1752698644995707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.2246076613665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12392,9 +12818,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12430,16 +12856,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$8:$N$8</c:f>
+              <c:f>Data!$C$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.56393656693399</c:v>
                 </c:pt>
@@ -12475,6 +12904,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.1423273030668502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7278133034706098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12527,9 +12959,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12565,16 +12997,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$9:$N$9</c:f>
+              <c:f>Data!$C$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -12610,6 +13045,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.72020455263554994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.38780823908746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12664,9 +13102,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12702,16 +13140,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$10:$N$10</c:f>
+              <c:f>Data!$C$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -12747,6 +13188,9 @@
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>2.4769840365479502E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.8733164324657998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12805,9 +13249,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12843,16 +13287,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$11:$N$11</c:f>
+              <c:f>Data!$C$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -12888,6 +13335,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.68621442187577497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9081661012023701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12946,9 +13396,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$C$2:$N$2</c:f>
+              <c:f>Data!$C$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized Solution</c:v>
                 </c:pt>
@@ -12984,16 +13434,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$12:$N$12</c:f>
+              <c:f>Data!$C$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>15.001531363623146</c:v>
                 </c:pt>
@@ -13029,6 +13482,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>18.350540268102122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.449216039414782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13444,9 +13900,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -13479,16 +13935,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$30:$N$30</c:f>
+              <c:f>Data!$D$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-8.3739781985058992E-2</c:v>
                 </c:pt>
@@ -13521,6 +13980,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.11791216093115603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10349464719183699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13557,9 +14019,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -13592,16 +14054,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$31:$N$31</c:f>
+              <c:f>Data!$D$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.54130377247929995</c:v>
                 </c:pt>
@@ -13634,6 +14099,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.5893617421388599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57320104679092787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13670,9 +14138,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -13705,16 +14173,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$32:$N$32</c:f>
+              <c:f>Data!$D$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7.9664983786642996E-2</c:v>
                 </c:pt>
@@ -13747,6 +14218,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-8.7950960732995964E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.854059064295146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13783,9 +14257,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -13818,16 +14292,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$33:$N$33</c:f>
+              <c:f>Data!$D$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.5361633636057297</c:v>
                 </c:pt>
@@ -13860,6 +14337,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.6745044849813011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7238422818482304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13896,9 +14376,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -13931,16 +14411,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$34:$N$34</c:f>
+              <c:f>Data!$D$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.7074448298662896</c:v>
                 </c:pt>
@@ -13973,6 +14456,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.42160926386713982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1638767365366203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14009,9 +14495,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -14044,16 +14530,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$35:$N$35</c:f>
+              <c:f>Data!$D$35:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-8.3225488197058994E-2</c:v>
                 </c:pt>
@@ -14086,6 +14575,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.20127597963437505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46632770681753499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14124,9 +14616,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -14159,16 +14651,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$36:$N$36</c:f>
+              <c:f>Data!$D$36:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-2.1769233171652991E-4</c:v>
                 </c:pt>
@@ -14201,6 +14696,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.0881121852435098E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5168068102866538E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14239,9 +14737,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -14274,16 +14772,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$37:$N$37</c:f>
+              <c:f>Data!$D$37:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.37493102718144988</c:v>
                 </c:pt>
@@ -14316,6 +14817,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.32084516715258504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90110651217401005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14354,9 +14858,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$28:$N$28</c:f>
+              <c:f>Data!$D$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -14389,16 +14893,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$38:$N$38</c:f>
+              <c:f>Data!$D$38:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7.0723250144055765</c:v>
                 </c:pt>
@@ -14431,6 +14938,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.3490089044789766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.447684675791637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14752,9 +15262,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -14787,16 +15297,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$56:$N$56</c:f>
+              <c:f>Data!$D$56:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-18.435649023904833</c:v>
                 </c:pt>
@@ -14829,6 +15342,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25.958835371279417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22.784761868880814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14865,9 +15381,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -14900,16 +15416,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$57:$N$57</c:f>
+              <c:f>Data!$D$57:$O$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44.533976647304748</c:v>
                 </c:pt>
@@ -14942,6 +15461,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>213.03116885306039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-47.158219339722038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14978,9 +15500,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15013,16 +15535,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$58:$N$58</c:f>
+              <c:f>Data!$D$58:$O$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>23.779754142979883</c:v>
                 </c:pt>
@@ -15055,6 +15580,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-26.253092933161238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>254.93402003211321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15091,9 +15619,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15126,16 +15654,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$59:$N$59</c:f>
+              <c:f>Data!$D$59:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>47.144033771028802</c:v>
                 </c:pt>
@@ -15168,6 +15699,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.324448243025095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.97405519360862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15204,9 +15738,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15239,16 +15773,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$60:$N$60</c:f>
+              <c:f>Data!$D$60:$O$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>75.96781758086874</c:v>
                 </c:pt>
@@ -15281,6 +15818,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-11.829875643096672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.95135928413356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15317,9 +15857,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15352,16 +15892,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$61:$N$61</c:f>
+              <c:f>Data!$D$61:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-9.0317142123497565</c:v>
                 </c:pt>
@@ -15394,6 +15937,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-21.842673023006004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.606354717967697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15432,9 +15978,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15467,16 +16013,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$62:$N$62</c:f>
+              <c:f>Data!$D$62:$O$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-6.1062119553996101</c:v>
                 </c:pt>
@@ -15509,6 +16058,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-30.521257142864261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>425.46027257700734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15547,9 +16099,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15582,16 +16134,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$63:$N$63</c:f>
+              <c:f>Data!$D$63:$O$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>37.230272296319036</c:v>
                 </c:pt>
@@ -15624,6 +16179,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-31.859601025411582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.478966487318147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15662,9 +16220,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$D$54:$N$54</c:f>
+              <c:f>Data!$D$54:$O$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Code Hoisting Solution</c:v>
                 </c:pt>
@@ -15697,16 +16255,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$64:$N$64</c:f>
+              <c:f>Data!$D$64:$O$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>47.144020453505753</c:v>
                 </c:pt>
@@ -15739,6 +16300,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.324446906799849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.97405179080823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23555,10 +24119,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N77"/>
+  <dimension ref="B2:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23571,10 +24135,11 @@
     <col min="6" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
@@ -23614,25 +24179,29 @@
       <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -23684,8 +24253,12 @@
         <f>1000*0.000572139630094171</f>
         <v>0.57213963009417101</v>
       </c>
+      <c r="O4" s="9">
+        <f>1000*0.000350732821971178</f>
+        <v>0.350732821971178</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -23737,8 +24310,12 @@
         <f>1000*0.00380484666675329</f>
         <v>3.8048466667532899</v>
       </c>
+      <c r="O5" s="10">
+        <f>1000*0.000642283877823502</f>
+        <v>0.64228387782350205</v>
+      </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -23790,8 +24367,12 @@
         <f>1000*0.000247060845140368</f>
         <v>0.24706084514036802</v>
       </c>
+      <c r="O6" s="10">
+        <f>1000*0.00118907087016851</f>
+        <v>1.18907087016851</v>
+      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -23843,8 +24424,12 @@
         <f>1000*0.00917526986449957</f>
         <v>9.1752698644995707</v>
       </c>
+      <c r="O7" s="10">
+        <f>1000*0.0152246076613665</f>
+        <v>15.2246076613665</v>
+      </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -23896,8 +24481,12 @@
         <f>1000*0.00314232730306685</f>
         <v>3.1423273030668502</v>
       </c>
+      <c r="O8" s="10">
+        <f>1000*0.00972781330347061</f>
+        <v>9.7278133034706098</v>
+      </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -23949,8 +24538,12 @@
         <f>1000*0.00072020455263555</f>
         <v>0.72020455263554994</v>
       </c>
+      <c r="O9" s="10">
+        <f>1000*0.00138780823908746</f>
+        <v>1.38780823908746</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -24002,8 +24595,12 @@
         <f>1000*2.47698403654795E-06</f>
         <v>2.4769840365479502E-3</v>
       </c>
+      <c r="O10" s="10">
+        <f>1000*0.000018733164324658</f>
+        <v>1.8733164324657998E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -24055,8 +24652,12 @@
         <f>1000*0.000686214421875775</f>
         <v>0.68621442187577497</v>
       </c>
+      <c r="O11" s="10">
+        <f>1000*0.00190816610120237</f>
+        <v>1.9081661012023701</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -24108,25 +24709,30 @@
         <f t="shared" si="1"/>
         <v>18.350540268102122</v>
       </c>
+      <c r="O12" s="11">
+        <f>SUM(O4:O11)</f>
+        <v>30.449216039414782</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -24166,8 +24772,11 @@
       <c r="N14" s="9">
         <v>188</v>
       </c>
+      <c r="O14" s="9">
+        <v>311</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -24207,8 +24816,11 @@
       <c r="N15" s="10">
         <v>32</v>
       </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -24248,8 +24860,11 @@
       <c r="N16" s="10">
         <v>376</v>
       </c>
+      <c r="O16" s="10">
+        <v>458</v>
+      </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -24289,8 +24904,11 @@
       <c r="N17" s="10">
         <v>0</v>
       </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -24330,8 +24948,11 @@
       <c r="N18" s="10">
         <v>4</v>
       </c>
+      <c r="O18" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -24371,8 +24992,11 @@
       <c r="N19" s="10">
         <v>71</v>
       </c>
+      <c r="O19" s="10">
+        <v>71</v>
+      </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -24412,25 +25036,29 @@
       <c r="N20" s="11">
         <v>1</v>
       </c>
+      <c r="O20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -24470,8 +25098,11 @@
       <c r="N22" s="9">
         <v>53</v>
       </c>
+      <c r="O22" s="9">
+        <v>16</v>
+      </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
@@ -24511,8 +25142,11 @@
       <c r="N23" s="10">
         <v>4</v>
       </c>
+      <c r="O23" s="10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
@@ -24552,8 +25186,11 @@
       <c r="N24" s="10">
         <v>0.45400000000000001</v>
       </c>
+      <c r="O24" s="10">
+        <v>4.2080000000000002</v>
+      </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -24605,10 +25242,14 @@
         <f>1000*1/(N23-N24)</f>
         <v>282.0078962210942</v>
       </c>
+      <c r="O25" s="11">
+        <f>1000*1/(O23-O24)</f>
+        <v>172.65193370165747</v>
+      </c>
     </row>
-    <row r="27" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -24644,24 +25285,28 @@
       <c r="N28" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="O28" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="29" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="22"/>
-      <c r="D29" s="20" t="s">
+    <row r="29" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
@@ -24705,12 +25350,16 @@
         <f>M4-C4</f>
         <v>0.10272135841660307</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="17">
         <f>N4-C4</f>
         <v>0.11791216093115603</v>
       </c>
+      <c r="O30" s="9">
+        <f>O4-C4</f>
+        <v>-0.10349464719183699</v>
+      </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
@@ -24754,12 +25403,16 @@
         <f t="shared" ref="M31:M38" si="12">M5-C5</f>
         <v>1.9586777780205002</v>
       </c>
-      <c r="N31" s="10">
-        <f t="shared" ref="N31:N38" si="13">N5-C5</f>
+      <c r="N31" s="16">
+        <f t="shared" ref="N31:O38" si="13">N5-C5</f>
         <v>2.5893617421388599</v>
       </c>
+      <c r="O31" s="10">
+        <f t="shared" ref="O31:O38" si="14">O5-C5</f>
+        <v>-0.57320104679092787</v>
+      </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
@@ -24803,12 +25456,16 @@
         <f t="shared" si="12"/>
         <v>-5.6214077631010995E-2</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="16">
         <f t="shared" si="13"/>
         <v>-8.7950960732995964E-2</v>
       </c>
+      <c r="O32" s="10">
+        <f t="shared" si="14"/>
+        <v>0.854059064295146</v>
+      </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -24852,12 +25509,16 @@
         <f t="shared" si="12"/>
         <v>2.0718905143439796</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="16">
         <f t="shared" si="13"/>
         <v>1.6745044849813011</v>
       </c>
+      <c r="O33" s="10">
+        <f t="shared" si="14"/>
+        <v>7.7238422818482304</v>
+      </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
@@ -24901,12 +25562,16 @@
         <f t="shared" si="12"/>
         <v>0.25248690508305982</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="16">
         <f t="shared" si="13"/>
         <v>-0.42160926386713982</v>
       </c>
+      <c r="O34" s="10">
+        <f t="shared" si="14"/>
+        <v>6.1638767365366203</v>
+      </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
@@ -24950,12 +25615,16 @@
         <f t="shared" si="12"/>
         <v>-3.3339776564390022E-2</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="16">
         <f t="shared" si="13"/>
         <v>-0.20127597963437505</v>
       </c>
+      <c r="O35" s="10">
+        <f t="shared" si="14"/>
+        <v>0.46632770681753499</v>
+      </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
@@ -24999,12 +25668,16 @@
         <f t="shared" si="12"/>
         <v>9.6726193987707034E-4</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="16">
         <f t="shared" si="13"/>
         <v>-1.0881121852435098E-3</v>
       </c>
+      <c r="O36" s="10">
+        <f t="shared" si="14"/>
+        <v>1.5168068102866538E-2</v>
+      </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
         <v>19</v>
       </c>
@@ -25048,12 +25721,16 @@
         <f t="shared" si="12"/>
         <v>-0.15340978279710005</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="16">
         <f t="shared" si="13"/>
         <v>-0.32084516715258504</v>
       </c>
+      <c r="O37" s="10">
+        <f t="shared" si="14"/>
+        <v>0.90110651217401005</v>
+      </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -25097,41 +25774,46 @@
         <f t="shared" si="12"/>
         <v>4.1437801808115164</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="6">
         <f t="shared" si="13"/>
         <v>3.3490089044789766</v>
       </c>
+      <c r="O38" s="11">
+        <f t="shared" si="14"/>
+        <v>15.447684675791637</v>
+      </c>
     </row>
-    <row r="39" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="14">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="15">D14-C14</f>
         <v>-5</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" ref="E40:E46" si="15">E14-C14</f>
+        <f t="shared" ref="E40:E46" si="16">E14-C14</f>
         <v>-117</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" ref="F40:F46" si="16">F14-C14</f>
+        <f t="shared" ref="F40:F46" si="17">F14-C14</f>
         <v>-58</v>
       </c>
       <c r="G40" s="17">
@@ -25162,322 +25844,351 @@
         <f>M14-C14</f>
         <v>-89</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="17">
         <f>N14-C14</f>
         <v>-87</v>
       </c>
+      <c r="O40" s="9">
+        <f>O14-C14</f>
+        <v>36</v>
+      </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="E41" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-32</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" ref="G41:G46" si="17">G15-C15</f>
+        <f t="shared" ref="G41:G46" si="18">G15-C15</f>
         <v>-32</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" ref="H41:H46" si="18">H15-C15</f>
+        <f t="shared" ref="H41:H46" si="19">H15-C15</f>
         <v>0</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ref="I41:I46" si="19">I15-C15</f>
+        <f t="shared" ref="I41:I46" si="20">I15-C15</f>
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" ref="J41:J46" si="20">J15-C15</f>
+        <f t="shared" ref="J41:J46" si="21">J15-C15</f>
         <v>0</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" ref="K41:K46" si="21">K15-C15</f>
+        <f t="shared" ref="K41:K46" si="22">K15-C15</f>
         <v>0</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" ref="L41:L46" si="22">L15-C15</f>
+        <f t="shared" ref="L41:L46" si="23">L15-C15</f>
         <v>0</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" ref="M41:M46" si="23">M15-C15</f>
+        <f t="shared" ref="M41:M46" si="24">M15-C15</f>
         <v>0</v>
       </c>
-      <c r="N41" s="10">
-        <f t="shared" ref="N41:N46" si="24">N15-C15</f>
+      <c r="N41" s="16">
+        <f t="shared" ref="N41:O46" si="25">N15-C15</f>
         <v>0</v>
       </c>
+      <c r="O41" s="10">
+        <f t="shared" ref="O41:O46" si="26">O15-C15</f>
+        <v>-32</v>
+      </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-26</v>
       </c>
       <c r="E42" s="16">
+        <f t="shared" si="16"/>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="17"/>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="18"/>
+        <v>194</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="20"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="22"/>
+        <v>62</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="23"/>
+        <v>81</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="N42" s="16">
+        <f t="shared" si="25"/>
+        <v>216</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="26"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="15"/>
-        <v>-54</v>
-      </c>
-      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="16"/>
-        <v>-38</v>
-      </c>
-      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="17"/>
-        <v>194</v>
-      </c>
-      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="19"/>
-        <v>66</v>
-      </c>
-      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="20"/>
-        <v>66</v>
-      </c>
-      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="21"/>
-        <v>62</v>
-      </c>
-      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
         <f t="shared" si="22"/>
-        <v>81</v>
-      </c>
-      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="23"/>
-        <v>98</v>
-      </c>
-      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
         <f t="shared" si="24"/>
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="N45" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="E46" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I43" s="16">
+      <c r="H46" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J43" s="16">
+      <c r="I46" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K43" s="16">
+      <c r="J46" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L43" s="16">
+      <c r="K46" s="6">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M43" s="16">
+      <c r="L46" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N43" s="10">
+      <c r="M46" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
+      <c r="N46" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
+    <row r="47" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="18"/>
+      <c r="D47" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="26"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="18"/>
-      <c r="D47" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>34</v>
       </c>
@@ -25521,12 +26232,16 @@
         <f>M22-C22</f>
         <v>0</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="17">
         <f>N22-C22</f>
         <v>9</v>
       </c>
+      <c r="O48" s="9">
+        <f>O22-C22</f>
+        <v>-28</v>
+      </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
@@ -25563,19 +26278,23 @@
         <v>-3</v>
       </c>
       <c r="L49" s="16">
-        <f t="shared" ref="L49:L51" si="25">L23-C23</f>
+        <f t="shared" ref="L49:L51" si="27">L23-C23</f>
         <v>-4</v>
       </c>
       <c r="M49" s="16">
-        <f t="shared" ref="M49:M51" si="26">M23-C23</f>
+        <f t="shared" ref="M49:M51" si="28">M23-C23</f>
         <v>-5</v>
       </c>
-      <c r="N49" s="10">
-        <f t="shared" ref="N49:N51" si="27">N23-C23</f>
+      <c r="N49" s="16">
+        <f t="shared" ref="N49:O51" si="29">N23-C23</f>
         <v>-6</v>
       </c>
+      <c r="O49" s="10">
+        <f t="shared" ref="O49:O51" si="30">O23-C23</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
         <v>4</v>
       </c>
@@ -25612,19 +26331,23 @@
         <v>-2.3239999999999998</v>
       </c>
       <c r="L50" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2.081</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-3.28</v>
       </c>
-      <c r="N50" s="10">
-        <f t="shared" si="27"/>
+      <c r="N50" s="16">
+        <f t="shared" si="29"/>
         <v>-3.1999999999999997</v>
       </c>
+      <c r="O50" s="10">
+        <f>O24-C24</f>
+        <v>0.55400000000000027</v>
+      </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
@@ -25661,20 +26384,24 @@
         <v>18.7872653467779</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>68.307027237596202</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>58.58989918313415</v>
       </c>
-      <c r="N51" s="11">
-        <f t="shared" si="27"/>
+      <c r="N51" s="6">
+        <f t="shared" si="29"/>
         <v>124.4283185343624</v>
       </c>
+      <c r="O51" s="11">
+        <f t="shared" si="30"/>
+        <v>15.072356014925674</v>
+      </c>
     </row>
-    <row r="54" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="21" t="s">
+    <row r="54" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -25710,24 +26437,28 @@
       <c r="N54" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="O54" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="55" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="22"/>
-      <c r="D55" s="20" t="s">
+    <row r="55" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>36</v>
       </c>
@@ -25736,455 +26467,492 @@
         <v>-18.435649023904833</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:L56" si="28">((E4-$C4)/$C4)*100</f>
+        <f t="shared" ref="E56:L56" si="31">((E4-$C4)/$C4)*100</f>
         <v>-35.582227541156172</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-69.829975862965838</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-35.287029261036132</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.17798908281521064</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-18.348112148948175</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-4.7910388689480357</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>63.173117529499592</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>43.401893633662759</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" ref="M56:N56" si="29">((M4-$C4)/$C4)*100</f>
+        <f t="shared" ref="M56:N56" si="32">((M4-$C4)/$C4)*100</f>
         <v>22.614519242062396</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>25.958835371279417</v>
       </c>
+      <c r="O56" s="9">
+        <f t="shared" ref="O56" si="33">((O4-$C4)/$C4)*100</f>
+        <v>-22.784761868880814</v>
+      </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="10">
-        <f t="shared" ref="D57:D64" si="30">((D5-$C5)/$C5)*100</f>
+        <f t="shared" ref="D57:D64" si="34">((D5-$C5)/$C5)*100</f>
         <v>44.533976647304748</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" ref="E57:L57" si="31">((E5-$C5)/$C5)*100</f>
+        <f t="shared" ref="E57:L57" si="35">((E5-$C5)/$C5)*100</f>
         <v>-9.5885464674817307</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-84.807098472780623</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-67.989122335392153</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.8255068319380879E-2</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>31.713880824477464</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>47.292733141933198</v>
       </c>
       <c r="K57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-34.695768655224043</v>
       </c>
       <c r="L57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-27.175844196344091</v>
       </c>
       <c r="M57" s="10">
-        <f t="shared" ref="M57:N57" si="32">((M5-$C5)/$C5)*100</f>
+        <f t="shared" ref="M57:N57" si="36">((M5-$C5)/$C5)*100</f>
         <v>161.14373270748891</v>
       </c>
       <c r="N57" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>213.03116885306039</v>
       </c>
+      <c r="O57" s="10">
+        <f t="shared" ref="O57" si="37">((O5-$C5)/$C5)*100</f>
+        <v>-47.158219339722038</v>
+      </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>23.779754142979883</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" ref="E58:L58" si="33">((E6-$C6)/$C6)*100</f>
+        <f t="shared" ref="E58:L58" si="38">((E6-$C6)/$C6)*100</f>
         <v>-4.1243105024289388</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>232.65371189335323</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>114.87014328483636</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>2.5547223948603879</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>-9.318023115098212</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>8.5413170348358936</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>384.59144613835406</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>362.35999596209587</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" ref="M58:N58" si="34">((M6-$C6)/$C6)*100</f>
+        <f t="shared" ref="M58:N58" si="39">((M6-$C6)/$C6)*100</f>
         <v>-16.779730339491429</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>-26.253092933161238</v>
       </c>
+      <c r="O58" s="10">
+        <f t="shared" ref="O58" si="40">((O6-$C6)/$C6)*100</f>
+        <v>254.93402003211321</v>
+      </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C59" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>47.144033771028802</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" ref="E59:L59" si="35">((E7-$C7)/$C7)*100</f>
+        <f t="shared" ref="E59:L59" si="41">((E7-$C7)/$C7)*100</f>
         <v>-23.966723887494993</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>53.886518500914882</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>128.00170178729215</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.2113327784458463</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>-3.9046308766122064</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>13.186784192549087</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>16.669612449792055</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.933098005925262</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" ref="M59:N59" si="36">((M7-$C7)/$C7)*100</f>
+        <f t="shared" ref="M59:N59" si="42">((M7-$C7)/$C7)*100</f>
         <v>27.622387976585998</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>22.324448243025095</v>
       </c>
+      <c r="O59" s="10">
+        <f t="shared" ref="O59" si="43">((O7-$C7)/$C7)*100</f>
+        <v>102.97405519360862</v>
+      </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C60" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>75.96781758086874</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" ref="E60:L60" si="37">((E8-$C8)/$C8)*100</f>
+        <f t="shared" ref="E60:L60" si="44">((E8-$C8)/$C8)*100</f>
         <v>-31.026058615961897</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>93.700773718361802</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>199.02318489636534</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>-0.14294122208613866</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>-9.9595015114334409</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>6.441768993004418</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>5.2948420757547465</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>-12.936781631347413</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" ref="M60:N60" si="38">((M8-$C8)/$C8)*100</f>
+        <f t="shared" ref="M60:N60" si="45">((M8-$C8)/$C8)*100</f>
         <v>7.0844949213075115</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>-11.829875643096672</v>
       </c>
+      <c r="O60" s="10">
+        <f t="shared" ref="O60" si="46">((O8-$C8)/$C8)*100</f>
+        <v>172.95135928413356</v>
+      </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C61" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-9.0317142123497565</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" ref="E61:L61" si="39">((E9-$C9)/$C9)*100</f>
+        <f t="shared" ref="E61:L61" si="47">((E9-$C9)/$C9)*100</f>
         <v>-35.941321142839868</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-51.773191884360415</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>27.687502585921099</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.43275451861124714</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-5.7176290820840343</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>11.572742320958476</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>13.31010241669518</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-17.736833278430218</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" ref="M61:N61" si="40">((M9-$C9)/$C9)*100</f>
+        <f t="shared" ref="M61:N61" si="48">((M9-$C9)/$C9)*100</f>
         <v>-3.6180662962311998</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>-21.842673023006004</v>
       </c>
+      <c r="O61" s="10">
+        <f t="shared" ref="O61" si="49">((O9-$C9)/$C9)*100</f>
+        <v>50.606354717967697</v>
+      </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-6.1062119553996101</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" ref="E62:L62" si="41">((E10-$C10)/$C10)*100</f>
+        <f t="shared" ref="E62:L62" si="50">((E10-$C10)/$C10)*100</f>
         <v>16.699472858087848</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>133.57469157577469</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>213.86600774937611</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-1.8867997932835279</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-2.8699969800628463E-4</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-5.0093118646503276</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>91.95956952341308</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>67.583754005798596</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" ref="M62:N62" si="42">((M10-$C10)/$C10)*100</f>
+        <f t="shared" ref="M62:N62" si="51">((M10-$C10)/$C10)*100</f>
         <v>27.13143993042133</v>
       </c>
       <c r="N62" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>-30.521257142864261</v>
       </c>
+      <c r="O62" s="10">
+        <f t="shared" ref="O62" si="52">((O10-$C10)/$C10)*100</f>
+        <v>425.46027257700734</v>
+      </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C63" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>37.230272296319036</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" ref="E63:L63" si="43">((E11-$C11)/$C11)*100</f>
+        <f t="shared" ref="E63:L63" si="53">((E11-$C11)/$C11)*100</f>
         <v>-6.8867784064323034</v>
       </c>
       <c r="F63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>-36.10269420209714</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>22.192452849382104</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>0.73837857733366508</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>-15.506470320589177</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>7.087770802776193</v>
       </c>
       <c r="K63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>-21.641136960128545</v>
       </c>
       <c r="L63" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>-31.148781306585942</v>
       </c>
       <c r="M63" s="10">
-        <f t="shared" ref="M63:N63" si="44">((M11-$C11)/$C11)*100</f>
+        <f t="shared" ref="M63:N63" si="54">((M11-$C11)/$C11)*100</f>
         <v>-15.23343647868089</v>
       </c>
       <c r="N63" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>-31.859601025411582</v>
       </c>
+      <c r="O63" s="10">
+        <f t="shared" ref="O63" si="55">((O11-$C11)/$C11)*100</f>
+        <v>89.478966487318147</v>
+      </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>47.144020453505753</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" ref="E64:L64" si="45">((E12-$C12)/$C12)*100</f>
+        <f t="shared" ref="E64:L64" si="56">((E12-$C12)/$C12)*100</f>
         <v>-23.966727742941849</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>39.841645682828201</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>110.51248917817915</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.21132922932416195</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>-3.9046344735631631</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>13.186777803036081</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>16.669612861682875</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>1.9330921548320512</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" ref="M64:N64" si="46">((M12-$C12)/$C12)*100</f>
+        <f t="shared" ref="M64:N64" si="57">((M12-$C12)/$C12)*100</f>
         <v>27.622381211425317</v>
       </c>
       <c r="N64" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>22.324446906799849</v>
       </c>
+      <c r="O64" s="11">
+        <f t="shared" ref="O64" si="58">((O12-$C12)/$C12)*100</f>
+        <v>102.97405179080823</v>
+      </c>
     </row>
-    <row r="65" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>6</v>
       </c>
@@ -26193,31 +26961,31 @@
         <v>-1.8181818181818181</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" ref="E66:K66" si="47">((E14-$C14)/$C14)*100</f>
+        <f t="shared" ref="E66:K66" si="59">((E14-$C14)/$C14)*100</f>
         <v>-42.545454545454547</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>-21.09090909090909</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>64.363636363636374</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>-32.36363636363636</v>
       </c>
       <c r="L66" s="9">
@@ -26232,106 +27000,118 @@
         <f>((N14-$C14)/$C14)*100</f>
         <v>-31.636363636363633</v>
       </c>
+      <c r="O66" s="9">
+        <f>((O14-$C14)/$C14)*100</f>
+        <v>13.090909090909092</v>
+      </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="10">
-        <f t="shared" ref="D67:K72" si="48">((D15-$C15)/$C15)*100</f>
+        <f t="shared" ref="D67:K72" si="60">((D15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-100</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-100</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K67" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67:M67" si="49">((L15-$C15)/$C15)*100</f>
+        <f t="shared" ref="L67:M67" si="61">((L15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" ref="N67" si="50">((N15-$C15)/$C15)*100</f>
+        <f t="shared" ref="N67:O67" si="62">((N15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
+      <c r="O67" s="10">
+        <f t="shared" si="62"/>
+        <v>-100</v>
+      </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C68" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-16.25</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-33.75</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-23.75</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>121.24999999999999</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>41.25</v>
       </c>
       <c r="J68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>41.25</v>
       </c>
       <c r="K68" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>38.75</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" ref="L68:M68" si="51">((L16-$C16)/$C16)*100</f>
+        <f t="shared" ref="L68:M68" si="63">((L16-$C16)/$C16)*100</f>
         <v>50.625</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>61.250000000000007</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" ref="N68" si="52">((N16-$C16)/$C16)*100</f>
+        <f t="shared" ref="N68:O68" si="64">((N16-$C16)/$C16)*100</f>
         <v>135</v>
       </c>
+      <c r="O68" s="10">
+        <f t="shared" si="64"/>
+        <v>186.25</v>
+      </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C69" s="16" t="s">
         <v>29</v>
       </c>
@@ -26368,171 +27148,187 @@
       <c r="N69" s="10">
         <v>0</v>
       </c>
+      <c r="O69" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C70" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>100</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>100</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K70" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>100</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" ref="L70:M70" si="53">((L18-$C18)/$C18)*100</f>
+        <f t="shared" ref="L70:M70" si="65">((L18-$C18)/$C18)*100</f>
         <v>100</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
       <c r="N70" s="10">
-        <f t="shared" ref="N70" si="54">((N18-$C18)/$C18)*100</f>
+        <f t="shared" ref="N70:O70" si="66">((N18-$C18)/$C18)*100</f>
         <v>100</v>
       </c>
+      <c r="O70" s="10">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C71" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K71" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" ref="L71:M71" si="55">((L19-$C19)/$C19)*100</f>
+        <f t="shared" ref="L71:M71" si="67">((L19-$C19)/$C19)*100</f>
         <v>0</v>
       </c>
       <c r="M71" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N71" s="10">
-        <f t="shared" ref="N71" si="56">((N19-$C19)/$C19)*100</f>
+        <f t="shared" ref="N71:O71" si="68">((N19-$C19)/$C19)*100</f>
         <v>0</v>
       </c>
+      <c r="O71" s="10">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" ref="L72:M72" si="57">((L20-$C20)/$C20)*100</f>
+        <f t="shared" ref="L72:M72" si="69">((L20-$C20)/$C20)*100</f>
         <v>0</v>
       </c>
       <c r="M72" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N72" s="11">
-        <f t="shared" ref="N72" si="58">((N20-$C20)/$C20)*100</f>
+        <f t="shared" ref="N72:O72" si="70">((N20-$C20)/$C20)*100</f>
         <v>0</v>
       </c>
+      <c r="O72" s="11">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="18"/>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>34</v>
       </c>
@@ -26541,207 +27337,223 @@
         <v>-2.2727272727272729</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" ref="E74:L74" si="59">((E22-$C22)/$C22)*100</f>
+        <f t="shared" ref="E74:L74" si="71">((E22-$C22)/$C22)*100</f>
         <v>52.272727272727273</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-20.454545454545457</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-43.18181818181818</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>13.636363636363635</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>6.8181818181818175</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>20.454545454545457</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" ref="M74:N74" si="60">((M22-$C22)/$C22)*100</f>
+        <f t="shared" ref="M74:N74" si="72">((M22-$C22)/$C22)*100</f>
         <v>0</v>
       </c>
       <c r="N74" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>20.454545454545457</v>
       </c>
+      <c r="O74" s="9">
+        <f t="shared" ref="O74" si="73">((O22-$C22)/$C22)*100</f>
+        <v>-63.636363636363633</v>
+      </c>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" ref="D75:L77" si="61">((D23-$C23)/$C23)*100</f>
+        <f t="shared" ref="D75:L77" si="74">((D23-$C23)/$C23)*100</f>
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-10</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-20</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-30</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-40</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" ref="M75:N75" si="62">((M23-$C23)/$C23)*100</f>
+        <f t="shared" ref="M75:N75" si="75">((M23-$C23)/$C23)*100</f>
         <v>-50</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>-60</v>
       </c>
+      <c r="O75" s="10">
+        <f t="shared" ref="O75" si="76">((O23-$C23)/$C23)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C76" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-15.873015873015875</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-5.1997810618500262</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>15.024630541871931</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-32.348111658456489</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-16.256157635467979</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-37.684729064039402</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-63.601532567049802</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-56.951286261631083</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" ref="M76:N76" si="63">((M24-$C24)/$C24)*100</f>
+        <f t="shared" ref="M76:N76" si="77">((M24-$C24)/$C24)*100</f>
         <v>-89.764641488779418</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>-87.575259989053095</v>
       </c>
+      <c r="O76" s="10">
+        <f t="shared" ref="O76" si="78">((O24-$C24)/$C24)*100</f>
+        <v>15.161466885604824</v>
+      </c>
     </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-8.3742419867167204</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-2.9069767441860419</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>9.4704157322753151</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>-15.701381509032938</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>6.8350168350168437</v>
       </c>
       <c r="J77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>10.885899004018881</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>11.922398589065256</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>43.347639484978551</v>
       </c>
       <c r="M77" s="11">
-        <f t="shared" ref="M77:N77" si="64">((M25-$C25)/$C25)*100</f>
+        <f t="shared" ref="M77:N77" si="79">((M25-$C25)/$C25)*100</f>
         <v>37.181150021616929</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="79"/>
         <v>78.962210941906392</v>
+      </c>
+      <c r="O77" s="11">
+        <f t="shared" ref="O77" si="80">((O25-$C25)/$C25)*100</f>
+        <v>9.5649171270718334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D47:N47"/>
-    <mergeCell ref="D55:N55"/>
-    <mergeCell ref="D65:N65"/>
-    <mergeCell ref="D73:N73"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D39:O39"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="D39:N39"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="D55:O55"/>
+    <mergeCell ref="D65:O65"/>
+    <mergeCell ref="D73:O73"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23946A-463F-426B-B90D-0FE414B29A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A7B44-4B53-46AB-8CF3-24CB763890AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Dynamic Power Analysis (Values)" sheetId="2" r:id="rId2"/>
-    <sheet name="Dynamic Power Analysis (Abs.E.)" sheetId="3" r:id="rId3"/>
-    <sheet name="Dynamic Power Analysis (Per.V.)" sheetId="4" r:id="rId4"/>
-    <sheet name="Utilization Analysis (Values)" sheetId="6" r:id="rId5"/>
-    <sheet name="Utilization Analysis (Abs.E.)" sheetId="7" r:id="rId6"/>
-    <sheet name="Utilization Analysis (Per.V.)" sheetId="8" r:id="rId7"/>
+    <sheet name="Cycles (Values)" sheetId="9" r:id="rId2"/>
+    <sheet name="Dynamic Power Analysis (Values)" sheetId="2" r:id="rId3"/>
+    <sheet name="Dynamic Power Analysis (Abs.E.)" sheetId="3" r:id="rId4"/>
+    <sheet name="Dynamic Power Analysis (Per.V.)" sheetId="4" r:id="rId5"/>
+    <sheet name="Utilization Analysis (Values)" sheetId="6" r:id="rId6"/>
+    <sheet name="Utilization Analysis (Abs.E.)" sheetId="7" r:id="rId7"/>
+    <sheet name="Utilization Analysis (Per.V.)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -544,25 +545,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2201,6 +2202,2784 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Dynamic Power Analysis (Absolute Error)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock Enable [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-8.3739781985058992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16162425163201899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.317186932079494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16028337995521696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0847530625799413E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.3342165453358985E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1762214601038998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28694965294562297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19714332302101006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10272135841660307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11791216093115603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10349464719183699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.54130377247929995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11654733680188989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0308174969395629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.82639753236435398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2188760340013935E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38547744043171006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57483604177833025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42172183748334691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3303182893432679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9586777780205002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5893617421388599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57320104679092787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.9664983786642996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3816927094011999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77941740164533613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38482854142785106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5586216300730378E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1216477509588003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8614420443772992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.288426748942586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2139487662352662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.6214077631010995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.7950960732995964E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.854059064295146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hierarchical [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.5361633636057297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7976877279579595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0419013239443311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6011073328554275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5851575881240088E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29287720099090908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9891097433865097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2503485195338699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1449971459806001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0718905143439796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6745044849813011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7238422818482304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I/O [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$34:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.7074448298662896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.10574904829264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3394361380487703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0930600631982106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0943344831502202E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.35495031625031981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22958056069909993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18870481289923013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.46105869114399001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25248690508305982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.42160926386713982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1638767365366203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$35:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-8.3225488197058994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33119227737188395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.47707988414913399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25513494620099497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9877486415210717E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.2686838898807986E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10664056753739504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12265000259503489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.16344146570190798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.3339776564390022E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20127597963437505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46632770681753499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set/Reset [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$36:$O$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-2.1769233171652991E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9535227592278023E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7620662826375389E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6245289619692388E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.7266228143120135E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0231815390174953E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7858678802440018E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2784471386548904E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4094258606055601E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6726193987707034E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0881121852435098E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5168068102866538E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37493102718144988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.9353962317110995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.36357564385980501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22349122446030001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4359122663698596E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15615939628332998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1378075517710027E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.21793914493173505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.31368678901344704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15340978279710005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.32084516715258504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90110651217401005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$38:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.0723250144055765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5953761791915912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9768569728930796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.578565724785179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1702620617567234E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.58575496518641934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9782186079737532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5006972016399143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999342589486865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1437801808115164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3490089044789766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.447684675791637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6475-4D93-83BD-74C266318B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="935639695"/>
+        <c:axId val="935637775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="935639695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935637775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935637775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935639695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Power Analysis (Percentage Variation)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock Enable [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$56:$O$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-18.435649023904833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-35.582227541156172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-69.829975862965838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.287029261036132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17798908281521064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.348112148948175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7910388689480357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.173117529499592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.401893633662759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.614519242062396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.958835371279417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22.784761868880814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$57:$O$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44.533976647304748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.5885464674817307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-84.807098472780623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-67.989122335392153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8255068319380879E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.713880824477464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.292733141933198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-34.695768655224043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-27.175844196344091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161.14373270748891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213.03116885306039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-47.158219339722038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$58:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23.779754142979883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1243105024289388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.65371189335323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.87014328483636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5547223948603879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.318023115098212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5413170348358936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.59144613835406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362.35999596209587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16.779730339491429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26.253092933161238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>254.93402003211321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hierarchical [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$59:$O$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>47.144033771028802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.966723887494993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.886518500914882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.00170178729215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2113327784458463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9046308766122064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.186784192549087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.669612449792055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.933098005925262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.622387976585998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.324448243025095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.97405519360862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I/O [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$60:$O$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75.96781758086874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.026058615961897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.700773718361802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.02318489636534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14294122208613866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.9595015114334409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.441768993004418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2948420757547465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.936781631347413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0844949213075115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.829875643096672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.95135928413356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$61:$O$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.0317142123497565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-35.941321142839868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-51.773191884360415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.687502585921099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43275451861124714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.7176290820840343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.572742320958476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.31010241669518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.736833278430218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.6180662962311998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-21.842673023006004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.606354717967697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set/Reset [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$62:$O$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-6.1062119553996101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.699472858087848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.57469157577469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.86600774937611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8867997932835279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.8699969800628463E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0093118646503276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.95956952341308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.583754005798596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.13143993042133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-30.521257142864261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>425.46027257700734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$63:$O$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37.230272296319036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8867784064323034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-36.10269420209714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.192452849382104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73837857733366508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.506470320589177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.087770802776193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21.641136960128545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-31.148781306585942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.23343647868089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.859601025411582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.478966487318147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$D$54:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$64:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>47.144020453505753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.966727742941849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.841645682828201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.51248917817915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21132922932416195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9046344735631631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.186777803036081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.669612861682875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9330921548320512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.622381211425317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.324446906799849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.97405179080823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-22C2-4441-B2BD-B5ECBFC44572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="184478880"/>
+        <c:axId val="184472640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="184478880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184472640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184472640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184478880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3562,7 +6341,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4682,7 +7461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -12157,6 +14936,976 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycles [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5308-4458-8791-F62A21D54F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1625181584"/>
+        <c:axId val="1625205584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1625181584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625205584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1625205584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles [#]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625181584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycles [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized Solution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Code Hoisting Solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop Fission Solution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop Unrolling Solution Factor=2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Loop Unrolling Solution Factor=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Loop Pipelining Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5392-4B3C-AE57-98E28E069DC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1625181584"/>
+        <c:axId val="1625205584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1625181584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625205584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1625205584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles [#]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625181584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -13798,2784 +17547,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Dynamic Power Analysis (Absolute Error)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clock Enable [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$30:$O$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-8.3739781985058992E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.16162425163201899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.317186932079494</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.16028337995521696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0847530625799413E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.3342165453358985E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.1762214601038998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28694965294562297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19714332302101006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10272135841660307</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11791216093115603</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.10349464719183699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$31:$O$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.54130377247929995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.11654733680188989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.0308174969395629</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.82639753236435398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2188760340013935E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38547744043171006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57483604177833025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.42172183748334691</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.3303182893432679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9586777780205002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5893617421388599</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.57320104679092787</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$32:$O$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7.9664983786642996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.3816927094011999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77941740164533613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38482854142785106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5586216300730378E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.1216477509588003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8614420443772992E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.288426748942586</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2139487662352662</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.6214077631010995E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.7950960732995964E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.854059064295146</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hierarchical [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$33:$O$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.5361633636057297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.7976877279579595</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0419013239443311</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6011073328554275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5851575881240088E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.29287720099090908</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9891097433865097</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2503485195338699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1449971459806001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0718905143439796</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6745044849813011</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.7238422818482304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$34:$O$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.7074448298662896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.10574904829264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3394361380487703</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0930600631982106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.0943344831502202E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.35495031625031981</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22958056069909993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18870481289923013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.46105869114399001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25248690508305982</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.42160926386713982</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.1638767365366203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$35:$O$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-8.3225488197058994E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.33119227737188395</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.47707988414913399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25513494620099497</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9877486415210717E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.2686838898807986E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10664056753739504</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12265000259503489</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.16344146570190798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.3339776564390022E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.20127597963437505</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.46632770681753499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set/Reset [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$36:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-2.1769233171652991E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9535227592278023E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7620662826375389E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6245289619692388E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.7266228143120135E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.0231815390174953E-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.7858678802440018E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2784471386548904E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4094258606055601E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.6726193987707034E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.0881121852435098E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5168068102866538E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Data [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$37:$O$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.37493102718144988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.9353962317110995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.36357564385980501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22349122446030001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4359122663698596E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.15615939628332998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1378075517710027E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.21793914493173505</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.31368678901344704</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.15340978279710005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.32084516715258504</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90110651217401005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$28:$O$28</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$38:$O$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7.0723250144055765</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.5953761791915912</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9768569728930796</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.578565724785179</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1702620617567234E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.58575496518641934</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9782186079737532</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5006972016399143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28999342589486865</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1437801808115164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3490089044789766</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.447684675791637</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6475-4D93-83BD-74C266318B84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="935639695"/>
-        <c:axId val="935637775"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="935639695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="935637775"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="935637775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="935639695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamic Power Analysis (Percentage Variation)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clock Enable [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$56:$O$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-18.435649023904833</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-35.582227541156172</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-69.829975862965838</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-35.287029261036132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17798908281521064</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-18.348112148948175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.7910388689480357</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.173117529499592</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.401893633662759</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.614519242062396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.958835371279417</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-22.784761868880814</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$57:$O$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>44.533976647304748</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.5885464674817307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-84.807098472780623</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-67.989122335392153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8255068319380879E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.713880824477464</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.292733141933198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-34.695768655224043</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-27.175844196344091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>161.14373270748891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>213.03116885306039</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-47.158219339722038</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$58:$O$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>23.779754142979883</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.1243105024289388</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>232.65371189335323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>114.87014328483636</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5547223948603879</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.318023115098212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5413170348358936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>384.59144613835406</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>362.35999596209587</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-16.779730339491429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-26.253092933161238</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>254.93402003211321</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hierarchical [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$59:$O$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>47.144033771028802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-23.966723887494993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.886518500914882</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128.00170178729215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2113327784458463</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.9046308766122064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.186784192549087</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.669612449792055</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.933098005925262</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.622387976585998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.324448243025095</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>102.97405519360862</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$60:$O$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>75.96781758086874</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-31.026058615961897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.700773718361802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>199.02318489636534</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.14294122208613866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.9595015114334409</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.441768993004418</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2948420757547465</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-12.936781631347413</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0844949213075115</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-11.829875643096672</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.95135928413356</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$61:$O$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.0317142123497565</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-35.941321142839868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-51.773191884360415</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.687502585921099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.43275451861124714</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.7176290820840343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.572742320958476</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.31010241669518</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-17.736833278430218</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.6180662962311998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-21.842673023006004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50.606354717967697</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set/Reset [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$62:$O$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-6.1062119553996101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.699472858087848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>133.57469157577469</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213.86600774937611</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8867997932835279</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.8699969800628463E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.0093118646503276</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.95956952341308</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.583754005798596</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.13143993042133</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-30.521257142864261</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>425.46027257700734</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Data [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$63:$O$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>37.230272296319036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.8867784064323034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-36.10269420209714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.192452849382104</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73837857733366508</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-15.506470320589177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.087770802776193</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-21.641136960128545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-31.148781306585942</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-15.23343647868089</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-31.859601025411582</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>89.478966487318147</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total [%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$D$54:$O$54</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Code Hoisting Solution</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Loop Fission Solution</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop Unrolling Solution Factor=2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop Unrolling Solution Factor=4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Operation Chaining Solution CLK=10ns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operation Chaining Solution CLK=9ns</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Operation Chaining Solution CLK=8ns</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Operation Chaining Solution CLK=7ns</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Operation Chaining Solution CLK=6ns</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Operation Chaining Solution CLK=5ns</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Operation Chaining Solution CLK=4ns</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Loop Pipelining Solution</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$64:$O$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>47.144020453505753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-23.966727742941849</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.841645682828201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>110.51248917817915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21132922932416195</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.9046344735631631</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.186777803036081</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.669612861682875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9330921548320512</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.622381211425317</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.324446906799849</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>102.97405179080823</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-22C2-4441-B2BD-B5ECBFC44572}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="184478880"/>
-        <c:axId val="184472640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="184478880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="184472640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="184472640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>[%]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="184478880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16697,6 +17668,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17578,7 +18629,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17647,7 +18698,10 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -18099,7 +19153,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18168,10 +19222,7 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -19143,7 +20194,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19667,7 +20718,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20188,7 +21239,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20712,7 +21763,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21233,8 +22284,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21303,7 +22354,10 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -21754,7 +22808,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22275,8 +23329,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22345,10 +23399,1049 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -23538,10 +25631,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2189731</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>15890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1541318</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69E9A22-AC95-87BC-570B-5E3A6019CA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D985FDBF-488F-466C-9518-9F709AD6355B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23584,7 +25756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23627,7 +25799,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23670,7 +25842,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23713,7 +25885,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23756,7 +25928,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24121,8 +26293,8 @@
   </sheetPr>
   <dimension ref="B2:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24140,7 +26312,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -24184,22 +26356,22 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -24716,21 +26888,21 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -25042,21 +27214,21 @@
     </row>
     <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -25249,7 +27421,7 @@
     </row>
     <row r="27" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -25290,21 +27462,21 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="25"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
@@ -25404,7 +27576,7 @@
         <v>1.9586777780205002</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" ref="N31:O38" si="13">N5-C5</f>
+        <f t="shared" ref="N31:N38" si="13">N5-C5</f>
         <v>2.5893617421388599</v>
       </c>
       <c r="O31" s="10">
@@ -25785,20 +27957,20 @@
     </row>
     <row r="39" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="26"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="22"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
@@ -25898,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="16">
-        <f t="shared" ref="N41:O46" si="25">N15-C15</f>
+        <f t="shared" ref="N41:N46" si="25">N15-C15</f>
         <v>0</v>
       </c>
       <c r="O41" s="10">
@@ -26173,20 +28345,20 @@
     </row>
     <row r="47" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="18"/>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="26"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="22"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
@@ -26286,7 +28458,7 @@
         <v>-5</v>
       </c>
       <c r="N49" s="16">
-        <f t="shared" ref="N49:O51" si="29">N23-C23</f>
+        <f t="shared" ref="N49:N51" si="29">N23-C23</f>
         <v>-6</v>
       </c>
       <c r="O49" s="10">
@@ -26401,7 +28573,7 @@
       </c>
     </row>
     <row r="54" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -26442,21 +28614,21 @@
       </c>
     </row>
     <row r="55" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22" t="s">
+      <c r="C55" s="24"/>
+      <c r="D55" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
@@ -26937,20 +29109,20 @@
     </row>
     <row r="65" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
@@ -27313,20 +29485,20 @@
     </row>
     <row r="73" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="18"/>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
@@ -27542,18 +29714,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D73:O73"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="D55:O55"/>
+    <mergeCell ref="D65:O65"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="C21:O21"/>
     <mergeCell ref="D29:O29"/>
     <mergeCell ref="D39:O39"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="D55:O55"/>
-    <mergeCell ref="D65:O65"/>
-    <mergeCell ref="D73:O73"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -27563,6 +29735,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A86679-3EAC-4546-ABD6-59A296B52267}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B04CCC6-9E5D-4D26-8D3F-4FD2017DA7D8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27577,7 +29762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F8A2D5-79C8-4A90-A30B-CB5C7400A553}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27592,7 +29777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B0DD9B-2CD3-4C27-9A96-B1073F7F3160}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27607,7 +29792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B0A31-2557-4E8A-A281-543C63ED671C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27622,7 +29807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A90646F-D126-4699-A710-1FB5DCA10CE4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27637,12 +29822,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B036D4-3568-4699-9034-07FE864B7C79}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reports/vivado/report-vivado.xlsx
+++ b/reports/vivado/report-vivado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A7B44-4B53-46AB-8CF3-24CB763890AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB6322-413D-482C-8C01-902983CD782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" xr2:uid="{E7BCC947-1515-412E-876B-4510C27535DC}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>Unoptimized Solution</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Loop Pipelining Solution</t>
+  </si>
+  <si>
+    <t>AXI Solution</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,10 +551,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,12 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26291,10 +26288,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O77"/>
+  <dimension ref="B2:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26308,11 +26305,12 @@
     <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -26354,9 +26352,12 @@
       <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
       <c r="C3" s="20" t="s">
         <v>22</v>
       </c>
@@ -26372,8 +26373,9 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -26429,8 +26431,12 @@
         <f>1000*0.000350732821971178</f>
         <v>0.350732821971178</v>
       </c>
+      <c r="P4" s="9">
+        <f>1000*0.000361682672519237</f>
+        <v>0.36168267251923703</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -26486,8 +26492,12 @@
         <f>1000*0.000642283877823502</f>
         <v>0.64228387782350205</v>
       </c>
+      <c r="P5" s="10">
+        <f>1000*0.00240964675322175</f>
+        <v>2.4096467532217498</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -26543,8 +26553,11 @@
         <f>1000*0.00118907087016851</f>
         <v>1.18907087016851</v>
       </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -26600,8 +26613,12 @@
         <f>1000*0.0152246076613665</f>
         <v>15.2246076613665</v>
       </c>
+      <c r="P7" s="10">
+        <f>1000*0.0315654315054417</f>
+        <v>31.565431505441701</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -26657,8 +26674,12 @@
         <f>1000*0.00972781330347061</f>
         <v>9.7278133034706098</v>
       </c>
+      <c r="P8" s="10">
+        <f>1000*0.0152838388457894</f>
+        <v>15.283838845789399</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -26714,8 +26735,12 @@
         <f>1000*0.00138780823908746</f>
         <v>1.38780823908746</v>
       </c>
+      <c r="P9" s="10">
+        <f>1000*0.00796325504779816</f>
+        <v>7.9632550477981603</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -26771,8 +26796,12 @@
         <f>1000*0.000018733164324658</f>
         <v>1.8733164324657998E-2</v>
       </c>
+      <c r="P10" s="10">
+        <f>1000*0.0000082827373262262</f>
+        <v>8.2827373262262007E-3</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -26828,8 +26857,12 @@
         <f>1000*0.00190816610120237</f>
         <v>1.9081661012023701</v>
       </c>
+      <c r="P11" s="10">
+        <f>1000*0.00553872575983405</f>
+        <v>5.5387257598340502</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -26885,8 +26918,12 @@
         <f>SUM(O4:O11)</f>
         <v>30.449216039414782</v>
       </c>
+      <c r="P12" s="11">
+        <f>SUM(P4:P11)</f>
+        <v>63.130863321930519</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="20" t="s">
         <v>3</v>
@@ -26903,8 +26940,9 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -26947,8 +26985,11 @@
       <c r="O14" s="9">
         <v>311</v>
       </c>
+      <c r="P14" s="9">
+        <v>739</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -26991,8 +27032,11 @@
       <c r="O15" s="10">
         <v>0</v>
       </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -27035,8 +27079,11 @@
       <c r="O16" s="10">
         <v>458</v>
       </c>
+      <c r="P16" s="10">
+        <v>699</v>
+      </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -27079,8 +27126,11 @@
       <c r="O17" s="10">
         <v>0</v>
       </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -27123,8 +27173,11 @@
       <c r="O18" s="10">
         <v>2</v>
       </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -27167,8 +27220,11 @@
       <c r="O19" s="10">
         <v>71</v>
       </c>
+      <c r="P19" s="10">
+        <v>93</v>
+      </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
@@ -27211,8 +27267,11 @@
       <c r="O20" s="11">
         <v>1</v>
       </c>
+      <c r="P20" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
         <v>23</v>
@@ -27229,8 +27288,9 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -27273,8 +27333,11 @@
       <c r="O22" s="9">
         <v>16</v>
       </c>
+      <c r="P22" s="9">
+        <v>11</v>
+      </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
@@ -27317,8 +27380,11 @@
       <c r="O23" s="10">
         <v>10</v>
       </c>
+      <c r="P23" s="10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
@@ -27361,8 +27427,11 @@
       <c r="O24" s="10">
         <v>4.2080000000000002</v>
       </c>
+      <c r="P24" s="10">
+        <v>1.369</v>
+      </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -27418,9 +27487,13 @@
         <f>1000*1/(O23-O24)</f>
         <v>172.65193370165747</v>
       </c>
+      <c r="P25" s="11">
+        <f>1000*1/(P23-P24)</f>
+        <v>115.86142973004287</v>
+      </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="23" t="s">
         <v>24</v>
       </c>
@@ -27460,8 +27533,11 @@
       <c r="O28" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="P28" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="29" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="24"/>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -27476,9 +27552,10 @@
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
@@ -27526,12 +27603,16 @@
         <f>N4-C4</f>
         <v>0.11791216093115603</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="17">
         <f>O4-C4</f>
         <v>-0.10349464719183699</v>
       </c>
+      <c r="P30" s="9">
+        <f>P4-C4</f>
+        <v>-9.254479664377796E-2</v>
+      </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
@@ -27579,12 +27660,16 @@
         <f t="shared" ref="N31:N38" si="13">N5-C5</f>
         <v>2.5893617421388599</v>
       </c>
-      <c r="O31" s="10">
-        <f t="shared" ref="O31:O38" si="14">O5-C5</f>
+      <c r="O31" s="16">
+        <f t="shared" ref="O31:P38" si="14">O5-C5</f>
         <v>-0.57320104679092787</v>
       </c>
+      <c r="P31" s="10">
+        <f t="shared" ref="P31:P38" si="15">P5-C5</f>
+        <v>1.1941618286073199</v>
+      </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
@@ -27632,12 +27717,16 @@
         <f t="shared" si="13"/>
         <v>-8.7950960732995964E-2</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="16">
         <f t="shared" si="14"/>
         <v>0.854059064295146</v>
       </c>
+      <c r="P32" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.33501180587336399</v>
+      </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -27685,12 +27774,16 @@
         <f t="shared" si="13"/>
         <v>1.6745044849813011</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="16">
         <f t="shared" si="14"/>
         <v>7.7238422818482304</v>
       </c>
+      <c r="P33" s="10">
+        <f t="shared" si="15"/>
+        <v>24.064666125923431</v>
+      </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
@@ -27738,12 +27831,16 @@
         <f t="shared" si="13"/>
         <v>-0.42160926386713982</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="16">
         <f t="shared" si="14"/>
         <v>6.1638767365366203</v>
       </c>
+      <c r="P34" s="10">
+        <f t="shared" si="15"/>
+        <v>11.719902278855409</v>
+      </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
@@ -27791,12 +27888,16 @@
         <f t="shared" si="13"/>
         <v>-0.20127597963437505</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="16">
         <f t="shared" si="14"/>
         <v>0.46632770681753499</v>
       </c>
+      <c r="P35" s="10">
+        <f t="shared" si="15"/>
+        <v>7.0417745155282354</v>
+      </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
@@ -27844,12 +27945,16 @@
         <f t="shared" si="13"/>
         <v>-1.0881121852435098E-3</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="16">
         <f t="shared" si="14"/>
         <v>1.5168068102866538E-2</v>
       </c>
+      <c r="P36" s="10">
+        <f t="shared" si="15"/>
+        <v>4.7176411044347402E-3</v>
+      </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
         <v>19</v>
       </c>
@@ -27897,12 +28002,16 @@
         <f t="shared" si="13"/>
         <v>-0.32084516715258504</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="16">
         <f t="shared" si="14"/>
         <v>0.90110651217401005</v>
       </c>
+      <c r="P37" s="10">
+        <f t="shared" si="15"/>
+        <v>4.53166617080569</v>
+      </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -27950,12 +28059,16 @@
         <f t="shared" si="13"/>
         <v>3.3490089044789766</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="6">
         <f t="shared" si="14"/>
         <v>15.447684675791637</v>
       </c>
+      <c r="P38" s="11">
+        <f t="shared" si="15"/>
+        <v>48.129331958307375</v>
+      </c>
     </row>
-    <row r="39" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="20" t="s">
         <v>3</v>
@@ -27970,22 +28083,23 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="22"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" ref="D40:D46" si="15">D14-C14</f>
+        <f t="shared" ref="D40:D46" si="16">D14-C14</f>
         <v>-5</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" ref="E40:E46" si="16">E14-C14</f>
+        <f t="shared" ref="E40:E46" si="17">E14-C14</f>
         <v>-117</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" ref="F40:F46" si="17">F14-C14</f>
+        <f t="shared" ref="F40:F46" si="18">F14-C14</f>
         <v>-58</v>
       </c>
       <c r="G40" s="17">
@@ -28020,330 +28134,358 @@
         <f>N14-C14</f>
         <v>-87</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="17">
         <f>O14-C14</f>
         <v>36</v>
       </c>
+      <c r="P40" s="9">
+        <f>P14-C14</f>
+        <v>464</v>
+      </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="E41" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-32</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" ref="G41:G46" si="18">G15-C15</f>
+        <f t="shared" ref="G41:G46" si="19">G15-C15</f>
         <v>-32</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" ref="H41:H46" si="19">H15-C15</f>
+        <f t="shared" ref="H41:H46" si="20">H15-C15</f>
         <v>0</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ref="I41:I46" si="20">I15-C15</f>
+        <f t="shared" ref="I41:I46" si="21">I15-C15</f>
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" ref="J41:J46" si="21">J15-C15</f>
+        <f t="shared" ref="J41:J46" si="22">J15-C15</f>
         <v>0</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" ref="K41:K46" si="22">K15-C15</f>
+        <f t="shared" ref="K41:K46" si="23">K15-C15</f>
         <v>0</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" ref="L41:L46" si="23">L15-C15</f>
+        <f t="shared" ref="L41:L46" si="24">L15-C15</f>
         <v>0</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" ref="M41:M46" si="24">M15-C15</f>
+        <f t="shared" ref="M41:M46" si="25">M15-C15</f>
         <v>0</v>
       </c>
       <c r="N41" s="16">
-        <f t="shared" ref="N41:N46" si="25">N15-C15</f>
+        <f t="shared" ref="N41:N46" si="26">N15-C15</f>
         <v>0</v>
       </c>
-      <c r="O41" s="10">
-        <f t="shared" ref="O41:O46" si="26">O15-C15</f>
+      <c r="O41" s="16">
+        <f t="shared" ref="O41:P46" si="27">O15-C15</f>
         <v>-32</v>
       </c>
+      <c r="P41" s="10">
+        <f t="shared" ref="P41:P46" si="28">P15-C15</f>
+        <v>-32</v>
+      </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-26</v>
       </c>
       <c r="E42" s="16">
+        <f t="shared" si="17"/>
+        <v>-54</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="18"/>
+        <v>-38</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="19"/>
+        <v>194</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="22"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="23"/>
+        <v>62</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="24"/>
+        <v>81</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="N42" s="16">
+        <f t="shared" si="26"/>
+        <v>216</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" si="27"/>
+        <v>298</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="28"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="16"/>
-        <v>-54</v>
-      </c>
-      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="17"/>
-        <v>-38</v>
-      </c>
-      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="18"/>
-        <v>194</v>
-      </c>
-      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="28"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="20"/>
-        <v>66</v>
-      </c>
-      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="21"/>
-        <v>66</v>
-      </c>
-      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="22"/>
-        <v>62</v>
-      </c>
-      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
         <f t="shared" si="23"/>
-        <v>81</v>
-      </c>
-      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="24"/>
-        <v>98</v>
-      </c>
-      <c r="N42" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
         <f t="shared" si="25"/>
-        <v>216</v>
-      </c>
-      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N45" s="16">
         <f t="shared" si="26"/>
-        <v>298</v>
+        <v>0</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="28"/>
+        <v>22</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="E46" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I43" s="16">
+      <c r="H46" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J43" s="16">
+      <c r="I46" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K43" s="16">
+      <c r="J46" s="6">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L43" s="16">
+      <c r="K46" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M43" s="16">
+      <c r="L46" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N43" s="16">
+      <c r="M46" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O43" s="10">
+      <c r="N46" s="6">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
+      <c r="O46" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="N44" s="16">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="O44" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="18"/>
       <c r="D47" s="20" t="s">
         <v>23</v>
@@ -28358,9 +28500,10 @@
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
-      <c r="O47" s="22"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>34</v>
       </c>
@@ -28408,12 +28551,16 @@
         <f>N22-C22</f>
         <v>9</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="17">
         <f>O22-C22</f>
         <v>-28</v>
       </c>
+      <c r="P48" s="9">
+        <f>P22-C22</f>
+        <v>-33</v>
+      </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
@@ -28450,23 +28597,27 @@
         <v>-3</v>
       </c>
       <c r="L49" s="16">
-        <f t="shared" ref="L49:L51" si="27">L23-C23</f>
+        <f t="shared" ref="L49:L51" si="29">L23-C23</f>
         <v>-4</v>
       </c>
       <c r="M49" s="16">
-        <f t="shared" ref="M49:M51" si="28">M23-C23</f>
+        <f t="shared" ref="M49:M51" si="30">M23-C23</f>
         <v>-5</v>
       </c>
       <c r="N49" s="16">
-        <f t="shared" ref="N49:N51" si="29">N23-C23</f>
+        <f t="shared" ref="N49:N51" si="31">N23-C23</f>
         <v>-6</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" ref="O49:O51" si="30">O23-C23</f>
+      <c r="O49" s="16">
+        <f t="shared" ref="O49:P51" si="32">O23-C23</f>
         <v>0</v>
       </c>
+      <c r="P49" s="10">
+        <f t="shared" ref="P49:P51" si="33">P23-C23</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
         <v>4</v>
       </c>
@@ -28503,23 +28654,27 @@
         <v>-2.3239999999999998</v>
       </c>
       <c r="L50" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.081</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.28</v>
       </c>
       <c r="N50" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.1999999999999997</v>
       </c>
-      <c r="O50" s="10">
+      <c r="O50" s="16">
         <f>O24-C24</f>
         <v>0.55400000000000027</v>
       </c>
+      <c r="P50" s="10">
+        <f t="shared" si="33"/>
+        <v>-2.2850000000000001</v>
+      </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
@@ -28556,23 +28711,27 @@
         <v>18.7872653467779</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>68.307027237596202</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>58.58989918313415</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>124.4283185343624</v>
       </c>
-      <c r="O51" s="11">
-        <f t="shared" si="30"/>
+      <c r="O51" s="6">
+        <f t="shared" si="32"/>
         <v>15.072356014925674</v>
       </c>
+      <c r="P51" s="11">
+        <f t="shared" si="33"/>
+        <v>-41.718147956688924</v>
+      </c>
     </row>
-    <row r="54" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C54" s="23" t="s">
         <v>45</v>
       </c>
@@ -28612,8 +28771,11 @@
       <c r="O54" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="P54" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="55" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="24"/>
       <c r="D55" s="20" t="s">
         <v>22</v>
@@ -28629,8 +28791,9 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
       <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>36</v>
       </c>
@@ -28639,475 +28802,511 @@
         <v>-18.435649023904833</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:L56" si="31">((E4-$C4)/$C4)*100</f>
+        <f t="shared" ref="E56:L56" si="34">((E4-$C4)/$C4)*100</f>
         <v>-35.582227541156172</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-69.829975862965838</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-35.287029261036132</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.17798908281521064</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-18.348112148948175</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-4.7910388689480357</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>63.173117529499592</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>43.401893633662759</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" ref="M56:N56" si="32">((M4-$C4)/$C4)*100</f>
+        <f t="shared" ref="M56:N56" si="35">((M4-$C4)/$C4)*100</f>
         <v>22.614519242062396</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>25.958835371279417</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" ref="O56" si="33">((O4-$C4)/$C4)*100</f>
+        <f t="shared" ref="O56:P56" si="36">((O4-$C4)/$C4)*100</f>
         <v>-22.784761868880814</v>
       </c>
+      <c r="P56" s="9">
+        <f t="shared" si="36"/>
+        <v>-20.374108332617176</v>
+      </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C57" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="10">
-        <f t="shared" ref="D57:D64" si="34">((D5-$C5)/$C5)*100</f>
+        <f t="shared" ref="D57:D64" si="37">((D5-$C5)/$C5)*100</f>
         <v>44.533976647304748</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" ref="E57:L57" si="35">((E5-$C5)/$C5)*100</f>
+        <f t="shared" ref="E57:L57" si="38">((E5-$C5)/$C5)*100</f>
         <v>-9.5885464674817307</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-84.807098472780623</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-67.989122335392153</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8255068319380879E-2</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>31.713880824477464</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>47.292733141933198</v>
       </c>
       <c r="K57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-34.695768655224043</v>
       </c>
       <c r="L57" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-27.175844196344091</v>
       </c>
       <c r="M57" s="10">
-        <f t="shared" ref="M57:N57" si="36">((M5-$C5)/$C5)*100</f>
+        <f t="shared" ref="M57:N57" si="39">((M5-$C5)/$C5)*100</f>
         <v>161.14373270748891</v>
       </c>
       <c r="N57" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>213.03116885306039</v>
       </c>
       <c r="O57" s="10">
-        <f t="shared" ref="O57" si="37">((O5-$C5)/$C5)*100</f>
+        <f t="shared" ref="O57:P57" si="40">((O5-$C5)/$C5)*100</f>
         <v>-47.158219339722038</v>
       </c>
+      <c r="P57" s="10">
+        <f t="shared" si="40"/>
+        <v>98.245712836473558</v>
+      </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C58" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>23.779754142979883</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" ref="E58:L58" si="38">((E6-$C6)/$C6)*100</f>
+        <f t="shared" ref="E58:L58" si="41">((E6-$C6)/$C6)*100</f>
         <v>-4.1243105024289388</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>232.65371189335323</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>114.87014328483636</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.5547223948603879</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-9.318023115098212</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8.5413170348358936</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>384.59144613835406</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>362.35999596209587</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" ref="M58:N58" si="39">((M6-$C6)/$C6)*100</f>
+        <f t="shared" ref="M58:N58" si="42">((M6-$C6)/$C6)*100</f>
         <v>-16.779730339491429</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-26.253092933161238</v>
       </c>
       <c r="O58" s="10">
-        <f t="shared" ref="O58" si="40">((O6-$C6)/$C6)*100</f>
+        <f t="shared" ref="O58:P58" si="43">((O6-$C6)/$C6)*100</f>
         <v>254.93402003211321</v>
       </c>
+      <c r="P58" s="10">
+        <f t="shared" si="43"/>
+        <v>-100</v>
+      </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C59" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>47.144033771028802</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" ref="E59:L59" si="41">((E7-$C7)/$C7)*100</f>
+        <f t="shared" ref="E59:L59" si="44">((E7-$C7)/$C7)*100</f>
         <v>-23.966723887494993</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>53.886518500914882</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>128.00170178729215</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.2113327784458463</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-3.9046308766122064</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>13.186784192549087</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>16.669612449792055</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.933098005925262</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" ref="M59:N59" si="42">((M7-$C7)/$C7)*100</f>
+        <f t="shared" ref="M59:N59" si="45">((M7-$C7)/$C7)*100</f>
         <v>27.622387976585998</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>22.324448243025095</v>
       </c>
       <c r="O59" s="10">
-        <f t="shared" ref="O59" si="43">((O7-$C7)/$C7)*100</f>
+        <f t="shared" ref="O59:P59" si="46">((O7-$C7)/$C7)*100</f>
         <v>102.97405519360862</v>
       </c>
+      <c r="P59" s="10">
+        <f t="shared" si="46"/>
+        <v>320.82947417119402</v>
+      </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C60" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>75.96781758086874</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" ref="E60:L60" si="44">((E8-$C8)/$C8)*100</f>
+        <f t="shared" ref="E60:L60" si="47">((E8-$C8)/$C8)*100</f>
         <v>-31.026058615961897</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>93.700773718361802</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>199.02318489636534</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.14294122208613866</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-9.9595015114334409</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>6.441768993004418</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>5.2948420757547465</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-12.936781631347413</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" ref="M60:N60" si="45">((M8-$C8)/$C8)*100</f>
+        <f t="shared" ref="M60:N60" si="48">((M8-$C8)/$C8)*100</f>
         <v>7.0844949213075115</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-11.829875643096672</v>
       </c>
       <c r="O60" s="10">
-        <f t="shared" ref="O60" si="46">((O8-$C8)/$C8)*100</f>
+        <f t="shared" ref="O60:P60" si="49">((O8-$C8)/$C8)*100</f>
         <v>172.95135928413356</v>
       </c>
+      <c r="P60" s="10">
+        <f t="shared" si="49"/>
+        <v>328.84710652799004</v>
+      </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-9.0317142123497565</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" ref="E61:L61" si="47">((E9-$C9)/$C9)*100</f>
+        <f t="shared" ref="E61:L61" si="50">((E9-$C9)/$C9)*100</f>
         <v>-35.941321142839868</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-51.773191884360415</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>27.687502585921099</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.43275451861124714</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-5.7176290820840343</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>11.572742320958476</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>13.31010241669518</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-17.736833278430218</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" ref="M61:N61" si="48">((M9-$C9)/$C9)*100</f>
+        <f t="shared" ref="M61:N61" si="51">((M9-$C9)/$C9)*100</f>
         <v>-3.6180662962311998</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-21.842673023006004</v>
       </c>
       <c r="O61" s="10">
-        <f t="shared" ref="O61" si="49">((O9-$C9)/$C9)*100</f>
+        <f t="shared" ref="O61:P61" si="52">((O9-$C9)/$C9)*100</f>
         <v>50.606354717967697</v>
       </c>
+      <c r="P61" s="10">
+        <f t="shared" si="52"/>
+        <v>764.18049746334975</v>
+      </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-6.1062119553996101</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" ref="E62:L62" si="50">((E10-$C10)/$C10)*100</f>
+        <f t="shared" ref="E62:L62" si="53">((E10-$C10)/$C10)*100</f>
         <v>16.699472858087848</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>133.57469157577469</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>213.86600774937611</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-1.8867997932835279</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-2.8699969800628463E-4</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-5.0093118646503276</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>91.95956952341308</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>67.583754005798596</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" ref="M62:N62" si="51">((M10-$C10)/$C10)*100</f>
+        <f t="shared" ref="M62:N62" si="54">((M10-$C10)/$C10)*100</f>
         <v>27.13143993042133</v>
       </c>
       <c r="N62" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-30.521257142864261</v>
       </c>
       <c r="O62" s="10">
-        <f t="shared" ref="O62" si="52">((O10-$C10)/$C10)*100</f>
+        <f t="shared" ref="O62:P62" si="55">((O10-$C10)/$C10)*100</f>
         <v>425.46027257700734</v>
       </c>
+      <c r="P62" s="10">
+        <f t="shared" si="55"/>
+        <v>132.32857715307688</v>
+      </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C63" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>37.230272296319036</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" ref="E63:L63" si="53">((E11-$C11)/$C11)*100</f>
+        <f t="shared" ref="E63:L63" si="56">((E11-$C11)/$C11)*100</f>
         <v>-6.8867784064323034</v>
       </c>
       <c r="F63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-36.10269420209714</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>22.192452849382104</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.73837857733366508</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-15.506470320589177</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7.087770802776193</v>
       </c>
       <c r="K63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-21.641136960128545</v>
       </c>
       <c r="L63" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-31.148781306585942</v>
       </c>
       <c r="M63" s="10">
-        <f t="shared" ref="M63:N63" si="54">((M11-$C11)/$C11)*100</f>
+        <f t="shared" ref="M63:N63" si="57">((M11-$C11)/$C11)*100</f>
         <v>-15.23343647868089</v>
       </c>
       <c r="N63" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-31.859601025411582</v>
       </c>
       <c r="O63" s="10">
-        <f t="shared" ref="O63" si="55">((O11-$C11)/$C11)*100</f>
+        <f t="shared" ref="O63:P63" si="58">((O11-$C11)/$C11)*100</f>
         <v>89.478966487318147</v>
       </c>
+      <c r="P63" s="10">
+        <f t="shared" si="58"/>
+        <v>449.98987350668813</v>
+      </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>47.144020453505753</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" ref="E64:L64" si="56">((E12-$C12)/$C12)*100</f>
+        <f t="shared" ref="E64:L64" si="59">((E12-$C12)/$C12)*100</f>
         <v>-23.966727742941849</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>39.841645682828201</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>110.51248917817915</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.21132922932416195</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-3.9046344735631631</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>13.186777803036081</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>16.669612861682875</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.9330921548320512</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" ref="M64:N64" si="57">((M12-$C12)/$C12)*100</f>
+        <f t="shared" ref="M64:N64" si="60">((M12-$C12)/$C12)*100</f>
         <v>27.622381211425317</v>
       </c>
       <c r="N64" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>22.324446906799849</v>
       </c>
       <c r="O64" s="11">
-        <f t="shared" ref="O64" si="58">((O12-$C12)/$C12)*100</f>
+        <f t="shared" ref="O64:P64" si="61">((O12-$C12)/$C12)*100</f>
         <v>102.97405179080823</v>
       </c>
+      <c r="P64" s="11">
+        <f t="shared" si="61"/>
+        <v>320.82945928450368</v>
+      </c>
     </row>
-    <row r="65" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="20" t="s">
         <v>3</v>
@@ -29123,8 +29322,9 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>6</v>
       </c>
@@ -29133,31 +29333,31 @@
         <v>-1.8181818181818181</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" ref="E66:K66" si="59">((E14-$C14)/$C14)*100</f>
+        <f t="shared" ref="E66:K66" si="62">((E14-$C14)/$C14)*100</f>
         <v>-42.545454545454547</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>-21.09090909090909</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>64.363636363636374</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>-32.36363636363636</v>
       </c>
       <c r="L66" s="9">
@@ -29176,114 +29376,126 @@
         <f>((O14-$C14)/$C14)*100</f>
         <v>13.090909090909092</v>
       </c>
+      <c r="P66" s="9">
+        <f>((P14-$C14)/$C14)*100</f>
+        <v>168.72727272727272</v>
+      </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="10">
-        <f t="shared" ref="D67:K72" si="60">((D15-$C15)/$C15)*100</f>
+        <f t="shared" ref="D67:K72" si="63">((D15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-100</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-100</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K67" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67:M67" si="61">((L15-$C15)/$C15)*100</f>
+        <f t="shared" ref="L67:M67" si="64">((L15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" ref="N67:O67" si="62">((N15-$C15)/$C15)*100</f>
+        <f t="shared" ref="N67:O67" si="65">((N15-$C15)/$C15)*100</f>
         <v>0</v>
       </c>
       <c r="O67" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>-100</v>
       </c>
+      <c r="P67" s="10">
+        <f t="shared" ref="P67" si="66">((P15-$C15)/$C15)*100</f>
+        <v>-100</v>
+      </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-16.25</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-33.75</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-23.75</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>121.24999999999999</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>41.25</v>
       </c>
       <c r="J68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>41.25</v>
       </c>
       <c r="K68" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>38.75</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" ref="L68:M68" si="63">((L16-$C16)/$C16)*100</f>
+        <f t="shared" ref="L68:M68" si="67">((L16-$C16)/$C16)*100</f>
         <v>50.625</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>61.250000000000007</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" ref="N68:O68" si="64">((N16-$C16)/$C16)*100</f>
+        <f t="shared" ref="N68:O68" si="68">((N16-$C16)/$C16)*100</f>
         <v>135</v>
       </c>
       <c r="O68" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>186.25</v>
       </c>
+      <c r="P68" s="10">
+        <f t="shared" ref="P68" si="69">((P16-$C16)/$C16)*100</f>
+        <v>336.875</v>
+      </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" s="16" t="s">
         <v>29</v>
       </c>
@@ -29323,167 +29535,182 @@
       <c r="O69" s="10">
         <v>1</v>
       </c>
+      <c r="P69" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>100</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>100</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K70" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>100</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" ref="L70:M70" si="65">((L18-$C18)/$C18)*100</f>
+        <f t="shared" ref="L70:M70" si="70">((L18-$C18)/$C18)*100</f>
         <v>100</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>100</v>
       </c>
       <c r="N70" s="10">
-        <f t="shared" ref="N70:O70" si="66">((N18-$C18)/$C18)*100</f>
+        <f t="shared" ref="N70:O70" si="71">((N18-$C18)/$C18)*100</f>
         <v>100</v>
       </c>
       <c r="O70" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
+      <c r="P70" s="10">
+        <f t="shared" ref="P70" si="72">((P18-$C18)/$C18)*100</f>
+        <v>-100</v>
+      </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K71" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" ref="L71:M71" si="67">((L19-$C19)/$C19)*100</f>
+        <f t="shared" ref="L71:M71" si="73">((L19-$C19)/$C19)*100</f>
         <v>0</v>
       </c>
       <c r="M71" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N71" s="10">
-        <f t="shared" ref="N71:O71" si="68">((N19-$C19)/$C19)*100</f>
+        <f t="shared" ref="N71:O71" si="74">((N19-$C19)/$C19)*100</f>
         <v>0</v>
       </c>
       <c r="O71" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
+      <c r="P71" s="10">
+        <f t="shared" ref="P71" si="75">((P19-$C19)/$C19)*100</f>
+        <v>30.985915492957744</v>
+      </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" ref="L72:M72" si="69">((L20-$C20)/$C20)*100</f>
+        <f t="shared" ref="L72:M72" si="76">((L20-$C20)/$C20)*100</f>
         <v>0</v>
       </c>
       <c r="M72" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N72" s="11">
-        <f t="shared" ref="N72:O72" si="70">((N20-$C20)/$C20)*100</f>
+        <f t="shared" ref="N72:O72" si="77">((N20-$C20)/$C20)*100</f>
         <v>0</v>
       </c>
       <c r="O72" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
+      <c r="P72" s="11">
+        <f t="shared" ref="P72" si="78">((P20-$C20)/$C20)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="18"/>
       <c r="D73" s="20" t="s">
         <v>23</v>
@@ -29499,8 +29726,9 @@
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>34</v>
       </c>
@@ -29509,223 +29737,239 @@
         <v>-2.2727272727272729</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" ref="E74:L74" si="71">((E22-$C22)/$C22)*100</f>
+        <f t="shared" ref="E74:L74" si="79">((E22-$C22)/$C22)*100</f>
         <v>52.272727272727273</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>-20.454545454545457</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>-43.18181818181818</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>13.636363636363635</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>6.8181818181818175</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>20.454545454545457</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" ref="M74:N74" si="72">((M22-$C22)/$C22)*100</f>
+        <f t="shared" ref="M74:N74" si="80">((M22-$C22)/$C22)*100</f>
         <v>0</v>
       </c>
       <c r="N74" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>20.454545454545457</v>
       </c>
       <c r="O74" s="9">
-        <f t="shared" ref="O74" si="73">((O22-$C22)/$C22)*100</f>
+        <f t="shared" ref="O74:P74" si="81">((O22-$C22)/$C22)*100</f>
         <v>-63.636363636363633</v>
       </c>
+      <c r="P74" s="9">
+        <f t="shared" si="81"/>
+        <v>-75</v>
+      </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" ref="D75:L77" si="74">((D23-$C23)/$C23)*100</f>
+        <f t="shared" ref="D75:L77" si="82">((D23-$C23)/$C23)*100</f>
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-10</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-20</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-30</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-40</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" ref="M75:N75" si="75">((M23-$C23)/$C23)*100</f>
+        <f t="shared" ref="M75:N75" si="83">((M23-$C23)/$C23)*100</f>
         <v>-50</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>-60</v>
       </c>
       <c r="O75" s="10">
-        <f t="shared" ref="O75" si="76">((O23-$C23)/$C23)*100</f>
+        <f t="shared" ref="O75:P75" si="84">((O23-$C23)/$C23)*100</f>
         <v>0</v>
       </c>
+      <c r="P75" s="10">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-15.873015873015875</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-5.1997810618500262</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>15.024630541871931</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-32.348111658456489</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-16.256157635467979</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-37.684729064039402</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-63.601532567049802</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-56.951286261631083</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" ref="M76:N76" si="77">((M24-$C24)/$C24)*100</f>
+        <f t="shared" ref="M76:N76" si="85">((M24-$C24)/$C24)*100</f>
         <v>-89.764641488779418</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>-87.575259989053095</v>
       </c>
       <c r="O76" s="10">
-        <f t="shared" ref="O76" si="78">((O24-$C24)/$C24)*100</f>
+        <f t="shared" ref="O76:P76" si="86">((O24-$C24)/$C24)*100</f>
         <v>15.161466885604824</v>
       </c>
+      <c r="P76" s="10">
+        <f t="shared" si="86"/>
+        <v>-62.534209085933234</v>
+      </c>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-8.3742419867167204</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-2.9069767441860419</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>9.4704157322753151</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>-15.701381509032938</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>6.8350168350168437</v>
       </c>
       <c r="J77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>10.885899004018881</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>11.922398589065256</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>43.347639484978551</v>
       </c>
       <c r="M77" s="11">
-        <f t="shared" ref="M77:N77" si="79">((M25-$C25)/$C25)*100</f>
+        <f t="shared" ref="M77:N77" si="87">((M25-$C25)/$C25)*100</f>
         <v>37.181150021616929</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>78.962210941906392</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" ref="O77" si="80">((O25-$C25)/$C25)*100</f>
+        <f t="shared" ref="O77:P77" si="88">((O25-$C25)/$C25)*100</f>
         <v>9.5649171270718334</v>
+      </c>
+      <c r="P77" s="11">
+        <f t="shared" si="88"/>
+        <v>-26.474336693314793</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D73:O73"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="D73:P73"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="D55:O55"/>
-    <mergeCell ref="D65:O65"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D39:O39"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="C13:P13"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="D29:P29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>
